--- a/Raw_Data/DVCS_data/DVCSoutput/4_ALL_QfefWWW2.xlsx
+++ b/Raw_Data/DVCS_data/DVCSoutput/4_ALL_QfefWWW2.xlsx
@@ -435,7 +435,7 @@
         <v>1.088650540807288</v>
       </c>
       <c r="E1" t="n">
-        <v>0.001669114214218241</v>
+        <v>0.0956332</v>
       </c>
       <c r="F1" t="n">
         <v>-0.00401505</v>
@@ -463,7 +463,7 @@
         <v>1.088971992293649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004974258181353918</v>
+        <v>0.285004</v>
       </c>
       <c r="F2" t="n">
         <v>0.06357599999999999</v>
@@ -491,7 +491,7 @@
         <v>1.087170639780159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008207375900918294</v>
+        <v>0.470248</v>
       </c>
       <c r="F3" t="n">
         <v>0.0983536</v>
@@ -519,7 +519,7 @@
         <v>1.08622281323861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01147950172926474</v>
+        <v>0.657727</v>
       </c>
       <c r="F4" t="n">
         <v>0.145918</v>
@@ -547,7 +547,7 @@
         <v>1.085619638731725</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01478279913805181</v>
+        <v>0.846992</v>
       </c>
       <c r="F5" t="n">
         <v>0.165289</v>
@@ -575,7 +575,7 @@
         <v>1.080684967971703</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01788718137198909</v>
+        <v>1.02486</v>
       </c>
       <c r="F6" t="n">
         <v>0.226742</v>
@@ -603,7 +603,7 @@
         <v>1.075504532765901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02114815454641529</v>
+        <v>1.2117</v>
       </c>
       <c r="F7" t="n">
         <v>0.170445</v>
@@ -631,7 +631,7 @@
         <v>1.074941858892843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02438469311131358</v>
+        <v>1.39714</v>
       </c>
       <c r="F8" t="n">
         <v>0.201054</v>
@@ -659,7 +659,7 @@
         <v>1.072949206626297</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02860996069746665</v>
+        <v>1.63923</v>
       </c>
       <c r="F9" t="n">
         <v>0.196896</v>
@@ -687,7 +687,7 @@
         <v>1.091155350992699</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03231564376530101</v>
+        <v>1.85155</v>
       </c>
       <c r="F10" t="n">
         <v>0.19516</v>
@@ -715,7 +715,7 @@
         <v>1.086922260329597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03582445369351041</v>
+        <v>2.05259</v>
       </c>
       <c r="F11" t="n">
         <v>0.22057</v>
@@ -743,7 +743,7 @@
         <v>1.086126143686819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03895208371308425</v>
+        <v>2.23179</v>
       </c>
       <c r="F12" t="n">
         <v>0.102624</v>
@@ -771,7 +771,7 @@
         <v>1.075206956822732</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04230765373296854</v>
+        <v>2.42405</v>
       </c>
       <c r="F13" t="n">
         <v>0.153486</v>
@@ -799,7 +799,7 @@
         <v>1.074969767016729</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04552708807119728</v>
+        <v>2.60851</v>
       </c>
       <c r="F14" t="n">
         <v>0.197954</v>
@@ -827,7 +827,7 @@
         <v>1.077664140630094</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04875699438493799</v>
+        <v>2.79357</v>
       </c>
       <c r="F15" t="n">
         <v>0.0944589</v>
@@ -855,7 +855,7 @@
         <v>1.079606409762373</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05199388201568667</v>
+        <v>2.97903</v>
       </c>
       <c r="F16" t="n">
         <v>-0.000287466</v>
@@ -883,7 +883,7 @@
         <v>1.073545527679195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0552492701365065</v>
+        <v>3.16555</v>
       </c>
       <c r="F17" t="n">
         <v>0.051989</v>
@@ -911,7 +911,7 @@
         <v>1.080610938312212</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05867081360211619</v>
+        <v>3.36159</v>
       </c>
       <c r="F18" t="n">
         <v>-0.093807</v>
@@ -939,7 +939,7 @@
         <v>1.082492494200306</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06192253653150682</v>
+        <v>3.5479</v>
       </c>
       <c r="F19" t="n">
         <v>-0.00275131</v>
@@ -967,7 +967,7 @@
         <v>1.077840433459424</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06516361295246029</v>
+        <v>3.7336</v>
       </c>
       <c r="F20" t="n">
         <v>-0.181496</v>
@@ -995,7 +995,7 @@
         <v>1.084449168933242</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07022454418446825</v>
+        <v>4.02357</v>
       </c>
       <c r="F21" t="n">
         <v>-0.434516</v>
@@ -1023,7 +1023,7 @@
         <v>1.06796067343325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08355781247215373</v>
+        <v>4.78751</v>
       </c>
       <c r="F22" t="n">
         <v>-0.396749</v>
@@ -1051,7 +1051,7 @@
         <v>1.075746252607928</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08743610860301032</v>
+        <v>5.00972</v>
       </c>
       <c r="F23" t="n">
         <v>-0.138658</v>
@@ -1079,7 +1079,7 @@
         <v>1.076703301750301</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09064838709130589</v>
+        <v>5.19377</v>
       </c>
       <c r="F24" t="n">
         <v>-0.209361</v>
@@ -1107,7 +1107,7 @@
         <v>1.085034561661517</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0938458302809595</v>
+        <v>5.37697</v>
       </c>
       <c r="F25" t="n">
         <v>-0.21347</v>
@@ -1135,7 +1135,7 @@
         <v>1.087198233994151</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09706177396068426</v>
+        <v>5.56123</v>
       </c>
       <c r="F26" t="n">
         <v>-0.153312</v>
@@ -1163,7 +1163,7 @@
         <v>1.086623209765004</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1002831281610902</v>
+        <v>5.7458</v>
       </c>
       <c r="F27" t="n">
         <v>-0.0964044</v>
@@ -1191,7 +1191,7 @@
         <v>1.08878831735099</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1035521298500756</v>
+        <v>5.9331</v>
       </c>
       <c r="F28" t="n">
         <v>-0.152948</v>
@@ -1219,7 +1219,7 @@
         <v>1.089215313884266</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1074569549855625</v>
+        <v>6.15683</v>
       </c>
       <c r="F29" t="n">
         <v>-0.0428874</v>
@@ -1247,7 +1247,7 @@
         <v>1.082289240452847</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001689833017768666</v>
+        <v>0.0968203</v>
       </c>
       <c r="F30" t="n">
         <v>0.00788785</v>
@@ -1275,7 +1275,7 @@
         <v>1.0842923959892</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004890290391040472</v>
+        <v>0.280193</v>
       </c>
       <c r="F31" t="n">
         <v>0.111085</v>
@@ -1303,7 +1303,7 @@
         <v>1.097570043322976</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008118870254549663</v>
+        <v>0.465177</v>
       </c>
       <c r="F32" t="n">
         <v>0.13975</v>
@@ -1331,7 +1331,7 @@
         <v>1.099736332036002</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01141663496960791</v>
+        <v>0.654125</v>
       </c>
       <c r="F33" t="n">
         <v>0.253767</v>
@@ -1359,7 +1359,7 @@
         <v>1.096754302476175</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01463081586678815</v>
+        <v>0.838284</v>
       </c>
       <c r="F34" t="n">
         <v>0.245527</v>
@@ -1387,7 +1387,7 @@
         <v>1.097137183765093</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01870731158750122</v>
+        <v>1.07185</v>
       </c>
       <c r="F35" t="n">
         <v>0.368885</v>
@@ -1415,7 +1415,7 @@
         <v>1.106756522456498</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02253534223590038</v>
+        <v>1.29118</v>
       </c>
       <c r="F36" t="n">
         <v>0.186504</v>
@@ -1443,7 +1443,7 @@
         <v>1.103054849044235</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02626196925475868</v>
+        <v>1.5047</v>
       </c>
       <c r="F37" t="n">
         <v>0.262475</v>
@@ -1471,7 +1471,7 @@
         <v>1.100804251445278</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03015248269037924</v>
+        <v>1.72761</v>
       </c>
       <c r="F38" t="n">
         <v>0.369252</v>
@@ -1499,7 +1499,7 @@
         <v>1.098162100966884</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0334272439658962</v>
+        <v>1.91524</v>
       </c>
       <c r="F39" t="n">
         <v>0.278611</v>
@@ -1527,7 +1527,7 @@
         <v>1.089068409237914</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03728337441525247</v>
+        <v>2.13618</v>
       </c>
       <c r="F40" t="n">
         <v>0.191706</v>
@@ -1555,7 +1555,7 @@
         <v>1.102882586679108</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04161720148087959</v>
+        <v>2.38449</v>
       </c>
       <c r="F41" t="n">
         <v>0.14783</v>
@@ -1583,7 +1583,7 @@
         <v>1.100627093978701</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04619537464178591</v>
+        <v>2.6468</v>
       </c>
       <c r="F42" t="n">
         <v>0.379569</v>
@@ -1611,7 +1611,7 @@
         <v>1.099017743259862</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04970331190536931</v>
+        <v>2.84779</v>
       </c>
       <c r="F43" t="n">
         <v>-0.00486285</v>
@@ -1639,7 +1639,7 @@
         <v>1.102329351872661</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05496879572571101</v>
+        <v>3.14948</v>
       </c>
       <c r="F44" t="n">
         <v>0.0432002</v>
@@ -1667,7 +1667,7 @@
         <v>1.094435927772841</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0615600316458676</v>
+        <v>3.52713</v>
       </c>
       <c r="F45" t="n">
         <v>0.00926254</v>
@@ -1695,7 +1695,7 @@
         <v>1.099136024339117</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0675007833538059</v>
+        <v>3.86751</v>
       </c>
       <c r="F46" t="n">
         <v>-0.0338408</v>
@@ -1723,7 +1723,7 @@
         <v>1.100981380405681</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07501337858609029</v>
+        <v>4.29795</v>
       </c>
       <c r="F47" t="n">
         <v>-0.111513</v>
@@ -1751,7 +1751,7 @@
         <v>1.0923094799552</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08343546489158893</v>
+        <v>4.7805</v>
       </c>
       <c r="F48" t="n">
         <v>-0.404022</v>
@@ -1779,7 +1779,7 @@
         <v>1.097592820676229</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09750299319558842</v>
+        <v>5.58651</v>
       </c>
       <c r="F49" t="n">
         <v>-0.118507</v>
@@ -1807,7 +1807,7 @@
         <v>1.093750428571345</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1027524199868118</v>
+        <v>5.88728</v>
       </c>
       <c r="F50" t="n">
         <v>-0.0804759</v>
@@ -1835,7 +1835,7 @@
         <v>1.089623788286581</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1071674048626566</v>
+        <v>6.14024</v>
       </c>
       <c r="F51" t="n">
         <v>-0.07383770000000001</v>
@@ -1863,7 +1863,7 @@
         <v>1.103779869358017</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001579346694800417</v>
+        <v>0.0904899</v>
       </c>
       <c r="F52" t="n">
         <v>0.06282409999999999</v>
@@ -1891,7 +1891,7 @@
         <v>1.107325607037063</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004882942554889576</v>
+        <v>0.279772</v>
       </c>
       <c r="F53" t="n">
         <v>0.0492491</v>
@@ -1919,7 +1919,7 @@
         <v>1.108855265577974</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008120790116726857</v>
+        <v>0.465287</v>
       </c>
       <c r="F54" t="n">
         <v>0.297452</v>
@@ -1947,7 +1947,7 @@
         <v>1.101798529677726</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0117447219623978</v>
+        <v>0.672923</v>
       </c>
       <c r="F55" t="n">
         <v>0.235944</v>
@@ -1975,7 +1975,7 @@
         <v>1.111202051833959</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01809365382250001</v>
+        <v>1.03669</v>
       </c>
       <c r="F56" t="n">
         <v>0.285763</v>
@@ -2003,7 +2003,7 @@
         <v>1.113822247937255</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02738072530528704</v>
+        <v>1.5688</v>
       </c>
       <c r="F57" t="n">
         <v>0.0130705</v>
@@ -2031,7 +2031,7 @@
         <v>1.111170553965502</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08286561489081277</v>
+        <v>4.74785</v>
       </c>
       <c r="F58" t="n">
         <v>0.136644</v>
@@ -2059,7 +2059,7 @@
         <v>1.115549192102258</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09525937244214971</v>
+        <v>5.45796</v>
       </c>
       <c r="F59" t="n">
         <v>-0.106074</v>
@@ -2087,7 +2087,7 @@
         <v>1.114567180568314</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1021439982095665</v>
+        <v>5.85242</v>
       </c>
       <c r="F60" t="n">
         <v>-0.163488</v>
@@ -2115,7 +2115,7 @@
         <v>1.107817674529523</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1070096270982763</v>
+        <v>6.1312</v>
       </c>
       <c r="F61" t="n">
         <v>-0.082403</v>
@@ -2143,7 +2143,7 @@
         <v>1.078118731865837</v>
       </c>
       <c r="E62" t="n">
-        <v>0.001699399167398847</v>
+        <v>0.09736839999999999</v>
       </c>
       <c r="F62" t="n">
         <v>0.0584737</v>
@@ -2171,7 +2171,7 @@
         <v>1.083494347008788</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005059220809341004</v>
+        <v>0.289872</v>
       </c>
       <c r="F63" t="n">
         <v>0.0973894</v>
@@ -2199,7 +2199,7 @@
         <v>1.087782147307079</v>
       </c>
       <c r="E64" t="n">
-        <v>0.008306545509016612</v>
+        <v>0.47593</v>
       </c>
       <c r="F64" t="n">
         <v>0.12513</v>
@@ -2227,7 +2227,7 @@
         <v>1.08554594559604</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01156807718880346</v>
+        <v>0.662802</v>
       </c>
       <c r="F65" t="n">
         <v>0.159234</v>
@@ -2255,7 +2255,7 @@
         <v>1.082788067906181</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01463788445025872</v>
+        <v>0.838689</v>
       </c>
       <c r="F66" t="n">
         <v>0.151797</v>
@@ -2283,7 +2283,7 @@
         <v>1.077302186018389</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01774179544529796</v>
+        <v>1.01653</v>
       </c>
       <c r="F67" t="n">
         <v>0.243558</v>
@@ -2311,7 +2311,7 @@
         <v>1.075881034315598</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02101358966108652</v>
+        <v>1.20399</v>
       </c>
       <c r="F68" t="n">
         <v>0.0223399</v>
@@ -2339,7 +2339,7 @@
         <v>1.08624582853054</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02899829645603539</v>
+        <v>1.66148</v>
       </c>
       <c r="F69" t="n">
         <v>-0.00221551</v>
@@ -2367,7 +2367,7 @@
         <v>1.085241908516253</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03466956932746576</v>
+        <v>1.98642</v>
       </c>
       <c r="F70" t="n">
         <v>0.281879</v>
@@ -2395,7 +2395,7 @@
         <v>1.091017873364135</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03799319982203856</v>
+        <v>2.17685</v>
       </c>
       <c r="F71" t="n">
         <v>0.0733999</v>
@@ -2423,7 +2423,7 @@
         <v>1.085472247457299</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04124230475755121</v>
+        <v>2.36301</v>
       </c>
       <c r="F72" t="n">
         <v>0.0198674</v>
@@ -2451,7 +2451,7 @@
         <v>1.079597147087746</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04439786004515696</v>
+        <v>2.54381</v>
       </c>
       <c r="F73" t="n">
         <v>0.0534143</v>
@@ -2479,7 +2479,7 @@
         <v>1.078721465439527</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04779636516464031</v>
+        <v>2.73853</v>
       </c>
       <c r="F74" t="n">
         <v>0.0682335</v>
@@ -2507,7 +2507,7 @@
         <v>1.079699032138123</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05092329705251335</v>
+        <v>2.91769</v>
       </c>
       <c r="F75" t="n">
         <v>-0.06294710000000001</v>
@@ -2535,7 +2535,7 @@
         <v>1.079805538048402</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05424273875688138</v>
+        <v>3.10788</v>
       </c>
       <c r="F76" t="n">
         <v>-0.0157314</v>
@@ -2563,7 +2563,7 @@
         <v>1.081794804942231</v>
       </c>
       <c r="E77" t="n">
-        <v>0.05747875372300405</v>
+        <v>3.29329</v>
       </c>
       <c r="F77" t="n">
         <v>-0.141388</v>
@@ -2591,7 +2591,7 @@
         <v>1.075188355591707</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06075456219607222</v>
+        <v>3.48098</v>
       </c>
       <c r="F78" t="n">
         <v>-0.0911124</v>
@@ -2619,7 +2619,7 @@
         <v>1.079087577539469</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06413701028643723</v>
+        <v>3.67478</v>
       </c>
       <c r="F79" t="n">
         <v>-0.0686843</v>
@@ -2647,7 +2647,7 @@
         <v>1.07686117953987</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06729431090329496</v>
+        <v>3.85568</v>
       </c>
       <c r="F80" t="n">
         <v>-0.0931732</v>
@@ -2675,7 +2675,7 @@
         <v>1.090619090241868</v>
       </c>
       <c r="E81" t="n">
-        <v>0.07182344031222024</v>
+        <v>4.11518</v>
       </c>
       <c r="F81" t="n">
         <v>-0.0423303</v>
@@ -2703,7 +2703,7 @@
         <v>1.091512711790385</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0763035259691645</v>
+        <v>4.37187</v>
       </c>
       <c r="F82" t="n">
         <v>0.00519163</v>
@@ -2731,7 +2731,7 @@
         <v>1.084776474671165</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07950027102711732</v>
+        <v>4.55503</v>
       </c>
       <c r="F83" t="n">
         <v>-0.328399</v>
@@ -2759,7 +2759,7 @@
         <v>1.081397244309417</v>
       </c>
       <c r="E84" t="n">
-        <v>0.08278114095501625</v>
+        <v>4.74301</v>
       </c>
       <c r="F84" t="n">
         <v>-0.199469</v>
@@ -2787,7 +2787,7 @@
         <v>1.072879303556556</v>
       </c>
       <c r="E85" t="n">
-        <v>0.08610128079108506</v>
+        <v>4.93324</v>
       </c>
       <c r="F85" t="n">
         <v>-0.326399</v>
@@ -2815,7 +2815,7 @@
         <v>1.076740451548097</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08960607646201488</v>
+        <v>5.13405</v>
       </c>
       <c r="F86" t="n">
         <v>-0.187768</v>
@@ -2843,7 +2843,7 @@
         <v>1.079962962327875</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0928639080437875</v>
+        <v>5.32071</v>
       </c>
       <c r="F87" t="n">
         <v>-0.192162</v>
@@ -2871,7 +2871,7 @@
         <v>1.083655849428221</v>
       </c>
       <c r="E88" t="n">
-        <v>0.09601614720581444</v>
+        <v>5.50132</v>
       </c>
       <c r="F88" t="n">
         <v>-0.13929</v>
@@ -2899,7 +2899,7 @@
         <v>1.086554186407654</v>
       </c>
       <c r="E89" t="n">
-        <v>0.09920975067111368</v>
+        <v>5.6843</v>
       </c>
       <c r="F89" t="n">
         <v>-0.171694</v>
@@ -2927,7 +2927,7 @@
         <v>1.086512770288504</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1024429731104332</v>
+        <v>5.86955</v>
       </c>
       <c r="F90" t="n">
         <v>-0.136432</v>
@@ -2955,7 +2955,7 @@
         <v>1.079022705970546</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1065415297928915</v>
+        <v>6.10438</v>
       </c>
       <c r="F91" t="n">
         <v>-0.0298932</v>
@@ -2983,7 +2983,7 @@
         <v>1.109265522767205</v>
       </c>
       <c r="E92" t="n">
-        <v>0.001590823979961532</v>
+        <v>0.09114750000000001</v>
       </c>
       <c r="F92" t="n">
         <v>0.066987</v>
@@ -3011,7 +3011,7 @@
         <v>1.115123311566932</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00452789022515637</v>
+        <v>0.259429</v>
       </c>
       <c r="F93" t="n">
         <v>0.112146</v>
@@ -3039,7 +3039,7 @@
         <v>1.110216195162005</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01128016767539447</v>
+        <v>0.646306</v>
       </c>
       <c r="F94" t="n">
         <v>0.2223</v>
@@ -3067,7 +3067,7 @@
         <v>1.091114109522922</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0221922105049583</v>
+        <v>1.27152</v>
       </c>
       <c r="F95" t="n">
         <v>0.0895558</v>
@@ -3095,7 +3095,7 @@
         <v>1.103793458940576</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03057293250718467</v>
+        <v>1.7517</v>
       </c>
       <c r="F96" t="n">
         <v>0.133169</v>
@@ -3123,7 +3123,7 @@
         <v>1.089729324190186</v>
       </c>
       <c r="E97" t="n">
-        <v>0.03438368439598909</v>
+        <v>1.97004</v>
       </c>
       <c r="F97" t="n">
         <v>0.229122</v>
@@ -3151,7 +3151,7 @@
         <v>1.093224588087919</v>
       </c>
       <c r="E98" t="n">
-        <v>0.03775199531941294</v>
+        <v>2.16303</v>
       </c>
       <c r="F98" t="n">
         <v>0.151947</v>
@@ -3179,7 +3179,7 @@
         <v>1.101721380386166</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04125295126598837</v>
+        <v>2.36362</v>
       </c>
       <c r="F99" t="n">
         <v>0.0154519</v>
@@ -3207,7 +3207,7 @@
         <v>1.103000453309064</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04451322630871378</v>
+        <v>2.55042</v>
       </c>
       <c r="F100" t="n">
         <v>0.023972</v>
@@ -3235,7 +3235,7 @@
         <v>1.107533295210577</v>
       </c>
       <c r="E101" t="n">
-        <v>0.04771293842639499</v>
+        <v>2.73375</v>
       </c>
       <c r="F101" t="n">
         <v>0.173589</v>
@@ -3263,7 +3263,7 @@
         <v>1.098853948439009</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05083166726678365</v>
+        <v>2.91244</v>
       </c>
       <c r="F102" t="n">
         <v>-0.180139</v>
@@ -3291,7 +3291,7 @@
         <v>1.095613983116316</v>
       </c>
       <c r="E103" t="n">
-        <v>0.05419194967564833</v>
+        <v>3.10497</v>
       </c>
       <c r="F103" t="n">
         <v>0.0458699</v>
@@ -3319,7 +3319,7 @@
         <v>1.097447037446455</v>
       </c>
       <c r="E104" t="n">
-        <v>0.05757212883798575</v>
+        <v>3.29864</v>
       </c>
       <c r="F104" t="n">
         <v>-0.0561159</v>
@@ -3347,7 +3347,7 @@
         <v>1.090454033877632</v>
       </c>
       <c r="E105" t="n">
-        <v>0.06095038813814598</v>
+        <v>3.4922</v>
       </c>
       <c r="F105" t="n">
         <v>-0.08424230000000001</v>
@@ -3375,7 +3375,7 @@
         <v>1.103675676999362</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06406597538588106</v>
+        <v>3.67071</v>
       </c>
       <c r="F106" t="n">
         <v>0.107171</v>
@@ -3403,7 +3403,7 @@
         <v>1.091054535758868</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06792385116448932</v>
+        <v>3.89175</v>
       </c>
       <c r="F107" t="n">
         <v>-0.0153734</v>
@@ -3431,7 +3431,7 @@
         <v>1.097287564861646</v>
       </c>
       <c r="E108" t="n">
-        <v>0.07352129660856034</v>
+        <v>4.21246</v>
       </c>
       <c r="F108" t="n">
         <v>0.0282101</v>
@@ -3459,7 +3459,7 @@
         <v>1.091443997647154</v>
       </c>
       <c r="E109" t="n">
-        <v>0.07997744404461256</v>
+        <v>4.58237</v>
       </c>
       <c r="F109" t="n">
         <v>-0.231368</v>
@@ -3487,7 +3487,7 @@
         <v>1.091347790578237</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08514396769636616</v>
+        <v>4.87839</v>
       </c>
       <c r="F110" t="n">
         <v>-0.291731</v>
@@ -3515,7 +3515,7 @@
         <v>1.090678687790313</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09070074696886572</v>
+        <v>5.19677</v>
       </c>
       <c r="F111" t="n">
         <v>-0.333396</v>
@@ -3543,7 +3543,7 @@
         <v>1.088526527007955</v>
       </c>
       <c r="E112" t="n">
-        <v>0.09497575643870063</v>
+        <v>5.44171</v>
       </c>
       <c r="F112" t="n">
         <v>-0.308636</v>
@@ -3571,7 +3571,7 @@
         <v>1.093850995337116</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09962636076356472</v>
+        <v>5.70817</v>
       </c>
       <c r="F113" t="n">
         <v>-0.279221</v>
@@ -3599,7 +3599,7 @@
         <v>1.109333133012802</v>
       </c>
       <c r="E114" t="n">
-        <v>0.10734979176949</v>
+        <v>6.15069</v>
       </c>
       <c r="F114" t="n">
         <v>-0.0272579</v>
@@ -3627,7 +3627,7 @@
         <v>1.101044958210154</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00158209733370156</v>
+        <v>0.09064750000000001</v>
       </c>
       <c r="F115" t="n">
         <v>-0.0168883</v>
@@ -3655,7 +3655,7 @@
         <v>1.117975849470819</v>
       </c>
       <c r="E116" t="n">
-        <v>0.00579864700024092</v>
+        <v>0.332238</v>
       </c>
       <c r="F116" t="n">
         <v>0.241084</v>
@@ -3683,7 +3683,7 @@
         <v>1.126822967462059</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01478150759440534</v>
+        <v>0.8469179999999999</v>
       </c>
       <c r="F117" t="n">
         <v>0.108479</v>
@@ -3711,7 +3711,7 @@
         <v>1.092268282062608</v>
       </c>
       <c r="E118" t="n">
-        <v>0.03522632935885196</v>
+        <v>2.01832</v>
       </c>
       <c r="F118" t="n">
         <v>0.103166</v>
@@ -3739,7 +3739,7 @@
         <v>1.116422858956229</v>
       </c>
       <c r="E119" t="n">
-        <v>0.08046508903761977</v>
+        <v>4.61031</v>
       </c>
       <c r="F119" t="n">
         <v>-0.35183</v>
@@ -3767,7 +3767,7 @@
         <v>1.09610674662644</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09256004622101528</v>
+        <v>5.3033</v>
       </c>
       <c r="F120" t="n">
         <v>-0.008446820000000001</v>
@@ -3795,7 +3795,7 @@
         <v>1.114010771940738</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1065951114009277</v>
+        <v>6.10745</v>
       </c>
       <c r="F121" t="n">
         <v>-0.067066</v>
@@ -3823,7 +3823,7 @@
         <v>1.038744434401456</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004527488799428411</v>
+        <v>0.259406</v>
       </c>
       <c r="F122" t="n">
         <v>0.0184197</v>
@@ -3851,7 +3851,7 @@
         <v>1.07491860156944</v>
       </c>
       <c r="E123" t="n">
-        <v>0.007352374006951313</v>
+        <v>0.42126</v>
       </c>
       <c r="F123" t="n">
         <v>0.107098</v>
@@ -3879,7 +3879,7 @@
         <v>1.087060255919606</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01031976534789955</v>
+        <v>0.591279</v>
       </c>
       <c r="F124" t="n">
         <v>0.06594029999999999</v>
@@ -3907,7 +3907,7 @@
         <v>1.086061692538688</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01337861194165229</v>
+        <v>0.7665380000000001</v>
       </c>
       <c r="F125" t="n">
         <v>0.08874070000000001</v>
@@ -3935,7 +3935,7 @@
         <v>1.06947183226114</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01676374783906538</v>
+        <v>0.960492</v>
       </c>
       <c r="F126" t="n">
         <v>0.236076</v>
@@ -3963,7 +3963,7 @@
         <v>1.072175358791648</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02022644616843709</v>
+        <v>1.15889</v>
       </c>
       <c r="F127" t="n">
         <v>0.243359</v>
@@ -3991,7 +3991,7 @@
         <v>1.08448605339119</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02370453830181139</v>
+        <v>1.35817</v>
       </c>
       <c r="F128" t="n">
         <v>0.285523</v>
@@ -4019,7 +4019,7 @@
         <v>1.0759135653016</v>
       </c>
       <c r="E129" t="n">
-        <v>0.03128293244689596</v>
+        <v>1.79238</v>
       </c>
       <c r="F129" t="n">
         <v>-0.009076580000000001</v>
@@ -4047,7 +4047,7 @@
         <v>1.07672652052413</v>
       </c>
       <c r="E130" t="n">
-        <v>0.03817227060329318</v>
+        <v>2.18711</v>
       </c>
       <c r="F130" t="n">
         <v>-0.049887</v>
@@ -4075,7 +4075,7 @@
         <v>1.076930824147958</v>
       </c>
       <c r="E131" t="n">
-        <v>0.04239649099189505</v>
+        <v>2.42914</v>
       </c>
       <c r="F131" t="n">
         <v>0.0369868</v>
@@ -4103,7 +4103,7 @@
         <v>1.083489732300219</v>
       </c>
       <c r="E132" t="n">
-        <v>0.045493577749559</v>
+        <v>2.60659</v>
       </c>
       <c r="F132" t="n">
         <v>0.189639</v>
@@ -4131,7 +4131,7 @@
         <v>1.080726607426689</v>
       </c>
       <c r="E133" t="n">
-        <v>0.04884408631461251</v>
+        <v>2.79856</v>
       </c>
       <c r="F133" t="n">
         <v>0.0178736</v>
@@ -4159,7 +4159,7 @@
         <v>1.079930553322759</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0520170948947382</v>
+        <v>2.98036</v>
       </c>
       <c r="F134" t="n">
         <v>-0.166659</v>
@@ -4187,7 +4187,7 @@
         <v>1.079430405352749</v>
       </c>
       <c r="E135" t="n">
-        <v>0.05537755183652808</v>
+        <v>3.1729</v>
       </c>
       <c r="F135" t="n">
         <v>0.280896</v>
@@ -4215,7 +4215,7 @@
         <v>1.077705896801163</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0586648794826594</v>
+        <v>3.36125</v>
       </c>
       <c r="F136" t="n">
         <v>-0.0145401</v>
@@ -4243,7 +4243,7 @@
         <v>1.082206080189905</v>
       </c>
       <c r="E137" t="n">
-        <v>0.06237911466382853</v>
+        <v>3.57406</v>
       </c>
       <c r="F137" t="n">
         <v>-0.0101048</v>
@@ -4271,7 +4271,7 @@
         <v>1.084190942592678</v>
       </c>
       <c r="E138" t="n">
-        <v>0.06870226801087879</v>
+        <v>3.93635</v>
       </c>
       <c r="F138" t="n">
         <v>-0.15438</v>
@@ -4299,7 +4299,7 @@
         <v>1.077111879054353</v>
       </c>
       <c r="E139" t="n">
-        <v>0.07469887025488091</v>
+        <v>4.27993</v>
       </c>
       <c r="F139" t="n">
         <v>-0.102152</v>
@@ -4327,7 +4327,7 @@
         <v>1.085062210198106</v>
       </c>
       <c r="E140" t="n">
-        <v>0.07839425588012851</v>
+        <v>4.49166</v>
       </c>
       <c r="F140" t="n">
         <v>-0.156739</v>
@@ -4355,7 +4355,7 @@
         <v>1.079050508549067</v>
       </c>
       <c r="E141" t="n">
-        <v>0.08180061498124583</v>
+        <v>4.68683</v>
       </c>
       <c r="F141" t="n">
         <v>-0.0585814</v>
@@ -4383,7 +4383,7 @@
         <v>1.077775486824598</v>
       </c>
       <c r="E142" t="n">
-        <v>0.08509317861513313</v>
+        <v>4.87548</v>
       </c>
       <c r="F142" t="n">
         <v>-0.0775793</v>
@@ -4411,7 +4411,7 @@
         <v>1.07117225505518</v>
       </c>
       <c r="E143" t="n">
-        <v>0.08822953528096694</v>
+        <v>5.05518</v>
       </c>
       <c r="F143" t="n">
         <v>-0.109989</v>
@@ -4439,7 +4439,7 @@
         <v>1.074825567243355</v>
       </c>
       <c r="E144" t="n">
-        <v>0.09164113036984027</v>
+        <v>5.25065</v>
       </c>
       <c r="F144" t="n">
         <v>-0.174642</v>
@@ -4467,7 +4467,7 @@
         <v>1.084098703993322</v>
       </c>
       <c r="E145" t="n">
-        <v>0.09515151109437646</v>
+        <v>5.45178</v>
       </c>
       <c r="F145" t="n">
         <v>-0.125972</v>
@@ -4495,7 +4495,7 @@
         <v>1.087115449250907</v>
       </c>
       <c r="E146" t="n">
-        <v>0.09835314307423486</v>
+        <v>5.63522</v>
       </c>
       <c r="F146" t="n">
         <v>-0.138529</v>
@@ -4523,7 +4523,7 @@
         <v>1.081845645182343</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1014127052529809</v>
+        <v>5.81052</v>
       </c>
       <c r="F147" t="n">
         <v>-0.0688859</v>
@@ -4551,7 +4551,7 @@
         <v>1.059141161507757</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1039399420098687</v>
+        <v>5.95532</v>
       </c>
       <c r="F148" t="n">
         <v>-0.100785</v>
@@ -4579,7 +4579,7 @@
         <v>1.108661354968234</v>
       </c>
       <c r="E149" t="n">
-        <v>0.001817638242904455</v>
+        <v>0.104143</v>
       </c>
       <c r="F149" t="n">
         <v>0.0192736</v>
@@ -4607,7 +4607,7 @@
         <v>1.107316576232831</v>
       </c>
       <c r="E150" t="n">
-        <v>0.004828732628322632</v>
+        <v>0.276666</v>
       </c>
       <c r="F150" t="n">
         <v>0.0503379</v>
@@ -4635,7 +4635,7 @@
         <v>1.103562413278017</v>
       </c>
       <c r="E151" t="n">
-        <v>0.008038166229937445</v>
+        <v>0.460553</v>
       </c>
       <c r="F151" t="n">
         <v>0.158211</v>
@@ -4663,7 +4663,7 @@
         <v>1.065790786224013</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0116763748688897</v>
+        <v>0.669007</v>
       </c>
       <c r="F152" t="n">
         <v>-0.0543047</v>
@@ -4691,7 +4691,7 @@
         <v>1.086301063241678</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01473878193431652</v>
+        <v>0.8444700000000001</v>
       </c>
       <c r="F153" t="n">
         <v>0.171522</v>
@@ -4719,7 +4719,7 @@
         <v>1.098166654019325</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01785733624177998</v>
+        <v>1.02315</v>
       </c>
       <c r="F154" t="n">
         <v>0.23415</v>
@@ -4747,7 +4747,7 @@
         <v>1.090256850471484</v>
       </c>
       <c r="E155" t="n">
-        <v>0.02177176068815287</v>
+        <v>1.24743</v>
       </c>
       <c r="F155" t="n">
         <v>0.228971</v>
@@ -4775,7 +4775,7 @@
         <v>1.094828753732747</v>
       </c>
       <c r="E156" t="n">
-        <v>0.02894035152486918</v>
+        <v>1.65816</v>
       </c>
       <c r="F156" t="n">
         <v>0.139941</v>
@@ -4803,7 +4803,7 @@
         <v>1.084094091857344</v>
       </c>
       <c r="E157" t="n">
-        <v>0.03715718711033328</v>
+        <v>2.12895</v>
       </c>
       <c r="F157" t="n">
         <v>-0.07747560000000001</v>
@@ -4831,7 +4831,7 @@
         <v>1.094623222848849</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0431866015442729</v>
+        <v>2.47441</v>
       </c>
       <c r="F158" t="n">
         <v>0.291823</v>
@@ -4859,7 +4859,7 @@
         <v>1.097210098385902</v>
       </c>
       <c r="E159" t="n">
-        <v>0.04760874227005092</v>
+        <v>2.72778</v>
       </c>
       <c r="F159" t="n">
         <v>0.0315649</v>
@@ -4887,7 +4887,7 @@
         <v>1.107948554762359</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0510004406054515</v>
+        <v>2.92211</v>
       </c>
       <c r="F160" t="n">
         <v>-0.0188872</v>
@@ -4915,7 +4915,7 @@
         <v>1.102569725686317</v>
       </c>
       <c r="E161" t="n">
-        <v>0.05443891376480554</v>
+        <v>3.11912</v>
       </c>
       <c r="F161" t="n">
         <v>-0.028082</v>
@@ -4943,7 +4943,7 @@
         <v>1.095632237568793</v>
       </c>
       <c r="E162" t="n">
-        <v>0.05809328415263126</v>
+        <v>3.3285</v>
       </c>
       <c r="F162" t="n">
         <v>-0.160986</v>
@@ -4971,7 +4971,7 @@
         <v>1.094276016368814</v>
       </c>
       <c r="E163" t="n">
-        <v>0.06241506844641962</v>
+        <v>3.57612</v>
       </c>
       <c r="F163" t="n">
         <v>0.100387</v>
@@ -4999,7 +4999,7 @@
         <v>1.091984432123462</v>
       </c>
       <c r="E164" t="n">
-        <v>0.06712588663047751</v>
+        <v>3.84603</v>
       </c>
       <c r="F164" t="n">
         <v>0.128846</v>
@@ -5027,7 +5027,7 @@
         <v>1.093183424682244</v>
       </c>
       <c r="E165" t="n">
-        <v>0.07557537460523246</v>
+        <v>4.33015</v>
       </c>
       <c r="F165" t="n">
         <v>0.144881</v>
@@ -5055,7 +5055,7 @@
         <v>1.091700508381305</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08129534216279347</v>
+        <v>4.65788</v>
       </c>
       <c r="F166" t="n">
         <v>0.198461</v>
@@ -5083,7 +5083,7 @@
         <v>1.086567991429897</v>
       </c>
       <c r="E167" t="n">
-        <v>0.08488688069754742</v>
+        <v>4.86366</v>
       </c>
       <c r="F167" t="n">
         <v>-0.225531</v>
@@ -5111,7 +5111,7 @@
         <v>1.10319989122552</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0883997048830364</v>
+        <v>5.06493</v>
       </c>
       <c r="F168" t="n">
         <v>-0.210363</v>
@@ -5139,7 +5139,7 @@
         <v>1.095613983116316</v>
       </c>
       <c r="E169" t="n">
-        <v>0.09158632703132764</v>
+        <v>5.24751</v>
       </c>
       <c r="F169" t="n">
         <v>-0.07014040000000001</v>
@@ -5167,7 +5167,7 @@
         <v>1.092080583107309</v>
       </c>
       <c r="E170" t="n">
-        <v>0.09484887100208064</v>
+        <v>5.43444</v>
       </c>
       <c r="F170" t="n">
         <v>-0.142176</v>
@@ -5195,7 +5195,7 @@
         <v>1.088590832223017</v>
       </c>
       <c r="E171" t="n">
-        <v>0.09801769079200154</v>
+        <v>5.616</v>
       </c>
       <c r="F171" t="n">
         <v>-0.26477</v>
@@ -5223,7 +5223,7 @@
         <v>1.111705896359284</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1017312278414699</v>
+        <v>5.82877</v>
       </c>
       <c r="F172" t="n">
         <v>-0.08845020000000001</v>
@@ -5251,7 +5251,7 @@
         <v>1.103521635492481</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1048340741856654</v>
+        <v>6.00655</v>
       </c>
       <c r="F173" t="n">
         <v>-0.0709303</v>
@@ -5279,7 +5279,7 @@
         <v>1.107582954003898</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1077660527960907</v>
+        <v>6.17454</v>
       </c>
       <c r="F174" t="n">
         <v>-0.00569041</v>
@@ -5307,7 +5307,7 @@
         <v>1.114522319202267</v>
       </c>
       <c r="E175" t="n">
-        <v>0.004133096748355252</v>
+        <v>0.236809</v>
       </c>
       <c r="F175" t="n">
         <v>0.06901110000000001</v>
@@ -5335,7 +5335,7 @@
         <v>1.092483409485014</v>
       </c>
       <c r="E176" t="n">
-        <v>0.01595223955005809</v>
+        <v>0.913996</v>
       </c>
       <c r="F176" t="n">
         <v>-0.0101473</v>
@@ -5363,7 +5363,7 @@
         <v>1.108855265577974</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0827348897298384</v>
+        <v>4.74036</v>
       </c>
       <c r="F177" t="n">
         <v>-0.138076</v>
@@ -5391,7 +5391,7 @@
         <v>1.106620982992822</v>
       </c>
       <c r="E178" t="n">
-        <v>0.09355662922390405</v>
+        <v>5.3604</v>
       </c>
       <c r="F178" t="n">
         <v>-0.294677</v>
@@ -5419,7 +5419,7 @@
         <v>1.106806216101084</v>
       </c>
       <c r="E179" t="n">
-        <v>0.1007533198615775</v>
+        <v>5.77274</v>
       </c>
       <c r="F179" t="n">
         <v>-0.122697</v>
@@ -5447,7 +5447,7 @@
         <v>1.07767341991904</v>
       </c>
       <c r="E180" t="n">
-        <v>0.001716578443226227</v>
+        <v>0.0983527</v>
       </c>
       <c r="F180" t="n">
         <v>0.07446949999999999</v>
@@ -5475,7 +5475,7 @@
         <v>1.083923429029929</v>
       </c>
       <c r="E181" t="n">
-        <v>0.004815276139789756</v>
+        <v>0.275895</v>
       </c>
       <c r="F181" t="n">
         <v>-0.0100643</v>
@@ -5503,7 +5503,7 @@
         <v>1.09571894206498</v>
       </c>
       <c r="E182" t="n">
-        <v>0.007786891177527821</v>
+        <v>0.446156</v>
       </c>
       <c r="F182" t="n">
         <v>0.117237</v>
@@ -5531,7 +5531,7 @@
         <v>1.09073828208237</v>
       </c>
       <c r="E183" t="n">
-        <v>0.01490713639396389</v>
+        <v>0.854116</v>
       </c>
       <c r="F183" t="n">
         <v>-0.0662802</v>
@@ -5559,7 +5559,7 @@
         <v>1.07894392810748</v>
       </c>
       <c r="E184" t="n">
-        <v>0.02491893839534904</v>
+        <v>1.42775</v>
       </c>
       <c r="F184" t="n">
         <v>0.320182</v>
@@ -5587,7 +5587,7 @@
         <v>1.07568582773968</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0358562186858967</v>
+        <v>2.05441</v>
       </c>
       <c r="F185" t="n">
         <v>0.151726</v>
@@ -5615,7 +5615,7 @@
         <v>1.079411876903344</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0473977319634848</v>
+        <v>2.71569</v>
       </c>
       <c r="F186" t="n">
         <v>0.118918</v>
@@ -5643,7 +5643,7 @@
         <v>1.074416120504528</v>
       </c>
       <c r="E187" t="n">
-        <v>0.05655250748897066</v>
+        <v>3.24022</v>
       </c>
       <c r="F187" t="n">
         <v>-0.0195084</v>
@@ -5671,7 +5671,7 @@
         <v>1.073093658540577</v>
       </c>
       <c r="E188" t="n">
-        <v>0.06995715974306271</v>
+        <v>4.00825</v>
       </c>
       <c r="F188" t="n">
         <v>-0.408619</v>
@@ -5699,7 +5699,7 @@
         <v>1.069761655697193</v>
       </c>
       <c r="E189" t="n">
-        <v>0.08037328471896488</v>
+        <v>4.60505</v>
       </c>
       <c r="F189" t="n">
         <v>0.128651</v>
@@ -5727,7 +5727,7 @@
         <v>1.082109051805778</v>
       </c>
       <c r="E190" t="n">
-        <v>0.08822866261634095</v>
+        <v>5.05513</v>
       </c>
       <c r="F190" t="n">
         <v>0.151543</v>
@@ -5755,7 +5755,7 @@
         <v>1.093786999374193</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1000731650520753</v>
+        <v>5.73377</v>
       </c>
       <c r="F191" t="n">
         <v>-0.206049</v>
@@ -5783,7 +5783,7 @@
         <v>1.090366910723175</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1038875821323089</v>
+        <v>5.95232</v>
       </c>
       <c r="F192" t="n">
         <v>-0.0174061</v>
@@ -5811,7 +5811,7 @@
         <v>1.07543014649953</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1072988281553318</v>
+        <v>6.14777</v>
       </c>
       <c r="F193" t="n">
         <v>-0.0321333</v>
@@ -5839,7 +5839,7 @@
         <v>1.11700492389246</v>
       </c>
       <c r="E194" t="n">
-        <v>0.002870001968686956</v>
+        <v>0.164439</v>
       </c>
       <c r="F194" t="n">
         <v>-0.0499286</v>
@@ -5867,7 +5867,7 @@
         <v>1.118177087942693</v>
       </c>
       <c r="E195" t="n">
-        <v>0.005461466842048136</v>
+        <v>0.312919</v>
       </c>
       <c r="F195" t="n">
         <v>0.101795</v>
@@ -5895,7 +5895,7 @@
         <v>1.100163624194147</v>
       </c>
       <c r="E196" t="n">
-        <v>0.01282066508637475</v>
+        <v>0.7345699999999999</v>
       </c>
       <c r="F196" t="n">
         <v>-0.125322</v>
@@ -5923,7 +5923,7 @@
         <v>1.086871657556678</v>
       </c>
       <c r="E197" t="n">
-        <v>0.01962814730085343</v>
+        <v>1.12461</v>
       </c>
       <c r="F197" t="n">
         <v>-0.111066</v>
@@ -5951,7 +5951,7 @@
         <v>1.090802456909591</v>
       </c>
       <c r="E198" t="n">
-        <v>0.04977905919490587</v>
+        <v>2.85213</v>
       </c>
       <c r="F198" t="n">
         <v>0.0150266</v>
@@ -5979,7 +5979,7 @@
         <v>1.107014001718135</v>
       </c>
       <c r="E199" t="n">
-        <v>0.06088616002167258</v>
+        <v>3.48852</v>
       </c>
       <c r="F199" t="n">
         <v>-0.204731</v>
@@ -6007,7 +6007,7 @@
         <v>1.087929225639242</v>
       </c>
       <c r="E200" t="n">
-        <v>0.07182675643779905</v>
+        <v>4.11537</v>
       </c>
       <c r="F200" t="n">
         <v>0.296705</v>
@@ -6035,7 +6035,7 @@
         <v>1.086480556659897</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0830438130074414</v>
+        <v>4.75806</v>
       </c>
       <c r="F201" t="n">
         <v>-0.06847200000000001</v>
@@ -6063,7 +6063,7 @@
         <v>1.107090782185454</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0936299330524878</v>
+        <v>5.3646</v>
       </c>
       <c r="F202" t="n">
         <v>-0.0816408</v>
@@ -6091,7 +6091,7 @@
         <v>1.117626950283501</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1036844258073767</v>
+        <v>5.94068</v>
       </c>
       <c r="F203" t="n">
         <v>-0.030561</v>
@@ -6119,7 +6119,7 @@
         <v>1.111885785501371</v>
       </c>
       <c r="E204" t="n">
-        <v>0.1066958168987678</v>
+        <v>6.11322</v>
       </c>
       <c r="F204" t="n">
         <v>0.0350375</v>
@@ -6147,7 +6147,7 @@
         <v>1.248883501372326</v>
       </c>
       <c r="E205" t="n">
-        <v>0.001694756591588542</v>
+        <v>0.09710240000000001</v>
       </c>
       <c r="F205" t="n">
         <v>0.0192776</v>
@@ -6175,7 +6175,7 @@
         <v>1.252305873179552</v>
       </c>
       <c r="E206" t="n">
-        <v>0.004951481634615393</v>
+        <v>0.283699</v>
       </c>
       <c r="F206" t="n">
         <v>0.0742729</v>
@@ -6203,7 +6203,7 @@
         <v>1.255599458426134</v>
       </c>
       <c r="E207" t="n">
-        <v>0.008223659822839402</v>
+        <v>0.471181</v>
       </c>
       <c r="F207" t="n">
         <v>0.08470949999999999</v>
@@ -6231,7 +6231,7 @@
         <v>1.258252756802066</v>
       </c>
       <c r="E208" t="n">
-        <v>0.01147564455161784</v>
+        <v>0.657506</v>
       </c>
       <c r="F208" t="n">
         <v>0.110276</v>
@@ -6259,7 +6259,7 @@
         <v>1.254631419979589</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0146755835621018</v>
+        <v>0.840849</v>
       </c>
       <c r="F209" t="n">
         <v>0.193822</v>
@@ -6287,7 +6287,7 @@
         <v>1.245423622708354</v>
       </c>
       <c r="E210" t="n">
-        <v>0.01786222316368557</v>
+        <v>1.02343</v>
       </c>
       <c r="F210" t="n">
         <v>0.208435</v>
@@ -6315,7 +6315,7 @@
         <v>1.241547421567134</v>
       </c>
       <c r="E211" t="n">
-        <v>0.02106053901796517</v>
+        <v>1.20668</v>
       </c>
       <c r="F211" t="n">
         <v>0.020469</v>
@@ -6343,7 +6343,7 @@
         <v>1.230833051229938</v>
       </c>
       <c r="E212" t="n">
-        <v>0.02785877098740829</v>
+        <v>1.59619</v>
       </c>
       <c r="F212" t="n">
         <v>0.374287</v>
@@ -6371,7 +6371,7 @@
         <v>1.246462995840631</v>
       </c>
       <c r="E213" t="n">
-        <v>0.03537520594404707</v>
+        <v>2.02685</v>
       </c>
       <c r="F213" t="n">
         <v>0.0208766</v>
@@ -6399,7 +6399,7 @@
         <v>1.247890219530548</v>
       </c>
       <c r="E214" t="n">
-        <v>0.03961530882884209</v>
+        <v>2.26979</v>
       </c>
       <c r="F214" t="n">
         <v>0.256696</v>
@@ -6427,7 +6427,7 @@
         <v>1.250847712553371</v>
       </c>
       <c r="E215" t="n">
-        <v>0.04396746185161515</v>
+        <v>2.51915</v>
       </c>
       <c r="F215" t="n">
         <v>0.255783</v>
@@ -6455,7 +6455,7 @@
         <v>1.247653798134723</v>
       </c>
       <c r="E216" t="n">
-        <v>0.04759757216283816</v>
+        <v>2.72714</v>
       </c>
       <c r="F216" t="n">
         <v>-0.0495801</v>
@@ -6483,7 +6483,7 @@
         <v>1.238293180147577</v>
       </c>
       <c r="E217" t="n">
-        <v>0.05148162788022634</v>
+        <v>2.94968</v>
       </c>
       <c r="F217" t="n">
         <v>0.159925</v>
@@ -6511,7 +6511,7 @@
         <v>1.246310555198824</v>
       </c>
       <c r="E218" t="n">
-        <v>0.05587671600259846</v>
+        <v>3.2015</v>
       </c>
       <c r="F218" t="n">
         <v>0.0147037</v>
@@ -6539,7 +6539,7 @@
         <v>1.245222871617768</v>
       </c>
       <c r="E219" t="n">
-        <v>0.06124814130853621</v>
+        <v>3.50926</v>
       </c>
       <c r="F219" t="n">
         <v>0.0969284</v>
@@ -6567,7 +6567,7 @@
         <v>1.244102085843441</v>
       </c>
       <c r="E220" t="n">
-        <v>0.06809873315553915</v>
+        <v>3.90177</v>
       </c>
       <c r="F220" t="n">
         <v>-0.521007</v>
@@ -6595,7 +6595,7 @@
         <v>1.242903857906958</v>
       </c>
       <c r="E221" t="n">
-        <v>0.08866499492933953</v>
+        <v>5.08013</v>
       </c>
       <c r="F221" t="n">
         <v>-0.302465</v>
@@ -6623,7 +6623,7 @@
         <v>1.249027621792248</v>
       </c>
       <c r="E222" t="n">
-        <v>0.09176871393816105</v>
+        <v>5.25796</v>
       </c>
       <c r="F222" t="n">
         <v>-0.165468</v>
@@ -6651,7 +6651,7 @@
         <v>1.254535770713613</v>
       </c>
       <c r="E223" t="n">
-        <v>0.09495847767910588</v>
+        <v>5.44072</v>
       </c>
       <c r="F223" t="n">
         <v>-0.194213</v>
@@ -6679,7 +6679,7 @@
         <v>1.258006359284404</v>
       </c>
       <c r="E224" t="n">
-        <v>0.09811525469718804</v>
+        <v>5.62159</v>
       </c>
       <c r="F224" t="n">
         <v>-0.17687</v>
@@ -6707,7 +6707,7 @@
         <v>1.255726881132995</v>
       </c>
       <c r="E225" t="n">
-        <v>0.101400487948217</v>
+        <v>5.80982</v>
       </c>
       <c r="F225" t="n">
         <v>-0.0843754</v>
@@ -6735,7 +6735,7 @@
         <v>1.249527910852735</v>
       </c>
       <c r="E226" t="n">
-        <v>0.1046366774472648</v>
+        <v>5.99524</v>
       </c>
       <c r="F226" t="n">
         <v>-0.120179</v>
@@ -6763,7 +6763,7 @@
         <v>1.247950319523979</v>
       </c>
       <c r="E227" t="n">
-        <v>0.1079405857212901</v>
+        <v>6.18454</v>
       </c>
       <c r="F227" t="n">
         <v>-0.0384128</v>
@@ -6791,7 +6791,7 @@
         <v>1.277787149724084</v>
       </c>
       <c r="E228" t="n">
-        <v>0.001666703914521237</v>
+        <v>0.0954951</v>
       </c>
       <c r="F228" t="n">
         <v>0.0471181</v>
@@ -6819,7 +6819,7 @@
         <v>1.27283148923964</v>
       </c>
       <c r="E229" t="n">
-        <v>0.004830966649765184</v>
+        <v>0.276794</v>
       </c>
       <c r="F229" t="n">
         <v>0.0552729</v>
@@ -6847,7 +6847,7 @@
         <v>1.269141442078069</v>
       </c>
       <c r="E230" t="n">
-        <v>0.008201860660481994</v>
+        <v>0.469932</v>
       </c>
       <c r="F230" t="n">
         <v>0.168115</v>
@@ -6875,7 +6875,7 @@
         <v>1.264551303822822</v>
       </c>
       <c r="E231" t="n">
-        <v>0.01146833162205198</v>
+        <v>0.657087</v>
       </c>
       <c r="F231" t="n">
         <v>0.292582</v>
@@ -6903,7 +6903,7 @@
         <v>1.258316335426033</v>
       </c>
       <c r="E232" t="n">
-        <v>0.01475337288686319</v>
+        <v>0.845306</v>
       </c>
       <c r="F232" t="n">
         <v>0.267475</v>
@@ -6931,7 +6931,7 @@
         <v>1.264254721169749</v>
       </c>
       <c r="E233" t="n">
-        <v>0.01807864399093287</v>
+        <v>1.03583</v>
       </c>
       <c r="F233" t="n">
         <v>0.159411</v>
@@ -6959,7 +6959,7 @@
         <v>1.263459536352471</v>
       </c>
       <c r="E234" t="n">
-        <v>0.02127434185133448</v>
+        <v>1.21893</v>
       </c>
       <c r="F234" t="n">
         <v>0.36865</v>
@@ -6987,7 +6987,7 @@
         <v>1.263499109615832</v>
       </c>
       <c r="E235" t="n">
-        <v>0.02461594923720282</v>
+        <v>1.41039</v>
       </c>
       <c r="F235" t="n">
         <v>0.353226</v>
@@ -7015,7 +7015,7 @@
         <v>1.263166655671373</v>
       </c>
       <c r="E236" t="n">
-        <v>0.02844659787947998</v>
+        <v>1.62987</v>
       </c>
       <c r="F236" t="n">
         <v>0.447105</v>
@@ -7043,7 +7043,7 @@
         <v>1.263716740412977</v>
       </c>
       <c r="E237" t="n">
-        <v>0.03271008817625173</v>
+        <v>1.87415</v>
       </c>
       <c r="F237" t="n">
         <v>0.444565</v>
@@ -7071,7 +7071,7 @@
         <v>1.270267688324</v>
       </c>
       <c r="E238" t="n">
-        <v>0.03660356867160068</v>
+        <v>2.09723</v>
       </c>
       <c r="F238" t="n">
         <v>0.117028</v>
@@ -7099,7 +7099,7 @@
         <v>1.263396216552828</v>
       </c>
       <c r="E239" t="n">
-        <v>0.04007118882946301</v>
+        <v>2.29591</v>
       </c>
       <c r="F239" t="n">
         <v>0.0778702</v>
@@ -7127,7 +7127,7 @@
         <v>1.266360928013811</v>
       </c>
       <c r="E240" t="n">
-        <v>0.04323616889502954</v>
+        <v>2.47725</v>
       </c>
       <c r="F240" t="n">
         <v>-0.144068</v>
@@ -7155,7 +7155,7 @@
         <v>1.265914689068738</v>
       </c>
       <c r="E241" t="n">
-        <v>0.04670762877724625</v>
+        <v>2.67615</v>
       </c>
       <c r="F241" t="n">
         <v>0.08965049999999999</v>
@@ -7183,7 +7183,7 @@
         <v>1.264140023889759</v>
       </c>
       <c r="E242" t="n">
-        <v>0.05043093967052575</v>
+        <v>2.88948</v>
       </c>
       <c r="F242" t="n">
         <v>-0.144689</v>
@@ -7211,7 +7211,7 @@
         <v>1.268723768201731</v>
       </c>
       <c r="E243" t="n">
-        <v>0.05539064180591804</v>
+        <v>3.17365</v>
       </c>
       <c r="F243" t="n">
         <v>-0.00925932</v>
@@ -7239,7 +7239,7 @@
         <v>1.266183241083217</v>
       </c>
       <c r="E244" t="n">
-        <v>0.06075456219607222</v>
+        <v>3.48098</v>
       </c>
       <c r="F244" t="n">
         <v>-0.009356959999999999</v>
@@ -7267,7 +7267,7 @@
         <v>1.266001579777845</v>
       </c>
       <c r="E245" t="n">
-        <v>0.06635480016694642</v>
+        <v>3.80185</v>
       </c>
       <c r="F245" t="n">
         <v>0.0414421</v>
@@ -7295,7 +7295,7 @@
         <v>1.259221982019056</v>
       </c>
       <c r="E246" t="n">
-        <v>0.07496311310363285</v>
+        <v>4.29507</v>
       </c>
       <c r="F246" t="n">
         <v>-0.166921</v>
@@ -7323,7 +7323,7 @@
         <v>1.264942686448679</v>
       </c>
       <c r="E247" t="n">
-        <v>0.0852284416321627</v>
+        <v>4.88323</v>
       </c>
       <c r="F247" t="n">
         <v>-0.477234</v>
@@ -7351,7 +7351,7 @@
         <v>1.268514879691996</v>
       </c>
       <c r="E248" t="n">
-        <v>0.09680747948866868</v>
+        <v>5.54666</v>
       </c>
       <c r="F248" t="n">
         <v>-0.176149</v>
@@ -7379,7 +7379,7 @@
         <v>1.28012499389708</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1015561713174949</v>
+        <v>5.81874</v>
       </c>
       <c r="F249" t="n">
         <v>-0.224156</v>
@@ -7407,7 +7407,7 @@
         <v>1.281522531990757</v>
       </c>
       <c r="E250" t="n">
-        <v>0.1047808416434796</v>
+        <v>6.0035</v>
       </c>
       <c r="F250" t="n">
         <v>-0.0713077</v>
@@ -7435,7 +7435,7 @@
         <v>1.276467782593826</v>
       </c>
       <c r="E251" t="n">
-        <v>0.1081016796112492</v>
+        <v>6.19377</v>
       </c>
       <c r="F251" t="n">
         <v>-0.036556</v>
@@ -7463,7 +7463,7 @@
         <v>1.270409382836887</v>
       </c>
       <c r="E252" t="n">
-        <v>0.001758087608826408</v>
+        <v>0.100731</v>
       </c>
       <c r="F252" t="n">
         <v>0.0294403</v>
@@ -7491,7 +7491,7 @@
         <v>1.265855441983799</v>
       </c>
       <c r="E253" t="n">
-        <v>0.00490015150131424</v>
+        <v>0.280758</v>
       </c>
       <c r="F253" t="n">
         <v>0.210652</v>
@@ -7519,7 +7519,7 @@
         <v>1.263669260526662</v>
       </c>
       <c r="E254" t="n">
-        <v>0.008160199651236887</v>
+        <v>0.467545</v>
       </c>
       <c r="F254" t="n">
         <v>0.24699</v>
@@ -7547,7 +7547,7 @@
         <v>1.267509368801667</v>
       </c>
       <c r="E255" t="n">
-        <v>0.01144911554698752</v>
+        <v>0.655986</v>
       </c>
       <c r="F255" t="n">
         <v>0.249776</v>
@@ -7575,7 +7575,7 @@
         <v>1.268238936478454</v>
       </c>
       <c r="E256" t="n">
-        <v>0.01517853509264901</v>
+        <v>0.8696660000000001</v>
       </c>
       <c r="F256" t="n">
         <v>0.308395</v>
@@ -7603,7 +7603,7 @@
         <v>1.264464313454516</v>
       </c>
       <c r="E257" t="n">
-        <v>0.02076400757805134</v>
+        <v>1.18969</v>
       </c>
       <c r="F257" t="n">
         <v>0.255218</v>
@@ -7631,7 +7631,7 @@
         <v>1.26817585531345</v>
       </c>
       <c r="E258" t="n">
-        <v>0.02815861855290091</v>
+        <v>1.61337</v>
       </c>
       <c r="F258" t="n">
         <v>0.30215</v>
@@ -7659,7 +7659,7 @@
         <v>1.274747033728653</v>
       </c>
       <c r="E259" t="n">
-        <v>0.08329531495265378</v>
+        <v>4.77247</v>
       </c>
       <c r="F259" t="n">
         <v>-0.290641</v>
@@ -7687,7 +7687,7 @@
         <v>1.265792242036583</v>
       </c>
       <c r="E260" t="n">
-        <v>0.09391354905593688</v>
+        <v>5.38085</v>
       </c>
       <c r="F260" t="n">
         <v>-0.224031</v>
@@ -7715,7 +7715,7 @@
         <v>1.261685380750685</v>
       </c>
       <c r="E261" t="n">
-        <v>0.09927764397901624</v>
+        <v>5.68819</v>
       </c>
       <c r="F261" t="n">
         <v>-0.145822</v>
@@ -7743,7 +7743,7 @@
         <v>1.269771633011228</v>
       </c>
       <c r="E262" t="n">
-        <v>0.1026424642439361</v>
+        <v>5.88098</v>
       </c>
       <c r="F262" t="n">
         <v>-0.281233</v>
@@ -7771,7 +7771,7 @@
         <v>1.272776492554761</v>
       </c>
       <c r="E263" t="n">
-        <v>0.1070379014321586</v>
+        <v>6.13282</v>
       </c>
       <c r="F263" t="n">
         <v>-0.0275351</v>
@@ -7799,7 +7799,7 @@
         <v>1.217899831677466</v>
       </c>
       <c r="E264" t="n">
-        <v>0.00181282113416895</v>
+        <v>0.103867</v>
       </c>
       <c r="F264" t="n">
         <v>-0.00345378</v>
@@ -7827,7 +7827,7 @@
         <v>1.229528364861909</v>
       </c>
       <c r="E265" t="n">
-        <v>0.005150833141778186</v>
+        <v>0.295121</v>
       </c>
       <c r="F265" t="n">
         <v>0.0941391</v>
@@ -7855,7 +7855,7 @@
         <v>1.244463739929774</v>
       </c>
       <c r="E266" t="n">
-        <v>0.008406762314666126</v>
+        <v>0.481672</v>
       </c>
       <c r="F266" t="n">
         <v>0.156746</v>
@@ -7883,7 +7883,7 @@
         <v>1.255376437567633</v>
       </c>
       <c r="E267" t="n">
-        <v>0.01155530137867886</v>
+        <v>0.66207</v>
       </c>
       <c r="F267" t="n">
         <v>0.179279</v>
@@ -7911,7 +7911,7 @@
         <v>1.252329828759181</v>
       </c>
       <c r="E268" t="n">
-        <v>0.01453449114537058</v>
+        <v>0.832765</v>
       </c>
       <c r="F268" t="n">
         <v>0.222575</v>
@@ -7939,7 +7939,7 @@
         <v>1.245849108038369</v>
       </c>
       <c r="E269" t="n">
-        <v>0.01776657912067628</v>
+        <v>1.01795</v>
       </c>
       <c r="F269" t="n">
         <v>0.360567</v>
@@ -7967,7 +7967,7 @@
         <v>1.253407355970117</v>
       </c>
       <c r="E270" t="n">
-        <v>0.03530766170199489</v>
+        <v>2.02298</v>
       </c>
       <c r="F270" t="n">
         <v>0.172105</v>
@@ -7995,7 +7995,7 @@
         <v>1.245652439487035</v>
       </c>
       <c r="E271" t="n">
-        <v>0.0399832242351625</v>
+        <v>2.29087</v>
       </c>
       <c r="F271" t="n">
         <v>0.0510688</v>
@@ -8023,7 +8023,7 @@
         <v>1.241793058444119</v>
       </c>
       <c r="E272" t="n">
-        <v>0.04339429572526021</v>
+        <v>2.48631</v>
       </c>
       <c r="F272" t="n">
         <v>0.126266</v>
@@ -8051,7 +8051,7 @@
         <v>1.241309792114765</v>
       </c>
       <c r="E273" t="n">
-        <v>0.04662472563777652</v>
+        <v>2.6714</v>
       </c>
       <c r="F273" t="n">
         <v>0.052857</v>
@@ -8079,7 +8079,7 @@
         <v>1.247549598212432</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0499560355810581</v>
+        <v>2.86227</v>
       </c>
       <c r="F274" t="n">
         <v>0.00338646</v>
@@ -8107,7 +8107,7 @@
         <v>1.23988709163375</v>
       </c>
       <c r="E275" t="n">
-        <v>0.05321124916895272</v>
+        <v>3.04878</v>
       </c>
       <c r="F275" t="n">
         <v>-0.22227</v>
@@ -8135,7 +8135,7 @@
         <v>1.246972333293726</v>
       </c>
       <c r="E276" t="n">
-        <v>0.05623677742728489</v>
+        <v>3.22213</v>
       </c>
       <c r="F276" t="n">
         <v>0.00418913</v>
@@ -8163,7 +8163,7 @@
         <v>1.247124693043963</v>
       </c>
       <c r="E277" t="n">
-        <v>0.06134867227345108</v>
+        <v>3.51502</v>
       </c>
       <c r="F277" t="n">
         <v>-0.060967</v>
@@ -8191,7 +8191,7 @@
         <v>1.24932381711068</v>
       </c>
       <c r="E278" t="n">
-        <v>0.07027934752298086</v>
+        <v>4.02671</v>
       </c>
       <c r="F278" t="n">
         <v>0.0768908</v>
@@ -8219,7 +8219,7 @@
         <v>1.246872086462761</v>
       </c>
       <c r="E279" t="n">
-        <v>0.07852812263375646</v>
+        <v>4.49933</v>
       </c>
       <c r="F279" t="n">
         <v>-0.180213</v>
@@ -8247,7 +8247,7 @@
         <v>1.233434230107143</v>
       </c>
       <c r="E280" t="n">
-        <v>0.08443012803230049</v>
+        <v>4.83749</v>
       </c>
       <c r="F280" t="n">
         <v>-0.285237</v>
@@ -8275,7 +8275,7 @@
         <v>1.244997991966252</v>
       </c>
       <c r="E281" t="n">
-        <v>0.09083775531514728</v>
+        <v>5.20462</v>
       </c>
       <c r="F281" t="n">
         <v>-0.210341</v>
@@ -8303,7 +8303,7 @@
         <v>1.253040302623982</v>
       </c>
       <c r="E282" t="n">
-        <v>0.0940636473716084</v>
+        <v>5.38945</v>
       </c>
       <c r="F282" t="n">
         <v>-0.208143</v>
@@ -8331,7 +8331,7 @@
         <v>1.255233046091442</v>
       </c>
       <c r="E283" t="n">
-        <v>0.09713944111239801</v>
+        <v>5.56568</v>
       </c>
       <c r="F283" t="n">
         <v>-0.147022</v>
@@ -8359,7 +8359,7 @@
         <v>1.251167454819698</v>
       </c>
       <c r="E284" t="n">
-        <v>0.1001777102742697</v>
+        <v>5.73976</v>
       </c>
       <c r="F284" t="n">
         <v>-0.11932</v>
@@ -8387,7 +8387,7 @@
         <v>1.229625959387651</v>
       </c>
       <c r="E285" t="n">
-        <v>0.1032875379354732</v>
+        <v>5.91794</v>
       </c>
       <c r="F285" t="n">
         <v>-0.146978</v>
@@ -8415,7 +8415,7 @@
         <v>1.21922516378231</v>
       </c>
       <c r="E286" t="n">
-        <v>0.1070790912025057</v>
+        <v>6.13518</v>
       </c>
       <c r="F286" t="n">
         <v>0.00824126</v>
@@ -8443,7 +8443,7 @@
         <v>1.262758884348077</v>
       </c>
       <c r="E287" t="n">
-        <v>0.001624236563161711</v>
+        <v>0.0930619</v>
       </c>
       <c r="F287" t="n">
         <v>0.0145343</v>
@@ -8471,7 +8471,7 @@
         <v>1.269377800341569</v>
       </c>
       <c r="E288" t="n">
-        <v>0.004851404455306039</v>
+        <v>0.277965</v>
       </c>
       <c r="F288" t="n">
         <v>0.127105</v>
@@ -8499,7 +8499,7 @@
         <v>1.289306014877771</v>
       </c>
       <c r="E289" t="n">
-        <v>0.007936378627961135</v>
+        <v>0.454721</v>
       </c>
       <c r="F289" t="n">
         <v>0.145658</v>
@@ -8527,7 +8527,7 @@
         <v>1.287470388008983</v>
       </c>
       <c r="E290" t="n">
-        <v>0.01271077915666918</v>
+        <v>0.728274</v>
       </c>
       <c r="F290" t="n">
         <v>0.312867</v>
@@ -8555,7 +8555,7 @@
         <v>1.267158237948205</v>
       </c>
       <c r="E291" t="n">
-        <v>0.02510621222408803</v>
+        <v>1.43848</v>
       </c>
       <c r="F291" t="n">
         <v>0.46651</v>
@@ -8583,7 +8583,7 @@
         <v>1.266068718514126</v>
       </c>
       <c r="E292" t="n">
-        <v>0.03065635924543</v>
+        <v>1.75648</v>
       </c>
       <c r="F292" t="n">
         <v>0.202051</v>
@@ -8611,7 +8611,7 @@
         <v>1.269669248269013</v>
       </c>
       <c r="E293" t="n">
-        <v>0.03464216765820945</v>
+        <v>1.98485</v>
       </c>
       <c r="F293" t="n">
         <v>0.127021</v>
@@ -8639,7 +8639,7 @@
         <v>1.258590481451374</v>
       </c>
       <c r="E294" t="n">
-        <v>0.03846443872007704</v>
+        <v>2.20385</v>
       </c>
       <c r="F294" t="n">
         <v>0.297809</v>
@@ -8667,7 +8667,7 @@
         <v>1.255376437567633</v>
       </c>
       <c r="E295" t="n">
-        <v>0.04240382137475343</v>
+        <v>2.42956</v>
       </c>
       <c r="F295" t="n">
         <v>0.228745</v>
@@ -8695,7 +8695,7 @@
         <v>1.268621298891044</v>
       </c>
       <c r="E296" t="n">
-        <v>0.04551521983228372</v>
+        <v>2.60783</v>
       </c>
       <c r="F296" t="n">
         <v>0.160265</v>
@@ -8723,7 +8723,7 @@
         <v>1.260821160989932</v>
       </c>
       <c r="E297" t="n">
-        <v>0.0488170337112066</v>
+        <v>2.79701</v>
       </c>
       <c r="F297" t="n">
         <v>0.07381260000000001</v>
@@ -8751,7 +8751,7 @@
         <v>1.259972221916023</v>
       </c>
       <c r="E298" t="n">
-        <v>0.05199964160221825</v>
+        <v>2.97936</v>
       </c>
       <c r="F298" t="n">
         <v>0.06435920000000001</v>
@@ -8779,7 +8779,7 @@
         <v>1.257334482148645</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0552496192023569</v>
+        <v>3.16557</v>
       </c>
       <c r="F299" t="n">
         <v>-0.154017</v>
@@ -8807,7 +8807,7 @@
         <v>1.263645519914505</v>
       </c>
       <c r="E300" t="n">
-        <v>0.05919615770696648</v>
+        <v>3.39169</v>
       </c>
       <c r="F300" t="n">
         <v>0.250391</v>
@@ -8835,7 +8835,7 @@
         <v>1.262501485147641</v>
       </c>
       <c r="E301" t="n">
-        <v>0.06355197592116872</v>
+        <v>3.64126</v>
       </c>
       <c r="F301" t="n">
         <v>-0.189025</v>
@@ -8863,7 +8863,7 @@
         <v>1.257143587662126</v>
       </c>
       <c r="E302" t="n">
-        <v>0.06776275727453024</v>
+        <v>3.88252</v>
       </c>
       <c r="F302" t="n">
         <v>-0.0077834</v>
@@ -8891,7 +8891,7 @@
         <v>1.265057310954725</v>
       </c>
       <c r="E303" t="n">
-        <v>0.07514218388488746</v>
+        <v>4.30533</v>
       </c>
       <c r="F303" t="n">
         <v>-0.453142</v>
@@ -8919,7 +8919,7 @@
         <v>1.2607339132426</v>
       </c>
       <c r="E304" t="n">
-        <v>0.08289877614660066</v>
+        <v>4.74975</v>
       </c>
       <c r="F304" t="n">
         <v>-0.227572</v>
@@ -8947,7 +8947,7 @@
         <v>1.257123701152755</v>
       </c>
       <c r="E305" t="n">
-        <v>0.08828521128410557</v>
+        <v>5.05837</v>
       </c>
       <c r="F305" t="n">
         <v>-0.307907</v>
@@ -8975,7 +8975,7 @@
         <v>1.257191314001175</v>
       </c>
       <c r="E306" t="n">
-        <v>0.09302046407769138</v>
+        <v>5.32968</v>
       </c>
       <c r="F306" t="n">
         <v>-0.298514</v>
@@ -9003,7 +9003,7 @@
         <v>1.296811474347756</v>
       </c>
       <c r="E307" t="n">
-        <v>0.09914499895586468</v>
+        <v>5.68059</v>
       </c>
       <c r="F307" t="n">
         <v>-0.139014</v>
@@ -9031,7 +9031,7 @@
         <v>1.28482683658149</v>
       </c>
       <c r="E308" t="n">
-        <v>0.1026918570617676</v>
+        <v>5.88381</v>
       </c>
       <c r="F308" t="n">
         <v>-0.08156620000000001</v>
@@ -9059,7 +9059,7 @@
         <v>1.266538590016112</v>
       </c>
       <c r="E309" t="n">
-        <v>0.1068981005590739</v>
+        <v>6.12481</v>
       </c>
       <c r="F309" t="n">
         <v>-0.0472144</v>
@@ -9087,7 +9087,7 @@
         <v>1.266542537777551</v>
       </c>
       <c r="E310" t="n">
-        <v>0.001583654167394339</v>
+        <v>0.0907367</v>
       </c>
       <c r="F310" t="n">
         <v>-0.0394466</v>
@@ -9115,7 +9115,7 @@
         <v>1.263685087353649</v>
       </c>
       <c r="E311" t="n">
-        <v>0.004746562527138738</v>
+        <v>0.271958</v>
       </c>
       <c r="F311" t="n">
         <v>0.240088</v>
@@ -9143,7 +9143,7 @@
         <v>1.266412255152326</v>
       </c>
       <c r="E312" t="n">
-        <v>0.008164493161196794</v>
+        <v>0.467791</v>
       </c>
       <c r="F312" t="n">
         <v>0.117719</v>
@@ -9171,7 +9171,7 @@
         <v>1.267600094667084</v>
       </c>
       <c r="E313" t="n">
-        <v>0.01244435464635225</v>
+        <v>0.713009</v>
       </c>
       <c r="F313" t="n">
         <v>-0.00701786</v>
@@ -9199,7 +9199,7 @@
         <v>1.264962450035573</v>
       </c>
       <c r="E314" t="n">
-        <v>0.02120941560316029</v>
+        <v>1.21521</v>
       </c>
       <c r="F314" t="n">
         <v>0.429018</v>
@@ -9227,7 +9227,7 @@
         <v>1.266700438146289</v>
       </c>
       <c r="E315" t="n">
-        <v>0.0296112560893358</v>
+        <v>1.6966</v>
       </c>
       <c r="F315" t="n">
         <v>0.0267452</v>
@@ -9255,7 +9255,7 @@
         <v>1.25698846454532</v>
       </c>
       <c r="E316" t="n">
-        <v>0.03678106865652851</v>
+        <v>2.1074</v>
       </c>
       <c r="F316" t="n">
         <v>0.296616</v>
@@ -9283,7 +9283,7 @@
         <v>1.272080972265524</v>
       </c>
       <c r="E317" t="n">
-        <v>0.08148348865615847</v>
+        <v>4.66866</v>
       </c>
       <c r="F317" t="n">
         <v>-0.909066</v>
@@ -9311,7 +9311,7 @@
         <v>1.272080972265524</v>
       </c>
       <c r="E318" t="n">
-        <v>0.09358734701873915</v>
+        <v>5.36216</v>
       </c>
       <c r="F318" t="n">
         <v>0.200898</v>
@@ -9339,7 +9339,7 @@
         <v>1.274205634895718</v>
       </c>
       <c r="E319" t="n">
-        <v>0.1039411637403451</v>
+        <v>5.95539</v>
       </c>
       <c r="F319" t="n">
         <v>-0.239627</v>
@@ -9367,7 +9367,7 @@
         <v>1.260555433132554</v>
       </c>
       <c r="E320" t="n">
-        <v>0.1080240124595354</v>
+        <v>6.18932</v>
       </c>
       <c r="F320" t="n">
         <v>0.168898</v>
@@ -9395,7 +9395,7 @@
         <v>1.228385118763656</v>
       </c>
       <c r="E321" t="n">
-        <v>0.007896532761138105</v>
+        <v>0.452438</v>
       </c>
       <c r="F321" t="n">
         <v>0.0114797</v>
@@ -9423,7 +9423,7 @@
         <v>1.253682575455207</v>
       </c>
       <c r="E322" t="n">
-        <v>0.01040903893913906</v>
+        <v>0.596394</v>
       </c>
       <c r="F322" t="n">
         <v>0.118245</v>
@@ -9451,7 +9451,7 @@
         <v>1.253152025893108</v>
       </c>
       <c r="E323" t="n">
-        <v>0.01326167488176867</v>
+        <v>0.759838</v>
       </c>
       <c r="F323" t="n">
         <v>0.0422385</v>
@@ -9479,7 +9479,7 @@
         <v>1.240209659694682</v>
       </c>
       <c r="E324" t="n">
-        <v>0.01815648567557181</v>
+        <v>1.04029</v>
       </c>
       <c r="F324" t="n">
         <v>0.115717</v>
@@ -9507,7 +9507,7 @@
         <v>1.249151712163098</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02794394305490561</v>
+        <v>1.60107</v>
       </c>
       <c r="F325" t="n">
         <v>0.0598101</v>
@@ -9535,7 +9535,7 @@
         <v>1.251283341214131</v>
       </c>
       <c r="E326" t="n">
-        <v>0.04002284320918277</v>
+        <v>2.29314</v>
       </c>
       <c r="F326" t="n">
         <v>0.183319</v>
@@ -9563,7 +9563,7 @@
         <v>1.246134021684666</v>
       </c>
       <c r="E327" t="n">
-        <v>0.04598890219127499</v>
+        <v>2.63497</v>
       </c>
       <c r="F327" t="n">
         <v>-0.104811</v>
@@ -9591,7 +9591,7 @@
         <v>1.243241730316353</v>
       </c>
       <c r="E328" t="n">
-        <v>0.05058505224347686</v>
+        <v>2.89831</v>
       </c>
       <c r="F328" t="n">
         <v>0.114826</v>
@@ -9619,7 +9619,7 @@
         <v>1.250683812959934</v>
       </c>
       <c r="E329" t="n">
-        <v>0.05537022145366971</v>
+        <v>3.17248</v>
       </c>
       <c r="F329" t="n">
         <v>0.167965</v>
@@ -9647,7 +9647,7 @@
         <v>1.24645497311375</v>
       </c>
       <c r="E330" t="n">
-        <v>0.06372249458908857</v>
+        <v>3.65103</v>
       </c>
       <c r="F330" t="n">
         <v>-0.370768</v>
@@ -9675,7 +9675,7 @@
         <v>1.247036487036366</v>
       </c>
       <c r="E331" t="n">
-        <v>0.07469729945855412</v>
+        <v>4.27984</v>
       </c>
       <c r="F331" t="n">
         <v>-0.00981308</v>
@@ -9703,7 +9703,7 @@
         <v>1.244238723075279</v>
       </c>
       <c r="E332" t="n">
-        <v>0.08148069612935527</v>
+        <v>4.6685</v>
       </c>
       <c r="F332" t="n">
         <v>-0.07961550000000001</v>
@@ -9731,7 +9731,7 @@
         <v>1.24199033812667</v>
       </c>
       <c r="E333" t="n">
-        <v>0.08720153635154228</v>
+        <v>4.99628</v>
       </c>
       <c r="F333" t="n">
         <v>-0.212765</v>
@@ -9759,7 +9759,7 @@
         <v>1.248963570325412</v>
       </c>
       <c r="E334" t="n">
-        <v>0.09414829584033012</v>
+        <v>5.3943</v>
       </c>
       <c r="F334" t="n">
         <v>0.132532</v>
@@ -9787,7 +9787,7 @@
         <v>1.255479987893077</v>
       </c>
       <c r="E335" t="n">
-        <v>0.0973239224143338</v>
+        <v>5.57625</v>
       </c>
       <c r="F335" t="n">
         <v>-0.156891</v>
@@ -9815,7 +9815,7 @@
         <v>1.246663547233174</v>
       </c>
       <c r="E336" t="n">
-        <v>0.1001928946387621</v>
+        <v>5.74063</v>
       </c>
       <c r="F336" t="n">
         <v>-0.0923461</v>
@@ -9843,7 +9843,7 @@
         <v>1.215553371925725</v>
       </c>
       <c r="E337" t="n">
-        <v>0.102568811349502</v>
+        <v>5.87676</v>
       </c>
       <c r="F337" t="n">
         <v>0.0192161</v>
@@ -9871,7 +9871,7 @@
         <v>1.260797366748519</v>
       </c>
       <c r="E338" t="n">
-        <v>0.001649131939612158</v>
+        <v>0.0944883</v>
       </c>
       <c r="F338" t="n">
         <v>0.00546565</v>
@@ -9899,7 +9899,7 @@
         <v>1.258316335426033</v>
       </c>
       <c r="E339" t="n">
-        <v>0.005050389443325912</v>
+        <v>0.289366</v>
       </c>
       <c r="F339" t="n">
         <v>0.0793285</v>
@@ -9927,7 +9927,7 @@
         <v>1.279558517614572</v>
       </c>
       <c r="E340" t="n">
-        <v>0.007894071846892793</v>
+        <v>0.452297</v>
       </c>
       <c r="F340" t="n">
         <v>0.0828868</v>
@@ -9955,7 +9955,7 @@
         <v>1.276687119070291</v>
       </c>
       <c r="E341" t="n">
-        <v>0.0116230725135338</v>
+        <v>0.665953</v>
       </c>
       <c r="F341" t="n">
         <v>0.0186006</v>
@@ -9983,7 +9983,7 @@
         <v>1.251666888592967</v>
       </c>
       <c r="E342" t="n">
-        <v>0.01599829878901822</v>
+        <v>0.916635</v>
       </c>
       <c r="F342" t="n">
         <v>0.211066</v>
@@ -10011,7 +10011,7 @@
         <v>1.261725009659395</v>
       </c>
       <c r="E343" t="n">
-        <v>0.01939968370176737</v>
+        <v>1.11152</v>
       </c>
       <c r="F343" t="n">
         <v>0.14175</v>
@@ -10039,7 +10039,7 @@
         <v>1.265243059652966</v>
       </c>
       <c r="E344" t="n">
-        <v>0.02629216345081818</v>
+        <v>1.50643</v>
       </c>
       <c r="F344" t="n">
         <v>0.163601</v>
@@ -10067,7 +10067,7 @@
         <v>1.266534642242367</v>
       </c>
       <c r="E345" t="n">
-        <v>0.03638889317360537</v>
+        <v>2.08493</v>
       </c>
       <c r="F345" t="n">
         <v>0.262055</v>
@@ -10095,7 +10095,7 @@
         <v>1.262259878155049</v>
       </c>
       <c r="E346" t="n">
-        <v>0.0441346643939562</v>
+        <v>2.52873</v>
       </c>
       <c r="F346" t="n">
         <v>0.154554</v>
@@ -10123,7 +10123,7 @@
         <v>1.258693767363611</v>
       </c>
       <c r="E347" t="n">
-        <v>0.04874669694235122</v>
+        <v>2.79298</v>
       </c>
       <c r="F347" t="n">
         <v>0.150699</v>
@@ -10151,7 +10151,7 @@
         <v>1.260436432351906</v>
       </c>
       <c r="E348" t="n">
-        <v>0.05202617060684857</v>
+        <v>2.98088</v>
       </c>
       <c r="F348" t="n">
         <v>-0.206212</v>
@@ -10179,7 +10179,7 @@
         <v>1.259138594436689</v>
       </c>
       <c r="E349" t="n">
-        <v>0.05575646281713605</v>
+        <v>3.19461</v>
       </c>
       <c r="F349" t="n">
         <v>0.100829</v>
@@ -10207,7 +10207,7 @@
         <v>1.258558699465385</v>
       </c>
       <c r="E350" t="n">
-        <v>0.06057095355876241</v>
+        <v>3.47046</v>
       </c>
       <c r="F350" t="n">
         <v>0.0368103</v>
@@ -10235,7 +10235,7 @@
         <v>1.269535348070309</v>
       </c>
       <c r="E351" t="n">
-        <v>0.06753167568156619</v>
+        <v>3.86928</v>
       </c>
       <c r="F351" t="n">
         <v>-0.12084</v>
@@ -10263,7 +10263,7 @@
         <v>1.27129068273153</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07843963444068035</v>
+        <v>4.49426</v>
       </c>
       <c r="F352" t="n">
         <v>-0.307156</v>
@@ -10291,7 +10291,7 @@
         <v>1.263882905968745</v>
       </c>
       <c r="E353" t="n">
-        <v>0.08384631539750838</v>
+        <v>4.80404</v>
       </c>
       <c r="F353" t="n">
         <v>-0.218367</v>
@@ -10319,7 +10319,7 @@
         <v>1.259912695388058</v>
       </c>
       <c r="E354" t="n">
-        <v>0.08705423056267397</v>
+        <v>4.98784</v>
       </c>
       <c r="F354" t="n">
         <v>-0.286412</v>
@@ -10347,7 +10347,7 @@
         <v>1.260555433132554</v>
       </c>
       <c r="E355" t="n">
-        <v>0.09096254635666486</v>
+        <v>5.21177</v>
       </c>
       <c r="F355" t="n">
         <v>-0.421983</v>
@@ -10375,7 +10375,7 @@
         <v>1.251439171514141</v>
       </c>
       <c r="E356" t="n">
-        <v>0.09539725345305726</v>
+        <v>5.46586</v>
       </c>
       <c r="F356" t="n">
         <v>-0.191015</v>
@@ -10403,7 +10403,7 @@
         <v>1.283413417414669</v>
       </c>
       <c r="E357" t="n">
-        <v>0.09958499646029245</v>
+        <v>5.7058</v>
       </c>
       <c r="F357" t="n">
         <v>-0.09168759999999999</v>
@@ -10431,7 +10431,7 @@
         <v>1.268648887596564</v>
       </c>
       <c r="E358" t="n">
-        <v>0.1026836540142832</v>
+        <v>5.88334</v>
       </c>
       <c r="F358" t="n">
         <v>-0.136297</v>
@@ -10459,7 +10459,7 @@
         <v>1.256097130002294</v>
       </c>
       <c r="E359" t="n">
-        <v>0.1065162225187375</v>
+        <v>6.10293</v>
       </c>
       <c r="F359" t="n">
         <v>-0.0715832</v>
@@ -10487,7 +10487,7 @@
         <v>1.277235295472216</v>
       </c>
       <c r="E360" t="n">
-        <v>0.00349652281027536</v>
+        <v>0.200336</v>
       </c>
       <c r="F360" t="n">
         <v>0.166141</v>
@@ -10515,7 +10515,7 @@
         <v>1.260222202629362</v>
       </c>
       <c r="E361" t="n">
-        <v>0.01614138088109672</v>
+        <v>0.924833</v>
       </c>
       <c r="F361" t="n">
         <v>0.131621</v>
@@ -10543,7 +10543,7 @@
         <v>1.253554944946571</v>
       </c>
       <c r="E362" t="n">
-        <v>0.02732784182895161</v>
+        <v>1.56577</v>
       </c>
       <c r="F362" t="n">
         <v>0.0994853</v>
@@ -10571,7 +10571,7 @@
         <v>1.262944971089398</v>
       </c>
       <c r="E363" t="n">
-        <v>0.03941773755751633</v>
+        <v>2.25847</v>
       </c>
       <c r="F363" t="n">
         <v>0.240505</v>
@@ -10599,7 +10599,7 @@
         <v>1.270362153088638</v>
       </c>
       <c r="E364" t="n">
-        <v>0.04901338325205596</v>
+        <v>2.80826</v>
       </c>
       <c r="F364" t="n">
         <v>0.0638697</v>
@@ -10627,7 +10627,7 @@
         <v>1.269913382873021</v>
       </c>
       <c r="E365" t="n">
-        <v>0.05848895029405838</v>
+        <v>3.35117</v>
       </c>
       <c r="F365" t="n">
         <v>0.121149</v>
@@ -10655,7 +10655,7 @@
         <v>1.277270527335537</v>
       </c>
       <c r="E366" t="n">
-        <v>0.07012890014145895</v>
+        <v>4.01809</v>
       </c>
       <c r="F366" t="n">
         <v>0.0647358</v>
@@ -10683,7 +10683,7 @@
         <v>1.258197122870657</v>
       </c>
       <c r="E367" t="n">
-        <v>0.0812916769713643</v>
+        <v>4.65767</v>
       </c>
       <c r="F367" t="n">
         <v>0.0198262</v>
@@ -10711,7 +10711,7 @@
         <v>1.275296044061927</v>
       </c>
       <c r="E368" t="n">
-        <v>0.09185685306538677</v>
+        <v>5.26301</v>
       </c>
       <c r="F368" t="n">
         <v>-0.42469</v>
@@ -10739,7 +10739,7 @@
         <v>1.266238524133585</v>
       </c>
       <c r="E369" t="n">
-        <v>0.09819833236958296</v>
+        <v>5.62635</v>
       </c>
       <c r="F369" t="n">
         <v>-0.078948</v>
@@ -10767,7 +10767,7 @@
         <v>1.266960930731489</v>
       </c>
       <c r="E370" t="n">
-        <v>0.1054824640027813</v>
+        <v>6.0437</v>
       </c>
       <c r="F370" t="n">
         <v>-0.0289526</v>
@@ -10795,7 +10795,7 @@
         <v>1.240741713653571</v>
       </c>
       <c r="E371" t="n">
-        <v>0.001594532804622019</v>
+        <v>0.09136</v>
       </c>
       <c r="F371" t="n">
         <v>-0.0812171</v>
@@ -10823,7 +10823,7 @@
         <v>1.243768467199583</v>
       </c>
       <c r="E372" t="n">
-        <v>0.005132175572074365</v>
+        <v>0.294052</v>
       </c>
       <c r="F372" t="n">
         <v>0.0134844</v>
@@ -10851,7 +10851,7 @@
         <v>1.252473552614984</v>
       </c>
       <c r="E373" t="n">
-        <v>0.007932242197633908</v>
+        <v>0.454484</v>
       </c>
       <c r="F373" t="n">
         <v>0.134068</v>
@@ -10879,7 +10879,7 @@
         <v>1.247220910664987</v>
       </c>
       <c r="E374" t="n">
-        <v>0.01409266104522821</v>
+        <v>0.80745</v>
       </c>
       <c r="F374" t="n">
         <v>0.08899990000000001</v>
@@ -10907,7 +10907,7 @@
         <v>1.245375445397893</v>
       </c>
       <c r="E375" t="n">
-        <v>0.08228511838159946</v>
+        <v>4.71459</v>
       </c>
       <c r="F375" t="n">
         <v>-0.194226</v>
@@ -10935,7 +10935,7 @@
         <v>1.258324282528157</v>
       </c>
       <c r="E376" t="n">
-        <v>0.1006238164310795</v>
+        <v>5.76532</v>
       </c>
       <c r="F376" t="n">
         <v>0.0145344</v>
@@ -10963,7 +10963,7 @@
         <v>1.248170661408126</v>
       </c>
       <c r="E377" t="n">
-        <v>0.1035711539389223</v>
+        <v>5.93419</v>
       </c>
       <c r="F377" t="n">
         <v>-0.0111787</v>
@@ -10991,7 +10991,7 @@
         <v>1.251563022783911</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1074243173285502</v>
+        <v>6.15496</v>
       </c>
       <c r="F378" t="n">
         <v>0.0838811</v>
@@ -11019,7 +11019,7 @@
         <v>1.258522943771785</v>
       </c>
       <c r="E379" t="n">
-        <v>0.001651580636552706</v>
+        <v>0.09462859999999999</v>
       </c>
       <c r="F379" t="n">
         <v>0.0914842</v>
@@ -11047,7 +11047,7 @@
         <v>1.262711368444903</v>
       </c>
       <c r="E380" t="n">
-        <v>0.004942859708110541</v>
+        <v>0.283205</v>
       </c>
       <c r="F380" t="n">
         <v>0.0943404</v>
@@ -11075,7 +11075,7 @@
         <v>1.280242164592309</v>
       </c>
       <c r="E381" t="n">
-        <v>0.008435856953296872</v>
+        <v>0.483339</v>
       </c>
       <c r="F381" t="n">
         <v>-0.0159364</v>
@@ -11103,7 +11103,7 @@
         <v>1.261709158245275</v>
       </c>
       <c r="E382" t="n">
-        <v>0.01528870027503489</v>
+        <v>0.875978</v>
       </c>
       <c r="F382" t="n">
         <v>0.0595019</v>
@@ -11131,7 +11131,7 @@
         <v>1.255069719178979</v>
       </c>
       <c r="E383" t="n">
-        <v>0.02309646559041656</v>
+        <v>1.32333</v>
       </c>
       <c r="F383" t="n">
         <v>0.103913</v>
@@ -11159,7 +11159,7 @@
         <v>1.264076738176919</v>
       </c>
       <c r="E384" t="n">
-        <v>0.046170940032258</v>
+        <v>2.6454</v>
       </c>
       <c r="F384" t="n">
         <v>0.0413233</v>
@@ -11187,7 +11187,7 @@
         <v>1.251455153011885</v>
       </c>
       <c r="E385" t="n">
-        <v>0.05605369238875069</v>
+        <v>3.21164</v>
       </c>
       <c r="F385" t="n">
         <v>-0.0228915</v>
@@ -11215,7 +11215,7 @@
         <v>1.253873996859334</v>
       </c>
       <c r="E386" t="n">
-        <v>0.07908959505412305</v>
+        <v>4.5315</v>
       </c>
       <c r="F386" t="n">
         <v>0.0690201</v>
@@ -11243,7 +11243,7 @@
         <v>1.272139929410283</v>
       </c>
       <c r="E387" t="n">
-        <v>0.09004188517623786</v>
+        <v>5.15902</v>
       </c>
       <c r="F387" t="n">
         <v>-0.472845</v>
@@ -11271,7 +11271,7 @@
         <v>1.271031077511482</v>
       </c>
       <c r="E388" t="n">
-        <v>0.1007679806272942</v>
+        <v>5.77358</v>
       </c>
       <c r="F388" t="n">
         <v>-0.00895755</v>
@@ -11299,7 +11299,7 @@
         <v>1.263388301354734</v>
       </c>
       <c r="E389" t="n">
-        <v>0.1046644281823716</v>
+        <v>5.99683</v>
       </c>
       <c r="F389" t="n">
         <v>-0.06298429999999999</v>
@@ -11327,7 +11327,7 @@
         <v>1.26435754436789</v>
       </c>
       <c r="E390" t="n">
-        <v>0.108041989350831</v>
+        <v>6.19035</v>
       </c>
       <c r="F390" t="n">
         <v>-0.0296375</v>
@@ -11355,7 +11355,7 @@
         <v>1.431687815132894</v>
       </c>
       <c r="E391" t="n">
-        <v>0.00166956799982376</v>
+        <v>0.0956592</v>
       </c>
       <c r="F391" t="n">
         <v>0.0115625</v>
@@ -11383,7 +11383,7 @@
         <v>1.431694799878801</v>
       </c>
       <c r="E392" t="n">
-        <v>0.004974781780129518</v>
+        <v>0.285034</v>
       </c>
       <c r="F392" t="n">
         <v>0.0812281</v>
@@ -11411,7 +11411,7 @@
         <v>1.435837734564738</v>
       </c>
       <c r="E393" t="n">
-        <v>0.00823676724552188</v>
+        <v>0.471932</v>
       </c>
       <c r="F393" t="n">
         <v>0.135234</v>
@@ -11439,7 +11439,7 @@
         <v>1.432703737693177</v>
       </c>
       <c r="E394" t="n">
-        <v>0.01142295306150013</v>
+        <v>0.654487</v>
       </c>
       <c r="F394" t="n">
         <v>0.141826</v>
@@ -11467,7 +11467,7 @@
         <v>1.425047367633792</v>
       </c>
       <c r="E395" t="n">
-        <v>0.01461737683154779</v>
+        <v>0.837514</v>
       </c>
       <c r="F395" t="n">
         <v>0.20018</v>
@@ -11495,7 +11495,7 @@
         <v>1.41447163280145</v>
       </c>
       <c r="E396" t="n">
-        <v>0.0177602959353691</v>
+        <v>1.01759</v>
       </c>
       <c r="F396" t="n">
         <v>0.206926</v>
@@ -11523,7 +11523,7 @@
         <v>1.39108231244596</v>
       </c>
       <c r="E397" t="n">
-        <v>0.02309035693803458</v>
+        <v>1.32298</v>
       </c>
       <c r="F397" t="n">
         <v>0.31593</v>
@@ -11551,7 +11551,7 @@
         <v>1.410159565439316</v>
       </c>
       <c r="E398" t="n">
-        <v>0.03029210903053878</v>
+        <v>1.73561</v>
       </c>
       <c r="F398" t="n">
         <v>0.241934</v>
@@ -11579,7 +11579,7 @@
         <v>1.4216398981458</v>
       </c>
       <c r="E399" t="n">
-        <v>0.0350905427430468</v>
+        <v>2.01054</v>
       </c>
       <c r="F399" t="n">
         <v>0.288218</v>
@@ -11607,7 +11607,7 @@
         <v>1.414871018856489</v>
       </c>
       <c r="E400" t="n">
-        <v>0.03890077103307561</v>
+        <v>2.22885</v>
       </c>
       <c r="F400" t="n">
         <v>0.309019</v>
@@ -11635,7 +11635,7 @@
         <v>1.420186607456921</v>
       </c>
       <c r="E401" t="n">
-        <v>0.04225791184928671</v>
+        <v>2.4212</v>
       </c>
       <c r="F401" t="n">
         <v>0.20921</v>
@@ -11663,7 +11663,7 @@
         <v>1.408208081215273</v>
       </c>
       <c r="E402" t="n">
-        <v>0.04557037223664675</v>
+        <v>2.61099</v>
       </c>
       <c r="F402" t="n">
         <v>0.00675894</v>
@@ -11691,7 +11691,7 @@
         <v>1.419024312688123</v>
       </c>
       <c r="E403" t="n">
-        <v>0.04880778346617103</v>
+        <v>2.79648</v>
       </c>
       <c r="F403" t="n">
         <v>0.010535</v>
@@ -11719,7 +11719,7 @@
         <v>1.410999645641345</v>
       </c>
       <c r="E404" t="n">
-        <v>0.0519872497645291</v>
+        <v>2.97865</v>
       </c>
       <c r="F404" t="n">
         <v>0.0110256</v>
@@ -11747,7 +11747,7 @@
         <v>1.412710161356532</v>
       </c>
       <c r="E405" t="n">
-        <v>0.05595839741159179</v>
+        <v>3.20618</v>
       </c>
       <c r="F405" t="n">
         <v>-0.106631</v>
@@ -11775,7 +11775,7 @@
         <v>1.406036983866356</v>
       </c>
       <c r="E406" t="n">
-        <v>0.06033062172076279</v>
+        <v>3.45669</v>
       </c>
       <c r="F406" t="n">
         <v>0.0173457</v>
@@ -11803,7 +11803,7 @@
         <v>1.406207666029452</v>
       </c>
       <c r="E407" t="n">
-        <v>0.06566487151363305</v>
+        <v>3.76232</v>
       </c>
       <c r="F407" t="n">
         <v>-0.175744</v>
@@ -11831,7 +11831,7 @@
         <v>1.402736611057115</v>
       </c>
       <c r="E408" t="n">
-        <v>0.09051102967917393</v>
+        <v>5.1859</v>
       </c>
       <c r="F408" t="n">
         <v>-0.325209</v>
@@ -11859,7 +11859,7 @@
         <v>1.421439411301094</v>
       </c>
       <c r="E409" t="n">
-        <v>0.09397323931635508</v>
+        <v>5.38427</v>
       </c>
       <c r="F409" t="n">
         <v>-0.140118</v>
@@ -11887,7 +11887,7 @@
         <v>1.42944044996635</v>
       </c>
       <c r="E410" t="n">
-        <v>0.09713019086736244</v>
+        <v>5.56515</v>
       </c>
       <c r="F410" t="n">
         <v>-0.202878</v>
@@ -11915,7 +11915,7 @@
         <v>1.435520811413056</v>
       </c>
       <c r="E411" t="n">
-        <v>0.1002845244244918</v>
+        <v>5.74588</v>
       </c>
       <c r="F411" t="n">
         <v>-0.106682</v>
@@ -11943,7 +11943,7 @@
         <v>1.435496429810956</v>
       </c>
       <c r="E412" t="n">
-        <v>0.1035741209986507</v>
+        <v>5.93436</v>
       </c>
       <c r="F412" t="n">
         <v>-0.056027</v>
@@ -11971,7 +11971,7 @@
         <v>1.428593714111889</v>
       </c>
       <c r="E413" t="n">
-        <v>0.1074744082780824</v>
+        <v>6.15783</v>
       </c>
       <c r="F413" t="n">
         <v>-0.0662251</v>
@@ -11999,7 +11999,7 @@
         <v>1.472066574581462</v>
       </c>
       <c r="E414" t="n">
-        <v>0.001630577344334206</v>
+        <v>0.0934252</v>
       </c>
       <c r="F414" t="n">
         <v>0.0648763</v>
@@ -12027,7 +12027,7 @@
         <v>1.464155046434632</v>
       </c>
       <c r="E415" t="n">
-        <v>0.004904689357369425</v>
+        <v>0.281018</v>
       </c>
       <c r="F415" t="n">
         <v>0.110168</v>
@@ -12055,7 +12055,7 @@
         <v>1.451092691732682</v>
       </c>
       <c r="E416" t="n">
-        <v>0.008161386475128244</v>
+        <v>0.467613</v>
       </c>
       <c r="F416" t="n">
         <v>0.175357</v>
@@ -12083,7 +12083,7 @@
         <v>1.442265578872352</v>
       </c>
       <c r="E417" t="n">
-        <v>0.01147253786554929</v>
+        <v>0.657328</v>
       </c>
       <c r="F417" t="n">
         <v>0.225664</v>
@@ -12111,7 +12111,7 @@
         <v>1.445136671737314</v>
       </c>
       <c r="E418" t="n">
-        <v>0.0146275346477944</v>
+        <v>0.838096</v>
       </c>
       <c r="F418" t="n">
         <v>0.295923</v>
@@ -12139,7 +12139,7 @@
         <v>1.44705908656143</v>
       </c>
       <c r="E419" t="n">
-        <v>0.01805682737528293</v>
+        <v>1.03458</v>
       </c>
       <c r="F419" t="n">
         <v>0.291252</v>
@@ -12167,7 +12167,7 @@
         <v>1.45570944903164</v>
       </c>
       <c r="E420" t="n">
-        <v>0.02135794312250501</v>
+        <v>1.22372</v>
       </c>
       <c r="F420" t="n">
         <v>0.367671</v>
@@ -12195,7 +12195,7 @@
         <v>1.446440458504947</v>
       </c>
       <c r="E421" t="n">
-        <v>0.02459849594468288</v>
+        <v>1.40939</v>
       </c>
       <c r="F421" t="n">
         <v>0.277114</v>
@@ -12223,7 +12223,7 @@
         <v>1.454279890530018</v>
       </c>
       <c r="E422" t="n">
-        <v>0.02805215346852926</v>
+        <v>1.60727</v>
       </c>
       <c r="F422" t="n">
         <v>0.210574</v>
@@ -12251,7 +12251,7 @@
         <v>1.457947186972148</v>
       </c>
       <c r="E423" t="n">
-        <v>0.03124820039478127</v>
+        <v>1.79039</v>
       </c>
       <c r="F423" t="n">
         <v>0.440373</v>
@@ -12279,7 +12279,7 @@
         <v>1.4516094516088</v>
       </c>
       <c r="E424" t="n">
-        <v>0.03432155067461809</v>
+        <v>1.96648</v>
       </c>
       <c r="F424" t="n">
         <v>0.328443</v>
@@ -12307,7 +12307,7 @@
         <v>1.46238503821668</v>
       </c>
       <c r="E425" t="n">
-        <v>0.03759247222578067</v>
+        <v>2.15389</v>
       </c>
       <c r="F425" t="n">
         <v>0.324793</v>
@@ -12335,7 +12335,7 @@
         <v>1.459188130434181</v>
       </c>
       <c r="E426" t="n">
-        <v>0.04098923201601203</v>
+        <v>2.34851</v>
       </c>
       <c r="F426" t="n">
         <v>0.101154</v>
@@ -12363,7 +12363,7 @@
         <v>1.459928080420402</v>
       </c>
       <c r="E427" t="n">
-        <v>0.04444236594108281</v>
+        <v>2.54636</v>
       </c>
       <c r="F427" t="n">
         <v>0.159614</v>
@@ -12391,7 +12391,7 @@
         <v>1.461430805751678</v>
       </c>
       <c r="E428" t="n">
-        <v>0.04832781792187259</v>
+        <v>2.76898</v>
       </c>
       <c r="F428" t="n">
         <v>0.256973</v>
@@ -12419,7 +12419,7 @@
         <v>1.452329163791735</v>
       </c>
       <c r="E429" t="n">
-        <v>0.05258135984190797</v>
+        <v>3.01269</v>
       </c>
       <c r="F429" t="n">
         <v>0.0249093</v>
@@ -12447,7 +12447,7 @@
         <v>1.451919419251633</v>
       </c>
       <c r="E430" t="n">
-        <v>0.05845788343337287</v>
+        <v>3.34939</v>
       </c>
       <c r="F430" t="n">
         <v>0.114744</v>
@@ -12475,7 +12475,7 @@
         <v>1.455465561255229</v>
       </c>
       <c r="E431" t="n">
-        <v>0.06474735192585965</v>
+        <v>3.70975</v>
       </c>
       <c r="F431" t="n">
         <v>-0.198741</v>
@@ -12503,7 +12503,7 @@
         <v>1.450624003661872</v>
       </c>
       <c r="E432" t="n">
-        <v>0.07342844509235423</v>
+        <v>4.20714</v>
       </c>
       <c r="F432" t="n">
         <v>-0.35389</v>
@@ -12531,7 +12531,7 @@
         <v>1.444683356310302</v>
       </c>
       <c r="E433" t="n">
-        <v>0.08266734548778622</v>
+        <v>4.73649</v>
       </c>
       <c r="F433" t="n">
         <v>-0.274173</v>
@@ -12559,7 +12559,7 @@
         <v>1.44440991411718</v>
       </c>
       <c r="E434" t="n">
-        <v>0.09133604681659166</v>
+        <v>5.23317</v>
       </c>
       <c r="F434" t="n">
         <v>-0.359348</v>
@@ -12587,7 +12587,7 @@
         <v>1.45252538704148</v>
       </c>
       <c r="E435" t="n">
-        <v>0.09721099961172977</v>
+        <v>5.56978</v>
       </c>
       <c r="F435" t="n">
         <v>-0.181301</v>
@@ -12615,7 +12615,7 @@
         <v>1.471149210651319</v>
       </c>
       <c r="E436" t="n">
-        <v>0.1004838410250695</v>
+        <v>5.7573</v>
       </c>
       <c r="F436" t="n">
         <v>-0.112413</v>
@@ -12643,7 +12643,7 @@
         <v>1.464872008060772</v>
       </c>
       <c r="E437" t="n">
-        <v>0.1037544135103817</v>
+        <v>5.94469</v>
       </c>
       <c r="F437" t="n">
         <v>-0.0305879</v>
@@ -12671,7 +12671,7 @@
         <v>1.465803533902139</v>
       </c>
       <c r="E438" t="n">
-        <v>0.1075112347252995</v>
+        <v>6.15994</v>
       </c>
       <c r="F438" t="n">
         <v>-0.00307035</v>
@@ -12699,7 +12699,7 @@
         <v>1.460496490923549</v>
       </c>
       <c r="E439" t="n">
-        <v>0.001710207991456448</v>
+        <v>0.0979877</v>
       </c>
       <c r="F439" t="n">
         <v>0.0647052</v>
@@ -12727,7 +12727,7 @@
         <v>1.46577283369559</v>
       </c>
       <c r="E440" t="n">
-        <v>0.005035693771024119</v>
+        <v>0.288524</v>
       </c>
       <c r="F440" t="n">
         <v>0.18827</v>
@@ -12755,7 +12755,7 @@
         <v>1.44490830158872</v>
       </c>
       <c r="E441" t="n">
-        <v>0.008220710216403531</v>
+        <v>0.471012</v>
       </c>
       <c r="F441" t="n">
         <v>0.32429</v>
@@ -12783,7 +12783,7 @@
         <v>1.454479288267798</v>
       </c>
       <c r="E442" t="n">
-        <v>0.01144220404314963</v>
+        <v>0.65559</v>
       </c>
       <c r="F442" t="n">
         <v>0.130206</v>
@@ -12811,7 +12811,7 @@
         <v>1.447325118969473</v>
       </c>
       <c r="E443" t="n">
-        <v>0.01467247687603325</v>
+        <v>0.8406709999999999</v>
       </c>
       <c r="F443" t="n">
         <v>0.361555</v>
@@ -12839,7 +12839,7 @@
         <v>1.450930735769285</v>
       </c>
       <c r="E444" t="n">
-        <v>0.01807672412875567</v>
+        <v>1.03572</v>
       </c>
       <c r="F444" t="n">
         <v>0.112195</v>
@@ -12867,7 +12867,7 @@
         <v>1.460931209879507</v>
       </c>
       <c r="E445" t="n">
-        <v>0.02377190801093837</v>
+        <v>1.36203</v>
       </c>
       <c r="F445" t="n">
         <v>0.346127</v>
@@ -12895,7 +12895,7 @@
         <v>1.453179273180016</v>
       </c>
       <c r="E446" t="n">
-        <v>0.08128801177993511</v>
+        <v>4.65746</v>
       </c>
       <c r="F446" t="n">
         <v>-0.023685</v>
@@ -12923,7 +12923,7 @@
         <v>1.45242555747274</v>
       </c>
       <c r="E447" t="n">
-        <v>0.09089011519270711</v>
+        <v>5.20762</v>
       </c>
       <c r="F447" t="n">
         <v>-0.0354776</v>
@@ -12951,7 +12951,7 @@
         <v>1.4528454838695</v>
       </c>
       <c r="E448" t="n">
-        <v>0.09665825383762316</v>
+        <v>5.53811</v>
       </c>
       <c r="F448" t="n">
         <v>-0.339098</v>
@@ -12979,7 +12979,7 @@
         <v>1.457216524748467</v>
       </c>
       <c r="E449" t="n">
-        <v>0.1003428184215084</v>
+        <v>5.74922</v>
       </c>
       <c r="F449" t="n">
         <v>-0.172048</v>
@@ -13007,7 +13007,7 @@
         <v>1.451805772133449</v>
       </c>
       <c r="E450" t="n">
-        <v>0.1037289317033026</v>
+        <v>5.94323</v>
       </c>
       <c r="F450" t="n">
         <v>-0.123449</v>
@@ -13035,7 +13035,7 @@
         <v>1.457072407260531</v>
       </c>
       <c r="E451" t="n">
-        <v>0.1073932504678647</v>
+        <v>6.15318</v>
       </c>
       <c r="F451" t="n">
         <v>-0.230803</v>
@@ -13063,7 +13063,7 @@
         <v>1.3944281982232</v>
       </c>
       <c r="E452" t="n">
-        <v>0.001692135107052046</v>
+        <v>0.0969522</v>
       </c>
       <c r="F452" t="n">
         <v>0.047737</v>
@@ -13091,7 +13091,7 @@
         <v>1.406467205447749</v>
       </c>
       <c r="E453" t="n">
-        <v>0.005162265048378748</v>
+        <v>0.295776</v>
       </c>
       <c r="F453" t="n">
         <v>-0.00153711</v>
@@ -13119,7 +13119,7 @@
         <v>1.423857436683884</v>
       </c>
       <c r="E454" t="n">
-        <v>0.00834117284137618</v>
+        <v>0.477914</v>
       </c>
       <c r="F454" t="n">
         <v>0.118707</v>
@@ -13147,7 +13147,7 @@
         <v>1.433882840402242</v>
       </c>
       <c r="E455" t="n">
-        <v>0.01153210595291985</v>
+        <v>0.660741</v>
       </c>
       <c r="F455" t="n">
         <v>0.138681</v>
@@ -13175,7 +13175,7 @@
         <v>1.428499212460406</v>
       </c>
       <c r="E456" t="n">
-        <v>0.01444059243161328</v>
+        <v>0.827385</v>
       </c>
       <c r="F456" t="n">
         <v>0.204382</v>
@@ -13203,7 +13203,7 @@
         <v>1.422789513596442</v>
       </c>
       <c r="E457" t="n">
-        <v>0.01752066222907028</v>
+        <v>1.00386</v>
       </c>
       <c r="F457" t="n">
         <v>0.13789</v>
@@ -13231,7 +13231,7 @@
         <v>1.418597899335819</v>
       </c>
       <c r="E458" t="n">
-        <v>0.02766137424900773</v>
+        <v>1.58488</v>
       </c>
       <c r="F458" t="n">
         <v>0.133922</v>
@@ -13259,7 +13259,7 @@
         <v>1.423379780662912</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03374157776418037</v>
+        <v>1.93325</v>
       </c>
       <c r="F459" t="n">
         <v>0.247794</v>
@@ -13287,7 +13287,7 @@
         <v>1.416432137449585</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03802060149129487</v>
+        <v>2.17842</v>
       </c>
       <c r="F460" t="n">
         <v>0.0342292</v>
@@ -13315,7 +13315,7 @@
         <v>1.430618747255886</v>
       </c>
       <c r="E461" t="n">
-        <v>0.04106236131167059</v>
+        <v>2.3527</v>
       </c>
       <c r="F461" t="n">
         <v>0.210784</v>
@@ -13343,7 +13343,7 @@
         <v>1.422585674045679</v>
       </c>
       <c r="E462" t="n">
-        <v>0.04448338117850467</v>
+        <v>2.54871</v>
       </c>
       <c r="F462" t="n">
         <v>0.0164021</v>
@@ -13371,7 +13371,7 @@
         <v>1.418562652828559</v>
       </c>
       <c r="E463" t="n">
-        <v>0.04771049496544219</v>
+        <v>2.73361</v>
       </c>
       <c r="F463" t="n">
         <v>-0.0195501</v>
@@ -13399,7 +13399,7 @@
         <v>1.411761311270429</v>
       </c>
       <c r="E464" t="n">
-        <v>0.05106641405117689</v>
+        <v>2.92589</v>
       </c>
       <c r="F464" t="n">
         <v>0.0221407</v>
@@ -13427,7 +13427,7 @@
         <v>1.41757186766668</v>
       </c>
       <c r="E465" t="n">
-        <v>0.05419456766952632</v>
+        <v>3.10512</v>
       </c>
       <c r="F465" t="n">
         <v>-0.129795</v>
@@ -13455,7 +13455,7 @@
         <v>1.413375392455946</v>
       </c>
       <c r="E466" t="n">
-        <v>0.05797512536227124</v>
+        <v>3.32173</v>
       </c>
       <c r="F466" t="n">
         <v>-0.221869</v>
@@ -13483,7 +13483,7 @@
         <v>1.41475086145936</v>
       </c>
       <c r="E467" t="n">
-        <v>0.06213564123317532</v>
+        <v>3.56011</v>
       </c>
       <c r="F467" t="n">
         <v>0.123281</v>
@@ -13511,7 +13511,7 @@
         <v>1.428268182100267</v>
       </c>
       <c r="E468" t="n">
-        <v>0.07045684750790869</v>
+        <v>4.03688</v>
       </c>
       <c r="F468" t="n">
         <v>-0.128046</v>
@@ -13539,7 +13539,7 @@
         <v>1.429884610729132</v>
       </c>
       <c r="E469" t="n">
-        <v>0.07876042595719691</v>
+        <v>4.51264</v>
       </c>
       <c r="F469" t="n">
         <v>-0.223161</v>
@@ -13567,7 +13567,7 @@
         <v>1.398670797578901</v>
       </c>
       <c r="E470" t="n">
-        <v>0.08594158316452757</v>
+        <v>4.92409</v>
       </c>
       <c r="F470" t="n">
         <v>-0.346933</v>
@@ -13595,7 +13595,7 @@
         <v>1.422838711871447</v>
       </c>
       <c r="E471" t="n">
-        <v>0.09308539032586557</v>
+        <v>5.3334</v>
       </c>
       <c r="F471" t="n">
         <v>-0.141654</v>
@@ -13623,7 +13623,7 @@
         <v>1.429716755165162</v>
       </c>
       <c r="E472" t="n">
-        <v>0.09622244512340018</v>
+        <v>5.51314</v>
       </c>
       <c r="F472" t="n">
         <v>-0.130034</v>
@@ -13651,7 +13651,7 @@
         <v>1.433579436236444</v>
       </c>
       <c r="E473" t="n">
-        <v>0.09915320200334907</v>
+        <v>5.68106</v>
       </c>
       <c r="F473" t="n">
         <v>-0.147231</v>
@@ -13679,7 +13679,7 @@
         <v>1.415838973894983</v>
       </c>
       <c r="E474" t="n">
-        <v>0.102382410185389</v>
+        <v>5.86608</v>
       </c>
       <c r="F474" t="n">
         <v>-0.0824522</v>
@@ -13707,7 +13707,7 @@
         <v>1.397891269019161</v>
       </c>
       <c r="E475" t="n">
-        <v>0.1065563650915334</v>
+        <v>6.10523</v>
       </c>
       <c r="F475" t="n">
         <v>-0.0196411</v>
@@ -13735,7 +13735,7 @@
         <v>1.463089197554271</v>
       </c>
       <c r="E476" t="n">
-        <v>0.001631561710032331</v>
+        <v>0.0934816</v>
       </c>
       <c r="F476" t="n">
         <v>0.0336245</v>
@@ -13763,7 +13763,7 @@
         <v>1.472871345365915</v>
       </c>
       <c r="E477" t="n">
-        <v>0.004891651747857028</v>
+        <v>0.280271</v>
       </c>
       <c r="F477" t="n">
         <v>0.0512084</v>
@@ -13791,7 +13791,7 @@
         <v>1.484543700939787</v>
       </c>
       <c r="E478" t="n">
-        <v>0.008065724978826435</v>
+        <v>0.462132</v>
       </c>
       <c r="F478" t="n">
         <v>0.190238</v>
@@ -13819,7 +13819,7 @@
         <v>1.48278454267638</v>
       </c>
       <c r="E479" t="n">
-        <v>0.01125260892650548</v>
+        <v>0.6447270000000001</v>
       </c>
       <c r="F479" t="n">
         <v>0.100397</v>
@@ -13847,7 +13847,7 @@
         <v>1.453089811401897</v>
       </c>
       <c r="E480" t="n">
-        <v>0.01783883575170884</v>
+        <v>1.02209</v>
       </c>
       <c r="F480" t="n">
         <v>0.52726</v>
@@ -13875,7 +13875,7 @@
         <v>1.458108363599907</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0235760820688646</v>
+        <v>1.35081</v>
       </c>
       <c r="F481" t="n">
         <v>0.227806</v>
@@ -13903,7 +13903,7 @@
         <v>1.456032279861954</v>
       </c>
       <c r="E482" t="n">
-        <v>0.02688557539649625</v>
+        <v>1.54043</v>
       </c>
       <c r="F482" t="n">
         <v>0.143374</v>
@@ -13931,7 +13931,7 @@
         <v>1.457367489688171</v>
       </c>
       <c r="E483" t="n">
-        <v>0.03011635437486295</v>
+        <v>1.72554</v>
       </c>
       <c r="F483" t="n">
         <v>0.353145</v>
@@ -13959,7 +13959,7 @@
         <v>1.454472412938795</v>
       </c>
       <c r="E484" t="n">
-        <v>0.03333858123989489</v>
+        <v>1.91016</v>
       </c>
       <c r="F484" t="n">
         <v>0.183894</v>
@@ -13987,7 +13987,7 @@
         <v>1.447142010999612</v>
       </c>
       <c r="E485" t="n">
-        <v>0.03656936021826159</v>
+        <v>2.09527</v>
       </c>
       <c r="F485" t="n">
         <v>-0.0198716</v>
@@ -14015,7 +14015,7 @@
         <v>1.452539156098726</v>
       </c>
       <c r="E486" t="n">
-        <v>0.04002074881408037</v>
+        <v>2.29302</v>
       </c>
       <c r="F486" t="n">
         <v>0.140342</v>
@@ -14043,7 +14043,7 @@
         <v>1.451409659606825</v>
       </c>
       <c r="E487" t="n">
-        <v>0.04339150319845702</v>
+        <v>2.48615</v>
       </c>
       <c r="F487" t="n">
         <v>0.267886</v>
@@ -14071,7 +14071,7 @@
         <v>1.451647340093316</v>
       </c>
       <c r="E488" t="n">
-        <v>0.046598894764847</v>
+        <v>2.66992</v>
       </c>
       <c r="F488" t="n">
         <v>-0.0334328</v>
@@ -14099,7 +14099,7 @@
         <v>1.452749118051703</v>
       </c>
       <c r="E489" t="n">
-        <v>0.04991798740336462</v>
+        <v>2.86009</v>
       </c>
       <c r="F489" t="n">
         <v>0.0462278</v>
@@ -14127,7 +14127,7 @@
         <v>1.45337194138321</v>
       </c>
       <c r="E490" t="n">
-        <v>0.05315086077683372</v>
+        <v>3.04532</v>
       </c>
       <c r="F490" t="n">
         <v>-0.09579020000000001</v>
@@ -14155,7 +14155,7 @@
         <v>1.454262699789828</v>
       </c>
       <c r="E491" t="n">
-        <v>0.05635144555914091</v>
+        <v>3.2287</v>
       </c>
       <c r="F491" t="n">
         <v>0.0736069</v>
@@ -14183,7 +14183,7 @@
         <v>1.444659129345051</v>
       </c>
       <c r="E492" t="n">
-        <v>0.0597105062375292</v>
+        <v>3.42116</v>
       </c>
       <c r="F492" t="n">
         <v>-0.29044</v>
@@ -14211,7 +14211,7 @@
         <v>1.443506148237686</v>
       </c>
       <c r="E493" t="n">
-        <v>0.0631898201013799</v>
+        <v>3.62051</v>
       </c>
       <c r="F493" t="n">
         <v>-0.0374075</v>
@@ -14239,7 +14239,7 @@
         <v>1.456578181904425</v>
       </c>
       <c r="E494" t="n">
-        <v>0.0661439643933055</v>
+        <v>3.78977</v>
       </c>
       <c r="F494" t="n">
         <v>-0.111934</v>
@@ -14267,7 +14267,7 @@
         <v>1.443862874375541</v>
       </c>
       <c r="E495" t="n">
-        <v>0.07003901568498125</v>
+        <v>4.01294</v>
       </c>
       <c r="F495" t="n">
         <v>-0.094314</v>
@@ -14295,7 +14295,7 @@
         <v>1.453010667545149</v>
       </c>
       <c r="E496" t="n">
-        <v>0.07569440606021847</v>
+        <v>4.33697</v>
       </c>
       <c r="F496" t="n">
         <v>-0.347074</v>
@@ -14323,7 +14323,7 @@
         <v>1.452074378260287</v>
       </c>
       <c r="E497" t="n">
-        <v>0.08241793793767623</v>
+        <v>4.7222</v>
       </c>
       <c r="F497" t="n">
         <v>-0.432958</v>
@@ -14351,7 +14351,7 @@
         <v>1.454620225350933</v>
       </c>
       <c r="E498" t="n">
-        <v>0.08789652645968643</v>
+        <v>5.0361</v>
       </c>
       <c r="F498" t="n">
         <v>-0.319723</v>
@@ -14379,7 +14379,7 @@
         <v>1.438210693883202</v>
       </c>
       <c r="E499" t="n">
-        <v>0.09184742828742601</v>
+        <v>5.26247</v>
       </c>
       <c r="F499" t="n">
         <v>-0.277074</v>
@@ -14407,7 +14407,7 @@
         <v>1.480591098176671</v>
       </c>
       <c r="E500" t="n">
-        <v>0.09761731226159405</v>
+        <v>5.59306</v>
       </c>
       <c r="F500" t="n">
         <v>-0.110461</v>
@@ -14435,7 +14435,7 @@
         <v>1.503838422171744</v>
       </c>
       <c r="E501" t="n">
-        <v>0.1017069677648672</v>
+        <v>5.82738</v>
       </c>
       <c r="F501" t="n">
         <v>-0.0953551</v>
@@ -14463,7 +14463,7 @@
         <v>1.478353814213634</v>
       </c>
       <c r="E502" t="n">
-        <v>0.1047262128378922</v>
+        <v>6.00037</v>
       </c>
       <c r="F502" t="n">
         <v>-0.0872222</v>
@@ -14491,7 +14491,7 @@
         <v>1.461187872930788</v>
       </c>
       <c r="E503" t="n">
-        <v>0.1080152858132755</v>
+        <v>6.18882</v>
       </c>
       <c r="F503" t="n">
         <v>0.008795610000000001</v>
@@ -14519,7 +14519,7 @@
         <v>1.455084190004138</v>
       </c>
       <c r="E504" t="n">
-        <v>0.001572976243030637</v>
+        <v>0.09012489999999999</v>
       </c>
       <c r="F504" t="n">
         <v>0.0142212</v>
@@ -14547,7 +14547,7 @@
         <v>1.459249807263993</v>
       </c>
       <c r="E505" t="n">
-        <v>0.004925650761685877</v>
+        <v>0.282219</v>
       </c>
       <c r="F505" t="n">
         <v>0.191896</v>
@@ -14575,7 +14575,7 @@
         <v>1.456070053259801</v>
       </c>
       <c r="E506" t="n">
-        <v>0.008167041341904706</v>
+        <v>0.467937</v>
       </c>
       <c r="F506" t="n">
         <v>0.137717</v>
@@ -14603,7 +14603,7 @@
         <v>1.461649752847788</v>
       </c>
       <c r="E507" t="n">
-        <v>0.01186349161799602</v>
+        <v>0.679728</v>
       </c>
       <c r="F507" t="n">
         <v>0.228133</v>
@@ -14631,7 +14631,7 @@
         <v>1.456155898247162</v>
       </c>
       <c r="E508" t="n">
-        <v>0.0167175664270576</v>
+        <v>0.957846</v>
       </c>
       <c r="F508" t="n">
         <v>0.142231</v>
@@ -14659,7 +14659,7 @@
         <v>1.456416835936745</v>
       </c>
       <c r="E509" t="n">
-        <v>0.02440982585254229</v>
+        <v>1.39858</v>
       </c>
       <c r="F509" t="n">
         <v>0.0901484</v>
@@ -14687,7 +14687,7 @@
         <v>1.459078476299339</v>
       </c>
       <c r="E510" t="n">
-        <v>0.0315798129526602</v>
+        <v>1.80939</v>
       </c>
       <c r="F510" t="n">
         <v>-0.0644228</v>
@@ -14715,7 +14715,7 @@
         <v>1.468042914904057</v>
       </c>
       <c r="E511" t="n">
-        <v>0.03989246711405879</v>
+        <v>2.28567</v>
       </c>
       <c r="F511" t="n">
         <v>0.208191</v>
@@ -14743,7 +14743,7 @@
         <v>1.469697247735057</v>
       </c>
       <c r="E512" t="n">
-        <v>0.05225236527790704</v>
+        <v>2.99384</v>
       </c>
       <c r="F512" t="n">
         <v>0.244062</v>
@@ -14771,7 +14771,7 @@
         <v>1.457731113751778</v>
       </c>
       <c r="E513" t="n">
-        <v>0.06217962353032559</v>
+        <v>3.56263</v>
       </c>
       <c r="F513" t="n">
         <v>-0.170063</v>
@@ -14799,7 +14799,7 @@
         <v>1.473570493732824</v>
       </c>
       <c r="E514" t="n">
-        <v>0.07294394169200061</v>
+        <v>4.17938</v>
       </c>
       <c r="F514" t="n">
         <v>-0.124451</v>
@@ -14827,7 +14827,7 @@
         <v>1.45171966990876</v>
       </c>
       <c r="E515" t="n">
-        <v>0.08389431195193824</v>
+        <v>4.80679</v>
       </c>
       <c r="F515" t="n">
         <v>-0.468984</v>
@@ -14855,7 +14855,7 @@
         <v>1.459119597565601</v>
       </c>
       <c r="E516" t="n">
-        <v>0.09591142745069479</v>
+        <v>5.49532</v>
       </c>
       <c r="F516" t="n">
         <v>-0.186317</v>
@@ -14883,7 +14883,7 @@
         <v>1.450110340629291</v>
       </c>
       <c r="E517" t="n">
-        <v>0.1033615398957578</v>
+        <v>5.92218</v>
       </c>
       <c r="F517" t="n">
         <v>-0.10054</v>
@@ -14911,7 +14911,7 @@
         <v>1.45737778218278</v>
       </c>
       <c r="E518" t="n">
-        <v>0.1076457996106283</v>
+        <v>6.16765</v>
       </c>
       <c r="F518" t="n">
         <v>-0.189301</v>
@@ -14939,7 +14939,7 @@
         <v>1.380086953782261</v>
       </c>
       <c r="E519" t="n">
-        <v>0.006795613975565122</v>
+        <v>0.38936</v>
       </c>
       <c r="F519" t="n">
         <v>0.143483</v>
@@ -14967,7 +14967,7 @@
         <v>1.423077650727465</v>
       </c>
       <c r="E520" t="n">
-        <v>0.009508326872062349</v>
+        <v>0.544787</v>
       </c>
       <c r="F520" t="n">
         <v>0.110566</v>
@@ -14995,7 +14995,7 @@
         <v>1.430954227080657</v>
       </c>
       <c r="E521" t="n">
-        <v>0.01228816513159128</v>
+        <v>0.70406</v>
       </c>
       <c r="F521" t="n">
         <v>0.1231</v>
@@ -15023,7 +15023,7 @@
         <v>1.427038892252065</v>
       </c>
       <c r="E522" t="n">
-        <v>0.01535423738844727</v>
+        <v>0.879733</v>
       </c>
       <c r="F522" t="n">
         <v>0.08597680000000001</v>
@@ -15051,7 +15051,7 @@
         <v>1.397719571301769</v>
       </c>
       <c r="E523" t="n">
-        <v>0.02191103796246201</v>
+        <v>1.25541</v>
       </c>
       <c r="F523" t="n">
         <v>0.427264</v>
@@ -15079,7 +15079,7 @@
         <v>1.429457939220319</v>
       </c>
       <c r="E524" t="n">
-        <v>0.03550017151848986</v>
+        <v>2.03401</v>
       </c>
       <c r="F524" t="n">
         <v>0.177214</v>
@@ -15107,7 +15107,7 @@
         <v>1.421467551511465</v>
       </c>
       <c r="E525" t="n">
-        <v>0.04232231449868529</v>
+        <v>2.42489</v>
       </c>
       <c r="F525" t="n">
         <v>0.207195</v>
@@ -15135,7 +15135,7 @@
         <v>1.411410641875709</v>
       </c>
       <c r="E526" t="n">
-        <v>0.0466009891599494</v>
+        <v>2.67004</v>
       </c>
       <c r="F526" t="n">
         <v>-0.00457868</v>
@@ -15163,7 +15163,7 @@
         <v>1.41617442428537</v>
       </c>
       <c r="E527" t="n">
-        <v>0.0499867533758932</v>
+        <v>2.86403</v>
       </c>
       <c r="F527" t="n">
         <v>-0.18475</v>
@@ -15191,7 +15191,7 @@
         <v>1.419890840874748</v>
       </c>
       <c r="E528" t="n">
-        <v>0.05357235779119034</v>
+        <v>3.06947</v>
       </c>
       <c r="F528" t="n">
         <v>-0.147564</v>
@@ -15219,7 +15219,7 @@
         <v>1.425440282860001</v>
       </c>
       <c r="E529" t="n">
-        <v>0.05918690746193091</v>
+        <v>3.39116</v>
       </c>
       <c r="F529" t="n">
         <v>0.0110658</v>
@@ -15247,7 +15247,7 @@
         <v>1.425559539268704</v>
       </c>
       <c r="E530" t="n">
-        <v>0.06951559144230815</v>
+        <v>3.98295</v>
       </c>
       <c r="F530" t="n">
         <v>-0.203964</v>
@@ -15275,7 +15275,7 @@
         <v>1.431408397348569</v>
       </c>
       <c r="E531" t="n">
-        <v>0.07763870284694015</v>
+        <v>4.44837</v>
       </c>
       <c r="F531" t="n">
         <v>-0.0967734</v>
@@ -15303,7 +15303,7 @@
         <v>1.416728626096049</v>
       </c>
       <c r="E532" t="n">
-        <v>0.08215474228647549</v>
+        <v>4.70712</v>
       </c>
       <c r="F532" t="n">
         <v>-0.319454</v>
@@ -15331,7 +15331,7 @@
         <v>1.400971091778842</v>
       </c>
       <c r="E533" t="n">
-        <v>0.08591994108180286</v>
+        <v>4.92285</v>
       </c>
       <c r="F533" t="n">
         <v>-0.0596594</v>
@@ -15359,7 +15359,7 @@
         <v>1.405322027152496</v>
       </c>
       <c r="E534" t="n">
-        <v>0.09109292245178885</v>
+        <v>5.21924</v>
       </c>
       <c r="F534" t="n">
         <v>-0.112832</v>
@@ -15387,7 +15387,7 @@
         <v>1.428432707550482</v>
       </c>
       <c r="E535" t="n">
-        <v>0.0963749869000245</v>
+        <v>5.52188</v>
       </c>
       <c r="F535" t="n">
         <v>-0.132639</v>
@@ -15415,7 +15415,7 @@
         <v>1.425468344089058</v>
       </c>
       <c r="E536" t="n">
-        <v>0.09930172952269377</v>
+        <v>5.68957</v>
       </c>
       <c r="F536" t="n">
         <v>-0.0767849</v>
@@ -15443,7 +15443,7 @@
         <v>1.394055235634514</v>
       </c>
       <c r="E537" t="n">
-        <v>0.1018841186839446</v>
+        <v>5.83753</v>
       </c>
       <c r="F537" t="n">
         <v>-0.103113</v>
@@ -15471,7 +15471,7 @@
         <v>1.444960207064541</v>
       </c>
       <c r="E538" t="n">
-        <v>0.001691690048092788</v>
+        <v>0.0969267</v>
       </c>
       <c r="F538" t="n">
         <v>0.059445</v>
@@ -15499,7 +15499,7 @@
         <v>1.447204201210043</v>
       </c>
       <c r="E539" t="n">
-        <v>0.004950190090968917</v>
+        <v>0.283625</v>
       </c>
       <c r="F539" t="n">
         <v>0.0985114</v>
@@ -15527,7 +15527,7 @@
         <v>1.479733084039145</v>
       </c>
       <c r="E540" t="n">
-        <v>0.008034745384603536</v>
+        <v>0.460357</v>
       </c>
       <c r="F540" t="n">
         <v>0.191503</v>
@@ -15555,7 +15555,7 @@
         <v>1.500559895505674</v>
       </c>
       <c r="E541" t="n">
-        <v>0.01101639606554057</v>
+        <v>0.631193</v>
       </c>
       <c r="F541" t="n">
         <v>0.23245</v>
@@ -15583,7 +15583,7 @@
         <v>1.42074628276832</v>
       </c>
       <c r="E542" t="n">
-        <v>0.0163009912411916</v>
+        <v>0.933978</v>
       </c>
       <c r="F542" t="n">
         <v>0.22749</v>
@@ -15611,7 +15611,7 @@
         <v>1.446118943932345</v>
       </c>
       <c r="E543" t="n">
-        <v>0.02111080450042261</v>
+        <v>1.20956</v>
       </c>
       <c r="F543" t="n">
         <v>0.123447</v>
@@ -15639,7 +15639,7 @@
         <v>1.446571809486138</v>
       </c>
       <c r="E544" t="n">
-        <v>0.02936080134167461</v>
+        <v>1.68225</v>
       </c>
       <c r="F544" t="n">
         <v>0.320186</v>
@@ -15667,7 +15667,7 @@
         <v>1.441669171481446</v>
       </c>
       <c r="E545" t="n">
-        <v>0.03457759047588566</v>
+        <v>1.98115</v>
       </c>
       <c r="F545" t="n">
         <v>0.0643789</v>
@@ -15695,7 +15695,7 @@
         <v>1.444195277654653</v>
       </c>
       <c r="E546" t="n">
-        <v>0.0385651442179171</v>
+        <v>2.20962</v>
       </c>
       <c r="F546" t="n">
         <v>0.109687</v>
@@ -15723,7 +15723,7 @@
         <v>1.449489565329809</v>
       </c>
       <c r="E547" t="n">
-        <v>0.04231062079269694</v>
+        <v>2.42422</v>
       </c>
       <c r="F547" t="n">
         <v>-0.279175</v>
@@ -15751,7 +15751,7 @@
         <v>1.451454442964022</v>
       </c>
       <c r="E548" t="n">
-        <v>0.04549671934221258</v>
+        <v>2.60677</v>
       </c>
       <c r="F548" t="n">
         <v>0.207381</v>
@@ -15779,7 +15779,7 @@
         <v>1.455479302497978</v>
       </c>
       <c r="E549" t="n">
-        <v>0.04891110695788909</v>
+        <v>2.8024</v>
       </c>
       <c r="F549" t="n">
         <v>0.00158126</v>
@@ -15807,7 +15807,7 @@
         <v>1.452067491544384</v>
       </c>
       <c r="E550" t="n">
-        <v>0.05206125172481366</v>
+        <v>2.98289</v>
       </c>
       <c r="F550" t="n">
         <v>0.0331428</v>
@@ -15835,7 +15835,7 @@
         <v>1.447912290161251</v>
       </c>
       <c r="E551" t="n">
-        <v>0.05530075734944033</v>
+        <v>3.1685</v>
       </c>
       <c r="F551" t="n">
         <v>-0.181048</v>
@@ -15863,7 +15863,7 @@
         <v>1.438513121247074</v>
       </c>
       <c r="E552" t="n">
-        <v>0.05872945666498319</v>
+        <v>3.36495</v>
       </c>
       <c r="F552" t="n">
         <v>-0.0623833</v>
@@ -15891,7 +15891,7 @@
         <v>1.446665130567541</v>
       </c>
       <c r="E553" t="n">
-        <v>0.06247161711418423</v>
+        <v>3.57936</v>
       </c>
       <c r="F553" t="n">
         <v>0.07839839999999999</v>
@@ -15919,7 +15919,7 @@
         <v>1.443776298461781</v>
       </c>
       <c r="E554" t="n">
-        <v>0.06849858808717105</v>
+        <v>3.92468</v>
       </c>
       <c r="F554" t="n">
         <v>0.0585793</v>
@@ -15947,7 +15947,7 @@
         <v>1.45663310411373</v>
       </c>
       <c r="E555" t="n">
-        <v>0.07667964442296928</v>
+        <v>4.39342</v>
       </c>
       <c r="F555" t="n">
         <v>-0.235465</v>
@@ -15975,7 +15975,7 @@
         <v>1.440905965009514</v>
       </c>
       <c r="E556" t="n">
-        <v>0.08170828706381533</v>
+        <v>4.68154</v>
       </c>
       <c r="F556" t="n">
         <v>-0.194625</v>
@@ -16003,7 +16003,7 @@
         <v>1.466294649789053</v>
       </c>
       <c r="E557" t="n">
-        <v>0.08502895049865976</v>
+        <v>4.8718</v>
       </c>
       <c r="F557" t="n">
         <v>-0.191281</v>
@@ -16031,7 +16031,7 @@
         <v>1.454764585766371</v>
       </c>
       <c r="E558" t="n">
-        <v>0.08831296201921228</v>
+        <v>5.05996</v>
       </c>
       <c r="F558" t="n">
         <v>-0.333938</v>
@@ -16059,7 +16059,7 @@
         <v>1.445313114864734</v>
       </c>
       <c r="E559" t="n">
-        <v>0.09153309448914182</v>
+        <v>5.24446</v>
       </c>
       <c r="F559" t="n">
         <v>-0.208042</v>
@@ -16087,7 +16087,7 @@
         <v>1.437744761771018</v>
       </c>
       <c r="E560" t="n">
-        <v>0.09492915614767239</v>
+        <v>5.43904</v>
       </c>
       <c r="F560" t="n">
         <v>-0.226149</v>
@@ -16115,7 +16115,7 @@
         <v>1.475855684001657</v>
       </c>
       <c r="E561" t="n">
-        <v>0.09830497198687982</v>
+        <v>5.63246</v>
       </c>
       <c r="F561" t="n">
         <v>-0.194264</v>
@@ -16143,7 +16143,7 @@
         <v>1.473736747183838</v>
       </c>
       <c r="E562" t="n">
-        <v>0.1016542588214569</v>
+        <v>5.82436</v>
       </c>
       <c r="F562" t="n">
         <v>-0.185429</v>
@@ -16171,7 +16171,7 @@
         <v>1.446751533609002</v>
       </c>
       <c r="E563" t="n">
-        <v>0.1045426042005823</v>
+        <v>5.98985</v>
       </c>
       <c r="F563" t="n">
         <v>-0.14927</v>
@@ -16199,7 +16199,7 @@
         <v>1.447269843532988</v>
       </c>
       <c r="E564" t="n">
-        <v>0.1079686855222472</v>
+        <v>6.18615</v>
       </c>
       <c r="F564" t="n">
         <v>-0.0479698</v>
@@ -16227,7 +16227,7 @@
         <v>1.454778333630248</v>
       </c>
       <c r="E565" t="n">
-        <v>0.001417619250322866</v>
+        <v>0.08122360000000001</v>
       </c>
       <c r="F565" t="n">
         <v>-0.0605118</v>
@@ -16255,7 +16255,7 @@
         <v>1.468070161811076</v>
       </c>
       <c r="E566" t="n">
-        <v>0.007649359232470667</v>
+        <v>0.438276</v>
       </c>
       <c r="F566" t="n">
         <v>0.283842</v>
@@ -16283,7 +16283,7 @@
         <v>1.433042218498813</v>
       </c>
       <c r="E567" t="n">
-        <v>0.0199133341006293</v>
+        <v>1.14095</v>
       </c>
       <c r="F567" t="n">
         <v>-0.153186</v>
@@ -16311,7 +16311,7 @@
         <v>1.45845466161962</v>
       </c>
       <c r="E568" t="n">
-        <v>0.03183532915515217</v>
+        <v>1.82403</v>
       </c>
       <c r="F568" t="n">
         <v>0.0196028</v>
@@ -16339,7 +16339,7 @@
         <v>1.461978112011257</v>
       </c>
       <c r="E569" t="n">
-        <v>0.03993749660876025</v>
+        <v>2.28825</v>
       </c>
       <c r="F569" t="n">
         <v>0.208456</v>
@@ -16367,7 +16367,7 @@
         <v>1.469312764526328</v>
       </c>
       <c r="E570" t="n">
-        <v>0.04805257949883308</v>
+        <v>2.75321</v>
       </c>
       <c r="F570" t="n">
         <v>0.124085</v>
@@ -16395,7 +16395,7 @@
         <v>1.477843022786926</v>
       </c>
       <c r="E571" t="n">
-        <v>0.05827514746068907</v>
+        <v>3.33892</v>
       </c>
       <c r="F571" t="n">
         <v>-0.06809320000000001</v>
@@ -16423,7 +16423,7 @@
         <v>1.439920136674253</v>
       </c>
       <c r="E572" t="n">
-        <v>0.06946986381590589</v>
+        <v>3.98033</v>
       </c>
       <c r="F572" t="n">
         <v>0.0129501</v>
@@ -16451,7 +16451,7 @@
         <v>1.453860378440791</v>
       </c>
       <c r="E573" t="n">
-        <v>0.07912136004650934</v>
+        <v>4.53332</v>
       </c>
       <c r="F573" t="n">
         <v>-0.042007</v>
@@ -16479,7 +16479,7 @@
         <v>1.443125081203982</v>
       </c>
       <c r="E574" t="n">
-        <v>0.09165422033923022</v>
+        <v>5.2514</v>
       </c>
       <c r="F574" t="n">
         <v>-0.0964805</v>
@@ -16507,7 +16507,7 @@
         <v>1.455163221085525</v>
       </c>
       <c r="E575" t="n">
-        <v>0.1010034255433882</v>
+        <v>5.78707</v>
       </c>
       <c r="F575" t="n">
         <v>0.153155</v>
@@ -16535,7 +16535,7 @@
         <v>1.454022008086535</v>
       </c>
       <c r="E576" t="n">
-        <v>0.1084118246193286</v>
+        <v>6.21154</v>
       </c>
       <c r="F576" t="n">
         <v>-0.045866</v>
@@ -16563,7 +16563,7 @@
         <v>1.410053190486089</v>
       </c>
       <c r="E577" t="n">
-        <v>0.001477974481186082</v>
+        <v>0.0846817</v>
       </c>
       <c r="F577" t="n">
         <v>-0.0221817</v>
@@ -16591,7 +16591,7 @@
         <v>1.409290601685827</v>
       </c>
       <c r="E578" t="n">
-        <v>0.005154096907479415</v>
+        <v>0.295308</v>
       </c>
       <c r="F578" t="n">
         <v>-0.0728331</v>
@@ -16619,7 +16619,7 @@
         <v>1.421376093790802</v>
       </c>
       <c r="E579" t="n">
-        <v>0.008091241692490592</v>
+        <v>0.463594</v>
       </c>
       <c r="F579" t="n">
         <v>0.209309</v>
@@ -16647,7 +16647,7 @@
         <v>1.427697446940352</v>
       </c>
       <c r="E580" t="n">
-        <v>0.01200088393671301</v>
+        <v>0.6876</v>
       </c>
       <c r="F580" t="n">
         <v>0.102643</v>
@@ -16675,7 +16675,7 @@
         <v>1.421886071385468</v>
       </c>
       <c r="E581" t="n">
-        <v>0.02244964656962746</v>
+        <v>1.28627</v>
       </c>
       <c r="F581" t="n">
         <v>0.178857</v>
@@ -16703,7 +16703,7 @@
         <v>1.409655986402356</v>
       </c>
       <c r="E582" t="n">
-        <v>0.04643570647978553</v>
+        <v>2.66057</v>
       </c>
       <c r="F582" t="n">
         <v>-0.100104</v>
@@ -16731,7 +16731,7 @@
         <v>1.431467778191322</v>
       </c>
       <c r="E583" t="n">
-        <v>0.07976329214539285</v>
+        <v>4.5701</v>
       </c>
       <c r="F583" t="n">
         <v>0.437292</v>
@@ -16759,7 +16759,7 @@
         <v>1.421597692738702</v>
       </c>
       <c r="E584" t="n">
-        <v>0.08872416159098215</v>
+        <v>5.08352</v>
       </c>
       <c r="F584" t="n">
         <v>-0.349416</v>
@@ -16787,7 +16787,7 @@
         <v>1.441242519494897</v>
       </c>
       <c r="E585" t="n">
-        <v>0.09951675408653947</v>
+        <v>5.70189</v>
       </c>
       <c r="F585" t="n">
         <v>-0.08479490000000001</v>
@@ -16815,7 +16815,7 @@
         <v>1.418686011772866</v>
       </c>
       <c r="E586" t="n">
-        <v>0.1023415694808923</v>
+        <v>5.86374</v>
       </c>
       <c r="F586" t="n">
         <v>-0.126924</v>
@@ -16843,7 +16843,7 @@
         <v>1.416562741286103</v>
       </c>
       <c r="E587" t="n">
-        <v>0.1064806178019968</v>
+        <v>6.10089</v>
       </c>
       <c r="F587" t="n">
         <v>-0.0495358</v>
@@ -16871,7 +16871,7 @@
         <v>1.444458376001192</v>
       </c>
       <c r="E588" t="n">
-        <v>0.001857606282775125</v>
+        <v>0.106433</v>
       </c>
       <c r="F588" t="n">
         <v>-0.124612</v>
@@ -16899,7 +16899,7 @@
         <v>1.448865073083067</v>
       </c>
       <c r="E589" t="n">
-        <v>0.005015221058898226</v>
+        <v>0.287351</v>
       </c>
       <c r="F589" t="n">
         <v>-0.00173656</v>
@@ -16927,7 +16927,7 @@
         <v>1.475459250538625</v>
       </c>
       <c r="E590" t="n">
-        <v>0.007748162321426067</v>
+        <v>0.443937</v>
       </c>
       <c r="F590" t="n">
         <v>0.139566</v>
@@ -16955,7 +16955,7 @@
         <v>1.440867794074113</v>
       </c>
       <c r="E591" t="n">
-        <v>0.01303366506828814</v>
+        <v>0.746774</v>
       </c>
       <c r="F591" t="n">
         <v>0.0395782</v>
@@ -16983,7 +16983,7 @@
         <v>1.447991712683467</v>
       </c>
       <c r="E592" t="n">
-        <v>0.01763271236704831</v>
+        <v>1.01028</v>
       </c>
       <c r="F592" t="n">
         <v>0.227816</v>
@@ -17011,7 +17011,7 @@
         <v>1.436948154945056</v>
       </c>
       <c r="E593" t="n">
-        <v>0.02358917203825456</v>
+        <v>1.35156</v>
       </c>
       <c r="F593" t="n">
         <v>0.041555</v>
@@ -17039,7 +17039,7 @@
         <v>1.438200264219139</v>
       </c>
       <c r="E594" t="n">
-        <v>0.04639538937406446</v>
+        <v>2.65826</v>
       </c>
       <c r="F594" t="n">
         <v>0.267255</v>
@@ -17067,7 +17067,7 @@
         <v>1.440076386862864</v>
       </c>
       <c r="E595" t="n">
-        <v>0.0524464458907288</v>
+        <v>3.00496</v>
       </c>
       <c r="F595" t="n">
         <v>0.0428675</v>
@@ -17095,7 +17095,7 @@
         <v>1.451395879834306</v>
       </c>
       <c r="E596" t="n">
-        <v>0.06130643530555282</v>
+        <v>3.5126</v>
       </c>
       <c r="F596" t="n">
         <v>-0.0383115</v>
@@ -17123,7 +17123,7 @@
         <v>1.44082615190036</v>
       </c>
       <c r="E597" t="n">
-        <v>0.07345986101889014</v>
+        <v>4.20894</v>
       </c>
       <c r="F597" t="n">
         <v>-0.15886</v>
@@ -17151,7 +17151,7 @@
         <v>1.446381692362013</v>
       </c>
       <c r="E598" t="n">
-        <v>0.08285461931652521</v>
+        <v>4.74722</v>
       </c>
       <c r="F598" t="n">
         <v>-0.185727</v>
@@ -17179,7 +17179,7 @@
         <v>1.449482666333061</v>
       </c>
       <c r="E599" t="n">
-        <v>0.08817804806803312</v>
+        <v>5.05223</v>
       </c>
       <c r="F599" t="n">
         <v>-0.216975</v>
@@ -17207,7 +17207,7 @@
         <v>1.456677726884022</v>
       </c>
       <c r="E600" t="n">
-        <v>0.09353376541070292</v>
+        <v>5.35909</v>
       </c>
       <c r="F600" t="n">
         <v>-0.0531877</v>
@@ -17235,7 +17235,7 @@
         <v>1.47087388990355</v>
       </c>
       <c r="E601" t="n">
-        <v>0.1000427963230906</v>
+        <v>5.73203</v>
       </c>
       <c r="F601" t="n">
         <v>-0.18064</v>
@@ -17263,7 +17263,7 @@
         <v>1.458728898733414</v>
       </c>
       <c r="E602" t="n">
-        <v>0.1036743028977152</v>
+        <v>5.9401</v>
       </c>
       <c r="F602" t="n">
         <v>-0.0779646</v>
@@ -17291,7 +17291,7 @@
         <v>1.446205379605539</v>
       </c>
       <c r="E603" t="n">
-        <v>0.1069188699771726</v>
+        <v>6.126</v>
       </c>
       <c r="F603" t="n">
         <v>0.0452827</v>
@@ -17319,7 +17319,7 @@
         <v>1.460318458419259</v>
       </c>
       <c r="E604" t="n">
-        <v>0.00530939630432187</v>
+        <v>0.304206</v>
       </c>
       <c r="F604" t="n">
         <v>0.108246</v>
@@ -17347,7 +17347,7 @@
         <v>1.455637317466133</v>
       </c>
       <c r="E605" t="n">
-        <v>0.01481505282262867</v>
+        <v>0.84884</v>
       </c>
       <c r="F605" t="n">
         <v>0.424005</v>
@@ -17375,7 +17375,7 @@
         <v>1.482811518703574</v>
       </c>
       <c r="E606" t="n">
-        <v>0.03802217228762167</v>
+        <v>2.17851</v>
       </c>
       <c r="F606" t="n">
         <v>-0.178966</v>
@@ -17403,7 +17403,7 @@
         <v>1.462169620803277</v>
       </c>
       <c r="E607" t="n">
-        <v>0.04795990251555218</v>
+        <v>2.7479</v>
       </c>
       <c r="F607" t="n">
         <v>0.168611</v>
@@ -17431,7 +17431,7 @@
         <v>1.466894679245923</v>
       </c>
       <c r="E608" t="n">
-        <v>0.0724857927633521</v>
+        <v>4.15313</v>
       </c>
       <c r="F608" t="n">
         <v>0.31287</v>
@@ -17459,7 +17459,7 @@
         <v>1.473248112165768</v>
       </c>
       <c r="E609" t="n">
-        <v>0.08064834860907917</v>
+        <v>4.62081</v>
       </c>
       <c r="F609" t="n">
         <v>-0.322592</v>
@@ -17487,7 +17487,7 @@
         <v>1.468900949689937</v>
       </c>
       <c r="E610" t="n">
-        <v>0.09404165622303326</v>
+        <v>5.38819</v>
       </c>
       <c r="F610" t="n">
         <v>-0.291079</v>
@@ -17515,7 +17515,7 @@
         <v>1.459705449739775</v>
       </c>
       <c r="E611" t="n">
-        <v>0.1045279434348656</v>
+        <v>5.98901</v>
       </c>
       <c r="F611" t="n">
         <v>-0.073852</v>
@@ -17543,7 +17543,7 @@
         <v>1.654472725674256</v>
       </c>
       <c r="E612" t="n">
-        <v>0.001624154532686867</v>
+        <v>0.09305720000000001</v>
       </c>
       <c r="F612" t="n">
         <v>0.00642873</v>
@@ -17571,7 +17571,7 @@
         <v>1.653106167189512</v>
       </c>
       <c r="E613" t="n">
-        <v>0.004947449924043286</v>
+        <v>0.283468</v>
       </c>
       <c r="F613" t="n">
         <v>0.146139</v>
@@ -17599,7 +17599,7 @@
         <v>1.64519603695122</v>
       </c>
       <c r="E614" t="n">
-        <v>0.008113267747650761</v>
+        <v>0.464856</v>
       </c>
       <c r="F614" t="n">
         <v>0.0164214</v>
@@ -17627,7 +17627,7 @@
         <v>1.6383955566346</v>
       </c>
       <c r="E615" t="n">
-        <v>0.01125133483615152</v>
+        <v>0.6446539999999999</v>
       </c>
       <c r="F615" t="n">
         <v>0.103438</v>
@@ -17655,7 +17655,7 @@
         <v>1.618934835007265</v>
       </c>
       <c r="E616" t="n">
-        <v>0.01444469395535547</v>
+        <v>0.82762</v>
       </c>
       <c r="F616" t="n">
         <v>0.169256</v>
@@ -17683,7 +17683,7 @@
         <v>1.600599887542168</v>
       </c>
       <c r="E617" t="n">
-        <v>0.02059732863448588</v>
+        <v>1.18014</v>
       </c>
       <c r="F617" t="n">
         <v>0.313265</v>
@@ -17711,7 +17711,7 @@
         <v>1.620987353436171</v>
       </c>
       <c r="E618" t="n">
-        <v>0.02629460691177097</v>
+        <v>1.50657</v>
       </c>
       <c r="F618" t="n">
         <v>0.372816</v>
@@ -17739,7 +17739,7 @@
         <v>1.634714042271614</v>
       </c>
       <c r="E619" t="n">
-        <v>0.03061866013358693</v>
+        <v>1.75432</v>
       </c>
       <c r="F619" t="n">
         <v>-0.07407900000000001</v>
@@ -17767,7 +17767,7 @@
         <v>1.638743421039426</v>
       </c>
       <c r="E620" t="n">
-        <v>0.03581171278997085</v>
+        <v>2.05186</v>
       </c>
       <c r="F620" t="n">
         <v>0.398464</v>
@@ -17795,7 +17795,7 @@
         <v>1.631502375113196</v>
       </c>
       <c r="E621" t="n">
-        <v>0.03999474340822565</v>
+        <v>2.29153</v>
       </c>
       <c r="F621" t="n">
         <v>0.0549948</v>
@@ -17823,7 +17823,7 @@
         <v>1.634187871696519</v>
       </c>
       <c r="E622" t="n">
-        <v>0.04327404253979781</v>
+        <v>2.47942</v>
       </c>
       <c r="F622" t="n">
         <v>0.0379981</v>
@@ -17851,7 +17851,7 @@
         <v>1.626148824677496</v>
       </c>
       <c r="E623" t="n">
-        <v>0.04723908153447852</v>
+        <v>2.7066</v>
       </c>
       <c r="F623" t="n">
         <v>0.0246008</v>
@@ -17879,7 +17879,7 @@
         <v>1.630785087005642</v>
       </c>
       <c r="E624" t="n">
-        <v>0.05196770207690676</v>
+        <v>2.97753</v>
       </c>
       <c r="F624" t="n">
         <v>0.252805</v>
@@ -17907,7 +17907,7 @@
         <v>1.63767212835781</v>
       </c>
       <c r="E625" t="n">
-        <v>0.0584784783185464</v>
+        <v>3.35057</v>
       </c>
       <c r="F625" t="n">
         <v>0.0709555</v>
@@ -17935,7 +17935,7 @@
         <v>1.629211465709716</v>
       </c>
       <c r="E626" t="n">
-        <v>0.06711977797809554</v>
+        <v>3.84568</v>
       </c>
       <c r="F626" t="n">
         <v>-0.137818</v>
@@ -17963,7 +17963,7 @@
         <v>1.614468952937776</v>
       </c>
       <c r="E627" t="n">
-        <v>0.09345574919313876</v>
+        <v>5.35462</v>
       </c>
       <c r="F627" t="n">
         <v>0.0133442</v>
@@ -17991,7 +17991,7 @@
         <v>1.633753347356938</v>
       </c>
       <c r="E628" t="n">
-        <v>0.09722042438969053</v>
+        <v>5.57032</v>
       </c>
       <c r="F628" t="n">
         <v>-0.198793</v>
@@ -18019,7 +18019,7 @@
         <v>1.641404886065592</v>
       </c>
       <c r="E629" t="n">
-        <v>0.1004140278549898</v>
+        <v>5.7533</v>
       </c>
       <c r="F629" t="n">
         <v>-0.09031450000000001</v>
@@ -18047,7 +18047,7 @@
         <v>1.652204587815928</v>
       </c>
       <c r="E630" t="n">
-        <v>0.1036228156847813</v>
+        <v>5.93715</v>
       </c>
       <c r="F630" t="n">
         <v>-0.06300409999999999</v>
@@ -18075,7 +18075,7 @@
         <v>1.654696346765774</v>
       </c>
       <c r="E631" t="n">
-        <v>0.107475804541484</v>
+        <v>6.15791</v>
       </c>
       <c r="F631" t="n">
         <v>-0.0186581</v>
@@ -18103,7 +18103,7 @@
         <v>1.6657160622387</v>
       </c>
       <c r="E632" t="n">
-        <v>0.001662476727072907</v>
+        <v>0.0952529</v>
       </c>
       <c r="F632" t="n">
         <v>0.0808242</v>
@@ -18131,7 +18131,7 @@
         <v>1.660319246410159</v>
       </c>
       <c r="E633" t="n">
-        <v>0.004977609213517748</v>
+        <v>0.285196</v>
       </c>
       <c r="F633" t="n">
         <v>0.0498451</v>
@@ -18159,7 +18159,7 @@
         <v>1.659921684899622</v>
       </c>
       <c r="E634" t="n">
-        <v>0.008179136473621026</v>
+        <v>0.46863</v>
       </c>
       <c r="F634" t="n">
         <v>0.245789</v>
@@ -18187,7 +18187,7 @@
         <v>1.6618152725258</v>
       </c>
       <c r="E635" t="n">
-        <v>0.01145733604776442</v>
+        <v>0.656457</v>
       </c>
       <c r="F635" t="n">
         <v>0.174913</v>
@@ -18215,7 +18215,7 @@
         <v>1.659873489155122</v>
       </c>
       <c r="E636" t="n">
-        <v>0.01469970401236436</v>
+        <v>0.842231</v>
       </c>
       <c r="F636" t="n">
         <v>0.24937</v>
@@ -18243,7 +18243,7 @@
         <v>1.668427403275312</v>
       </c>
       <c r="E637" t="n">
-        <v>0.01809243209202362</v>
+        <v>1.03662</v>
       </c>
       <c r="F637" t="n">
         <v>0.292916</v>
@@ -18271,7 +18271,7 @@
         <v>1.679139660659589</v>
       </c>
       <c r="E638" t="n">
-        <v>0.021362306445635</v>
+        <v>1.22397</v>
       </c>
       <c r="F638" t="n">
         <v>0.452921</v>
@@ -18299,7 +18299,7 @@
         <v>1.677864714451079</v>
       </c>
       <c r="E639" t="n">
-        <v>0.02462572308101399</v>
+        <v>1.41095</v>
       </c>
       <c r="F639" t="n">
         <v>0.456999</v>
@@ -18327,7 +18327,7 @@
         <v>1.687358882988441</v>
       </c>
       <c r="E640" t="n">
-        <v>0.02793434374401964</v>
+        <v>1.60052</v>
       </c>
       <c r="F640" t="n">
         <v>0.415593</v>
@@ -18355,7 +18355,7 @@
         <v>1.691794904827414</v>
       </c>
       <c r="E641" t="n">
-        <v>0.03196169099299656</v>
+        <v>1.83127</v>
       </c>
       <c r="F641" t="n">
         <v>0.347293</v>
@@ -18383,7 +18383,7 @@
         <v>1.690990833801295</v>
       </c>
       <c r="E642" t="n">
-        <v>0.03913255075774046</v>
+        <v>2.24213</v>
       </c>
       <c r="F642" t="n">
         <v>0.111778</v>
@@ -18411,7 +18411,7 @@
         <v>1.676454592286949</v>
       </c>
       <c r="E643" t="n">
-        <v>0.04910152237928167</v>
+        <v>2.81331</v>
       </c>
       <c r="F643" t="n">
         <v>0.0277534</v>
@@ -18439,7 +18439,7 @@
         <v>1.691862878604528</v>
       </c>
       <c r="E644" t="n">
-        <v>0.06037757107764143</v>
+        <v>3.45938</v>
       </c>
       <c r="F644" t="n">
         <v>-0.0252911</v>
@@ -18467,7 +18467,7 @@
         <v>1.670957809162158</v>
       </c>
       <c r="E645" t="n">
-        <v>0.07115061588557643</v>
+        <v>4.07663</v>
       </c>
       <c r="F645" t="n">
         <v>-0.102826</v>
@@ -18495,7 +18495,7 @@
         <v>1.6643647436785</v>
       </c>
       <c r="E646" t="n">
-        <v>0.08236191286868721</v>
+        <v>4.71899</v>
       </c>
       <c r="F646" t="n">
         <v>-0.428299</v>
@@ -18523,7 +18523,7 @@
         <v>1.669332201810053</v>
       </c>
       <c r="E647" t="n">
-        <v>0.08963417626297197</v>
+        <v>5.13566</v>
       </c>
       <c r="F647" t="n">
         <v>-0.24965</v>
@@ -18551,7 +18551,7 @@
         <v>1.666631332958792</v>
       </c>
       <c r="E648" t="n">
-        <v>0.09463594083333735</v>
+        <v>5.42224</v>
       </c>
       <c r="F648" t="n">
         <v>-0.429358</v>
@@ -18579,7 +18579,7 @@
         <v>1.66361654235584</v>
       </c>
       <c r="E649" t="n">
-        <v>0.09821142233897293</v>
+        <v>5.6271</v>
       </c>
       <c r="F649" t="n">
         <v>-0.25328</v>
@@ -18607,7 +18607,7 @@
         <v>1.671427533577211</v>
       </c>
       <c r="E650" t="n">
-        <v>0.1015758935380424</v>
+        <v>5.81987</v>
       </c>
       <c r="F650" t="n">
         <v>-0.154128</v>
@@ -18635,7 +18635,7 @@
         <v>1.666034213334168</v>
       </c>
       <c r="E651" t="n">
-        <v>0.1047633883509596</v>
+        <v>6.0025</v>
       </c>
       <c r="F651" t="n">
         <v>-0.168025</v>
@@ -18663,7 +18663,7 @@
         <v>1.668631175544794</v>
       </c>
       <c r="E652" t="n">
-        <v>0.108028899381441</v>
+        <v>6.1896</v>
       </c>
       <c r="F652" t="n">
         <v>-0.124973</v>
@@ -18691,7 +18691,7 @@
         <v>1.677176198257059</v>
       </c>
       <c r="E653" t="n">
-        <v>0.001669698899517659</v>
+        <v>0.09566669999999999</v>
       </c>
       <c r="F653" t="n">
         <v>-0.0361733</v>
@@ -18719,7 +18719,7 @@
         <v>1.674941790033313</v>
       </c>
       <c r="E654" t="n">
-        <v>0.004963751299256913</v>
+        <v>0.284402</v>
       </c>
       <c r="F654" t="n">
         <v>0.261019</v>
@@ -18747,7 +18747,7 @@
         <v>1.693366469492059</v>
       </c>
       <c r="E655" t="n">
-        <v>0.008915787591010273</v>
+        <v>0.510837</v>
       </c>
       <c r="F655" t="n">
         <v>0.397282</v>
@@ -18775,7 +18775,7 @@
         <v>1.670951824559882</v>
       </c>
       <c r="E656" t="n">
-        <v>0.01337112447916124</v>
+        <v>0.766109</v>
       </c>
       <c r="F656" t="n">
         <v>0.386272</v>
@@ -18803,7 +18803,7 @@
         <v>1.680848000266532</v>
       </c>
       <c r="E657" t="n">
-        <v>0.01989657893981016</v>
+        <v>1.13999</v>
       </c>
       <c r="F657" t="n">
         <v>0.218277</v>
@@ -18831,7 +18831,7 @@
         <v>1.681201950986258</v>
       </c>
       <c r="E658" t="n">
-        <v>0.02949187556849938</v>
+        <v>1.68976</v>
       </c>
       <c r="F658" t="n">
         <v>0.224581</v>
@@ -18859,7 +18859,7 @@
         <v>1.706821607550127</v>
       </c>
       <c r="E659" t="n">
-        <v>0.07292299774097669</v>
+        <v>4.17818</v>
       </c>
       <c r="F659" t="n">
         <v>-0.302817</v>
@@ -18887,7 +18887,7 @@
         <v>1.66951190471946</v>
       </c>
       <c r="E660" t="n">
-        <v>0.08432715360643284</v>
+        <v>4.83159</v>
       </c>
       <c r="F660" t="n">
         <v>0.10111</v>
@@ -18915,7 +18915,7 @@
         <v>1.677712728687483</v>
       </c>
       <c r="E661" t="n">
-        <v>0.09482687985350552</v>
+        <v>5.43318</v>
       </c>
       <c r="F661" t="n">
         <v>0.0860263</v>
@@ -18943,7 +18943,7 @@
         <v>1.681555827202891</v>
       </c>
       <c r="E662" t="n">
-        <v>0.1008735730470399</v>
+        <v>5.77963</v>
       </c>
       <c r="F662" t="n">
         <v>-0.308334</v>
@@ -18971,7 +18971,7 @@
         <v>1.675076117673463</v>
       </c>
       <c r="E663" t="n">
-        <v>0.1047485530523177</v>
+        <v>6.00165</v>
       </c>
       <c r="F663" t="n">
         <v>-0.250907</v>
@@ -18999,7 +18999,7 @@
         <v>1.685983392563521</v>
       </c>
       <c r="E664" t="n">
-        <v>0.1080880660430836</v>
+        <v>6.19299</v>
       </c>
       <c r="F664" t="n">
         <v>-0.0129932</v>
@@ -19027,7 +19027,7 @@
         <v>1.639405380008252</v>
       </c>
       <c r="E665" t="n">
-        <v>0.001651561437930934</v>
+        <v>0.0946275</v>
       </c>
       <c r="F665" t="n">
         <v>0.0583874</v>
@@ -19055,7 +19055,7 @@
         <v>1.650742257289126</v>
       </c>
       <c r="E666" t="n">
-        <v>0.005008553901155607</v>
+        <v>0.286969</v>
       </c>
       <c r="F666" t="n">
         <v>0.0440803</v>
@@ -19083,7 +19083,7 @@
         <v>1.65623971694921</v>
       </c>
       <c r="E667" t="n">
-        <v>0.008277607950018548</v>
+        <v>0.474272</v>
       </c>
       <c r="F667" t="n">
         <v>0.13747</v>
@@ -19111,7 +19111,7 @@
         <v>1.64883898546826</v>
       </c>
       <c r="E668" t="n">
-        <v>0.01126393611335092</v>
+        <v>0.6453759999999999</v>
       </c>
       <c r="F668" t="n">
         <v>0.141181</v>
@@ -19139,7 +19139,7 @@
         <v>1.632939068061022</v>
       </c>
       <c r="E669" t="n">
-        <v>0.01434608285261779</v>
+        <v>0.82197</v>
       </c>
       <c r="F669" t="n">
         <v>0.169704</v>
@@ -19167,7 +19167,7 @@
         <v>1.625207679036744</v>
       </c>
       <c r="E670" t="n">
-        <v>0.02329735298732111</v>
+        <v>1.33484</v>
       </c>
       <c r="F670" t="n">
         <v>0.147465</v>
@@ -19195,7 +19195,7 @@
         <v>1.641118521009375</v>
       </c>
       <c r="E671" t="n">
-        <v>0.02961143062226099</v>
+        <v>1.69661</v>
       </c>
       <c r="F671" t="n">
         <v>0.144965</v>
@@ -19223,7 +19223,7 @@
         <v>1.63198958330009</v>
       </c>
       <c r="E672" t="n">
-        <v>0.03409186534505564</v>
+        <v>1.95332</v>
       </c>
       <c r="F672" t="n">
         <v>0.161405</v>
@@ -19251,7 +19251,7 @@
         <v>1.638895969852876</v>
       </c>
       <c r="E673" t="n">
-        <v>0.03854210587179078</v>
+        <v>2.2083</v>
       </c>
       <c r="F673" t="n">
         <v>0.261222</v>
@@ -19279,7 +19279,7 @@
         <v>1.636679565461731</v>
       </c>
       <c r="E674" t="n">
-        <v>0.04219193840356132</v>
+        <v>2.41742</v>
       </c>
       <c r="F674" t="n">
         <v>0.06379890000000001</v>
@@ -19307,7 +19307,7 @@
         <v>1.637333197611286</v>
       </c>
       <c r="E675" t="n">
-        <v>0.0455850330023635</v>
+        <v>2.61183</v>
       </c>
       <c r="F675" t="n">
         <v>-0.0629752</v>
@@ -19335,7 +19335,7 @@
         <v>1.640219497506355</v>
       </c>
       <c r="E676" t="n">
-        <v>0.04875175839718201</v>
+        <v>2.79327</v>
       </c>
       <c r="F676" t="n">
         <v>0.06281490000000001</v>
@@ -19363,7 +19363,7 @@
         <v>1.632681842858553</v>
       </c>
       <c r="E677" t="n">
-        <v>0.05187013817172028</v>
+        <v>2.97194</v>
       </c>
       <c r="F677" t="n">
         <v>0.00280114</v>
@@ -19391,7 +19391,7 @@
         <v>1.642333705432608</v>
       </c>
       <c r="E678" t="n">
-        <v>0.05590376860600438</v>
+        <v>3.20305</v>
       </c>
       <c r="F678" t="n">
         <v>-0.026756</v>
@@ -19419,7 +19419,7 @@
         <v>1.619629587282228</v>
       </c>
       <c r="E679" t="n">
-        <v>0.06100152628522941</v>
+        <v>3.49513</v>
       </c>
       <c r="F679" t="n">
         <v>-0.109882</v>
@@ -19447,7 +19447,7 @@
         <v>1.633814554960262</v>
       </c>
       <c r="E680" t="n">
-        <v>0.06717562851415936</v>
+        <v>3.84888</v>
       </c>
       <c r="F680" t="n">
         <v>-0.212612</v>
@@ -19475,7 +19475,7 @@
         <v>1.633107467376229</v>
       </c>
       <c r="E681" t="n">
-        <v>0.07619566462139124</v>
+        <v>4.36569</v>
       </c>
       <c r="F681" t="n">
         <v>-0.0928852</v>
@@ -19503,7 +19503,7 @@
         <v>1.627872845157139</v>
       </c>
       <c r="E682" t="n">
-        <v>0.08349759861295993</v>
+        <v>4.78406</v>
       </c>
       <c r="F682" t="n">
         <v>-0.356052</v>
@@ -19531,7 +19531,7 @@
         <v>1.625244596976098</v>
       </c>
       <c r="E683" t="n">
-        <v>0.09374652104652102</v>
+        <v>5.37128</v>
       </c>
       <c r="F683" t="n">
         <v>-0.227424</v>
@@ -19559,7 +19559,7 @@
         <v>1.644396545848963</v>
       </c>
       <c r="E684" t="n">
-        <v>0.09735324394576732</v>
+        <v>5.57793</v>
       </c>
       <c r="F684" t="n">
         <v>-0.19299</v>
@@ -19587,7 +19587,7 @@
         <v>1.655892508588646</v>
       </c>
       <c r="E685" t="n">
-        <v>0.1003454364153864</v>
+        <v>5.74937</v>
       </c>
       <c r="F685" t="n">
         <v>-0.124836</v>
@@ -19615,7 +19615,7 @@
         <v>1.652743174240934</v>
       </c>
       <c r="E686" t="n">
-        <v>0.1035400870782368</v>
+        <v>5.93241</v>
       </c>
       <c r="F686" t="n">
         <v>-0.0489565</v>
@@ -19643,7 +19643,7 @@
         <v>1.639698142951928</v>
       </c>
       <c r="E687" t="n">
-        <v>0.1073229136990093</v>
+        <v>6.14915</v>
       </c>
       <c r="F687" t="n">
         <v>0.032278</v>
@@ -19671,7 +19671,7 @@
         <v>1.715939975640174</v>
       </c>
       <c r="E688" t="n">
-        <v>0.001606106082891994</v>
+        <v>0.0920231</v>
       </c>
       <c r="F688" t="n">
         <v>0.115349</v>
@@ -19699,7 +19699,7 @@
         <v>1.709988304053569</v>
       </c>
       <c r="E689" t="n">
-        <v>0.004910815463043925</v>
+        <v>0.281369</v>
       </c>
       <c r="F689" t="n">
         <v>0.0736026</v>
@@ -19727,7 +19727,7 @@
         <v>1.688845759683222</v>
       </c>
       <c r="E690" t="n">
-        <v>0.008116287167256712</v>
+        <v>0.465029</v>
       </c>
       <c r="F690" t="n">
         <v>0.30672</v>
@@ -19755,7 +19755,7 @@
         <v>1.676755796173074</v>
       </c>
       <c r="E691" t="n">
-        <v>0.01144536308909573</v>
+        <v>0.655771</v>
       </c>
       <c r="F691" t="n">
         <v>0.226392</v>
@@ -19783,7 +19783,7 @@
         <v>1.669871252522182</v>
       </c>
       <c r="E692" t="n">
-        <v>0.01475042328042732</v>
+        <v>0.845137</v>
       </c>
       <c r="F692" t="n">
         <v>0.250551</v>
@@ -19811,7 +19811,7 @@
         <v>1.669155475083133</v>
       </c>
       <c r="E693" t="n">
-        <v>0.01876420932111624</v>
+        <v>1.07511</v>
       </c>
       <c r="F693" t="n">
         <v>0.406645</v>
@@ -19839,7 +19839,7 @@
         <v>1.685289292673516</v>
       </c>
       <c r="E694" t="n">
-        <v>0.02252521932623882</v>
+        <v>1.2906</v>
       </c>
       <c r="F694" t="n">
         <v>0.340779</v>
@@ -19867,7 +19867,7 @@
         <v>1.674917908436112</v>
       </c>
       <c r="E695" t="n">
-        <v>0.02558547963668567</v>
+        <v>1.46594</v>
       </c>
       <c r="F695" t="n">
         <v>0.245541</v>
@@ -19895,7 +19895,7 @@
         <v>1.678126932028683</v>
       </c>
       <c r="E696" t="n">
-        <v>0.0290234291972641</v>
+        <v>1.66292</v>
       </c>
       <c r="F696" t="n">
         <v>0.236361</v>
@@ -19923,7 +19923,7 @@
         <v>1.686134632821472</v>
       </c>
       <c r="E697" t="n">
-        <v>0.03236992350503803</v>
+        <v>1.85466</v>
       </c>
       <c r="F697" t="n">
         <v>0.370924</v>
@@ -19951,7 +19951,7 @@
         <v>1.674885070683956</v>
       </c>
       <c r="E698" t="n">
-        <v>0.03601818524048177</v>
+        <v>2.06369</v>
       </c>
       <c r="F698" t="n">
         <v>0.337187</v>
@@ -19979,7 +19979,7 @@
         <v>1.680630833943017</v>
       </c>
       <c r="E699" t="n">
-        <v>0.04005111754306508</v>
+        <v>2.29476</v>
       </c>
       <c r="F699" t="n">
         <v>0.109135</v>
@@ -20007,7 +20007,7 @@
         <v>1.685289292673516</v>
       </c>
       <c r="E700" t="n">
-        <v>0.04335258235613755</v>
+        <v>2.48392</v>
       </c>
       <c r="F700" t="n">
         <v>0.269338</v>
@@ -20035,7 +20035,7 @@
         <v>1.681781793218133</v>
       </c>
       <c r="E701" t="n">
-        <v>0.04713680524031166</v>
+        <v>2.70074</v>
       </c>
       <c r="F701" t="n">
         <v>0.253529</v>
@@ -20063,7 +20063,7 @@
         <v>1.684206044401931</v>
       </c>
       <c r="E702" t="n">
-        <v>0.05159664507793277</v>
+        <v>2.95627</v>
       </c>
       <c r="F702" t="n">
         <v>0.0682678</v>
@@ -20091,7 +20091,7 @@
         <v>1.686887666680861</v>
       </c>
       <c r="E703" t="n">
-        <v>0.05601738954030921</v>
+        <v>3.20956</v>
       </c>
       <c r="F703" t="n">
         <v>0.20417</v>
@@ -20119,7 +20119,7 @@
         <v>1.670933870624448</v>
       </c>
       <c r="E704" t="n">
-        <v>0.06042591669792167</v>
+        <v>3.46215</v>
       </c>
       <c r="F704" t="n">
         <v>0.126958</v>
@@ -20147,7 +20147,7 @@
         <v>1.681975029541164</v>
       </c>
       <c r="E705" t="n">
-        <v>0.06516937253899187</v>
+        <v>3.73393</v>
       </c>
       <c r="F705" t="n">
         <v>-0.0576792</v>
@@ -20175,7 +20175,7 @@
         <v>1.680630833943017</v>
       </c>
       <c r="E706" t="n">
-        <v>0.07123474075552257</v>
+        <v>4.08145</v>
       </c>
       <c r="F706" t="n">
         <v>-0.29913</v>
@@ -20203,7 +20203,7 @@
         <v>1.696343125667682</v>
       </c>
       <c r="E707" t="n">
-        <v>0.07910617568201699</v>
+        <v>4.53245</v>
       </c>
       <c r="F707" t="n">
         <v>-0.414196</v>
@@ -20231,7 +20231,7 @@
         <v>1.693469810773136</v>
       </c>
       <c r="E708" t="n">
-        <v>0.08692298180292399</v>
+        <v>4.98032</v>
       </c>
       <c r="F708" t="n">
         <v>-0.349038</v>
@@ -20259,7 +20259,7 @@
         <v>1.679485040123907</v>
       </c>
       <c r="E709" t="n">
-        <v>0.09198496023248313</v>
+        <v>5.27035</v>
       </c>
       <c r="F709" t="n">
         <v>-0.159716</v>
@@ -20287,7 +20287,7 @@
         <v>1.701472891350315</v>
       </c>
       <c r="E710" t="n">
-        <v>0.09826814553966273</v>
+        <v>5.63035</v>
       </c>
       <c r="F710" t="n">
         <v>-0.125003</v>
@@ -20315,7 +20315,7 @@
         <v>1.714453265621434</v>
       </c>
       <c r="E711" t="n">
-        <v>0.1027890719011036</v>
+        <v>5.88938</v>
       </c>
       <c r="F711" t="n">
         <v>-0.21333</v>
@@ -20343,7 +20343,7 @@
         <v>1.711960864038661</v>
       </c>
       <c r="E712" t="n">
-        <v>0.1070665248318913</v>
+        <v>6.13446</v>
       </c>
       <c r="F712" t="n">
         <v>-0.0581009</v>
@@ -20371,7 +20371,7 @@
         <v>1.690955351273356</v>
       </c>
       <c r="E713" t="n">
-        <v>0.001514125485982641</v>
+        <v>0.086753</v>
       </c>
       <c r="F713" t="n">
         <v>0.196656</v>
@@ -20399,7 +20399,7 @@
         <v>1.681326856979332</v>
       </c>
       <c r="E714" t="n">
-        <v>0.00498003522117802</v>
+        <v>0.285335</v>
       </c>
       <c r="F714" t="n">
         <v>0.103918</v>
@@ -20427,7 +20427,7 @@
         <v>1.674225193933003</v>
       </c>
       <c r="E715" t="n">
-        <v>0.00885538174559875</v>
+        <v>0.507376</v>
       </c>
       <c r="F715" t="n">
         <v>0.174353</v>
@@ -20455,7 +20455,7 @@
         <v>1.693587907372983</v>
       </c>
       <c r="E716" t="n">
-        <v>0.01242927500161502</v>
+        <v>0.712145</v>
       </c>
       <c r="F716" t="n">
         <v>0.021188</v>
@@ -20483,7 +20483,7 @@
         <v>1.685597816799725</v>
       </c>
       <c r="E717" t="n">
-        <v>0.01731661578621962</v>
+        <v>0.992169</v>
       </c>
       <c r="F717" t="n">
         <v>0.107314</v>
@@ -20511,7 +20511,7 @@
         <v>1.674983582009089</v>
       </c>
       <c r="E718" t="n">
-        <v>0.02611815412439434</v>
+        <v>1.49646</v>
       </c>
       <c r="F718" t="n">
         <v>0.347264</v>
@@ -20539,7 +20539,7 @@
         <v>1.706045134221249</v>
       </c>
       <c r="E719" t="n">
-        <v>0.03651944380165455</v>
+        <v>2.09241</v>
       </c>
       <c r="F719" t="n">
         <v>-0.0191113</v>
@@ -20567,7 +20567,7 @@
         <v>1.71978196292437</v>
       </c>
       <c r="E720" t="n">
-        <v>0.04689455354013484</v>
+        <v>2.68686</v>
       </c>
       <c r="F720" t="n">
         <v>0.604206</v>
@@ -20595,7 +20595,7 @@
         <v>1.669478960634126</v>
       </c>
       <c r="E721" t="n">
-        <v>0.07018335441412119</v>
+        <v>4.02121</v>
       </c>
       <c r="F721" t="n">
         <v>0.01462</v>
@@ -20623,7 +20623,7 @@
         <v>1.674069891014112</v>
       </c>
       <c r="E722" t="n">
-        <v>0.08220954562498811</v>
+        <v>4.71026</v>
       </c>
       <c r="F722" t="n">
         <v>-0.608561</v>
@@ -20651,7 +20651,7 @@
         <v>1.676767723926006</v>
       </c>
       <c r="E723" t="n">
-        <v>0.09302046407769138</v>
+        <v>5.32968</v>
       </c>
       <c r="F723" t="n">
         <v>-0.507178</v>
@@ -20679,7 +20679,7 @@
         <v>1.691126843261616</v>
       </c>
       <c r="E724" t="n">
-        <v>0.100722253000892</v>
+        <v>5.77096</v>
       </c>
       <c r="F724" t="n">
         <v>-0.208043</v>
@@ -20707,7 +20707,7 @@
         <v>1.679598166229054</v>
       </c>
       <c r="E725" t="n">
-        <v>0.1048642683817249</v>
+        <v>6.00828</v>
       </c>
       <c r="F725" t="n">
         <v>-0.09112720000000001</v>
@@ -20735,7 +20735,7 @@
         <v>1.676645460435807</v>
       </c>
       <c r="E726" t="n">
-        <v>0.1080688674213117</v>
+        <v>6.19189</v>
       </c>
       <c r="F726" t="n">
         <v>0.0323606</v>
@@ -20763,7 +20763,7 @@
         <v>1.594804063200242</v>
       </c>
       <c r="E727" t="n">
-        <v>0.00251453075993327</v>
+        <v>0.144072</v>
       </c>
       <c r="F727" t="n">
         <v>0.0251759</v>
@@ -20791,7 +20791,7 @@
         <v>1.618505483463062</v>
       </c>
       <c r="E728" t="n">
-        <v>0.006289381226024166</v>
+        <v>0.360355</v>
       </c>
       <c r="F728" t="n">
         <v>0.0784711</v>
@@ -20819,7 +20819,7 @@
         <v>1.648820790747133</v>
       </c>
       <c r="E729" t="n">
-        <v>0.009448846051154383</v>
+        <v>0.5413790000000001</v>
       </c>
       <c r="F729" t="n">
         <v>0.133648</v>
@@ -20847,7 +20847,7 @@
         <v>1.647889559406212</v>
       </c>
       <c r="E730" t="n">
-        <v>0.01215763195683462</v>
+        <v>0.696581</v>
       </c>
       <c r="F730" t="n">
         <v>0.107609</v>
@@ -20875,7 +20875,7 @@
         <v>1.634016523784261</v>
       </c>
       <c r="E731" t="n">
-        <v>0.01720988890246017</v>
+        <v>0.986054</v>
       </c>
       <c r="F731" t="n">
         <v>0.412484</v>
@@ -20903,7 +20903,7 @@
         <v>1.655756624628149</v>
       </c>
       <c r="E732" t="n">
-        <v>0.0316108798133457</v>
+        <v>1.81117</v>
       </c>
       <c r="F732" t="n">
         <v>0.0957481</v>
@@ -20931,7 +20931,7 @@
         <v>1.651559868730165</v>
       </c>
       <c r="E733" t="n">
-        <v>0.03952175918093519</v>
+        <v>2.26443</v>
       </c>
       <c r="F733" t="n">
         <v>0.0806587</v>
@@ -20959,7 +20959,7 @@
         <v>1.636019559785273</v>
       </c>
       <c r="E734" t="n">
-        <v>0.04507522232785595</v>
+        <v>2.58262</v>
       </c>
       <c r="F734" t="n">
         <v>0.117655</v>
@@ -20987,7 +20987,7 @@
         <v>1.635949265717003</v>
       </c>
       <c r="E735" t="n">
-        <v>0.04923940339018923</v>
+        <v>2.82121</v>
       </c>
       <c r="F735" t="n">
         <v>-0.008319780000000001</v>
@@ -21015,7 +21015,7 @@
         <v>1.638859359432651</v>
       </c>
       <c r="E736" t="n">
-        <v>0.05403661537222084</v>
+        <v>3.09607</v>
       </c>
       <c r="F736" t="n">
         <v>-0.0198615</v>
@@ -21043,7 +21043,7 @@
         <v>1.633835977079707</v>
       </c>
       <c r="E737" t="n">
-        <v>0.06186214813938781</v>
+        <v>3.54444</v>
       </c>
       <c r="F737" t="n">
         <v>-0.0432112</v>
@@ -21071,7 +21071,7 @@
         <v>1.639914631924479</v>
       </c>
       <c r="E738" t="n">
-        <v>0.07495735351710127</v>
+        <v>4.29474</v>
       </c>
       <c r="F738" t="n">
         <v>-0.238416</v>
@@ -21099,7 +21099,7 @@
         <v>1.639072908689543</v>
       </c>
       <c r="E739" t="n">
-        <v>0.08135887214756608</v>
+        <v>4.66152</v>
       </c>
       <c r="F739" t="n">
         <v>-0.145521</v>
@@ -21127,7 +21127,7 @@
         <v>1.633266665306067</v>
       </c>
       <c r="E740" t="n">
-        <v>0.08557558762038438</v>
+        <v>4.90312</v>
       </c>
       <c r="F740" t="n">
         <v>-0.249366</v>
@@ -21155,7 +21155,7 @@
         <v>1.629199189786197</v>
       </c>
       <c r="E741" t="n">
-        <v>0.09396189467621711</v>
+        <v>5.38362</v>
       </c>
       <c r="F741" t="n">
         <v>-0.0736565</v>
@@ -21183,7 +21183,7 @@
         <v>1.649690880134821</v>
       </c>
       <c r="E742" t="n">
-        <v>0.09848159930718163</v>
+        <v>5.64258</v>
       </c>
       <c r="F742" t="n">
         <v>-0.155127</v>
@@ -21211,7 +21211,7 @@
         <v>1.644633697818453</v>
       </c>
       <c r="E743" t="n">
-        <v>0.1011982042879108</v>
+        <v>5.79823</v>
       </c>
       <c r="F743" t="n">
         <v>-0.156104</v>
@@ -21239,7 +21239,7 @@
         <v>1.610813459094504</v>
       </c>
       <c r="E744" t="n">
-        <v>0.1044048977226</v>
+        <v>5.98196</v>
       </c>
       <c r="F744" t="n">
         <v>-0.155465</v>
@@ -21267,7 +21267,7 @@
         <v>1.589669777029179</v>
       </c>
       <c r="E745" t="n">
-        <v>0.1078252194577333</v>
+        <v>6.17793</v>
       </c>
       <c r="F745" t="n">
         <v>-0.333651</v>
@@ -21295,7 +21295,7 @@
         <v>1.676761760060146</v>
       </c>
       <c r="E746" t="n">
-        <v>0.001636520190437247</v>
+        <v>0.09376569999999999</v>
       </c>
       <c r="F746" t="n">
         <v>0.07920919999999999</v>
@@ -21323,7 +21323,7 @@
         <v>1.700852727310628</v>
       </c>
       <c r="E747" t="n">
-        <v>0.004924882816815</v>
+        <v>0.282175</v>
       </c>
       <c r="F747" t="n">
         <v>0.0764758</v>
@@ -21351,7 +21351,7 @@
         <v>1.731132577245313</v>
       </c>
       <c r="E748" t="n">
-        <v>0.007943325038384073</v>
+        <v>0.455119</v>
       </c>
       <c r="F748" t="n">
         <v>0.14198</v>
@@ -21379,7 +21379,7 @@
         <v>1.695131263353962</v>
       </c>
       <c r="E749" t="n">
-        <v>0.01401761188739246</v>
+        <v>0.80315</v>
       </c>
       <c r="F749" t="n">
         <v>0.17364</v>
@@ -21407,7 +21407,7 @@
         <v>1.68049695030964</v>
       </c>
       <c r="E750" t="n">
-        <v>0.02436165476518725</v>
+        <v>1.39582</v>
       </c>
       <c r="F750" t="n">
         <v>0.350738</v>
@@ -21435,7 +21435,7 @@
         <v>1.673239373192013</v>
       </c>
       <c r="E751" t="n">
-        <v>0.03113824465190563</v>
+        <v>1.78409</v>
       </c>
       <c r="F751" t="n">
         <v>0.255801</v>
@@ -21463,7 +21463,7 @@
         <v>1.673765216510368</v>
       </c>
       <c r="E752" t="n">
-        <v>0.03590857856345653</v>
+        <v>2.05741</v>
       </c>
       <c r="F752" t="n">
         <v>-0.0571804</v>
@@ -21491,7 +21491,7 @@
         <v>1.677462369175535</v>
       </c>
       <c r="E753" t="n">
-        <v>0.04130845273620179</v>
+        <v>2.3668</v>
       </c>
       <c r="F753" t="n">
         <v>0.324094</v>
@@ -21519,7 +21519,7 @@
         <v>1.670392169521876</v>
       </c>
       <c r="E754" t="n">
-        <v>0.04540264609553009</v>
+        <v>2.60138</v>
       </c>
       <c r="F754" t="n">
         <v>0.0155559</v>
@@ -21547,7 +21547,7 @@
         <v>1.676105605264776</v>
       </c>
       <c r="E755" t="n">
-        <v>0.04885909614617966</v>
+        <v>2.79942</v>
       </c>
       <c r="F755" t="n">
         <v>-0.0129524</v>
@@ -21575,7 +21575,7 @@
         <v>1.665421868476573</v>
       </c>
       <c r="E756" t="n">
-        <v>0.0525408682032617</v>
+        <v>3.01037</v>
       </c>
       <c r="F756" t="n">
         <v>0.136396</v>
@@ -21603,7 +21603,7 @@
         <v>1.662197340871414</v>
       </c>
       <c r="E757" t="n">
-        <v>0.05704887912823785</v>
+        <v>3.26866</v>
       </c>
       <c r="F757" t="n">
         <v>-0.165102</v>
@@ -21631,7 +21631,7 @@
         <v>1.661718989480472</v>
       </c>
       <c r="E758" t="n">
-        <v>0.06133052084923035</v>
+        <v>3.51398</v>
       </c>
       <c r="F758" t="n">
         <v>0.163303</v>
@@ -21659,7 +21659,7 @@
         <v>1.674920893654384</v>
       </c>
       <c r="E759" t="n">
-        <v>0.06628690685904383</v>
+        <v>3.79796</v>
       </c>
       <c r="F759" t="n">
         <v>0.215648</v>
@@ -21687,7 +21687,7 @@
         <v>1.670808187674456</v>
       </c>
       <c r="E760" t="n">
-        <v>0.07373946276505963</v>
+        <v>4.22496</v>
       </c>
       <c r="F760" t="n">
         <v>-0.305416</v>
@@ -21715,7 +21715,7 @@
         <v>1.691732839428259</v>
       </c>
       <c r="E761" t="n">
-        <v>0.08162852551699919</v>
+        <v>4.67697</v>
       </c>
       <c r="F761" t="n">
         <v>-0.275136</v>
@@ -21743,7 +21743,7 @@
         <v>1.683579519951463</v>
       </c>
       <c r="E762" t="n">
-        <v>0.08714795474350606</v>
+        <v>4.99321</v>
       </c>
       <c r="F762" t="n">
         <v>-0.458816</v>
@@ -21771,7 +21771,7 @@
         <v>1.673460486536805</v>
       </c>
       <c r="E763" t="n">
-        <v>0.09162350254439512</v>
+        <v>5.24964</v>
       </c>
       <c r="F763" t="n">
         <v>-0.340309</v>
@@ -21799,7 +21799,7 @@
         <v>1.659966867139221</v>
       </c>
       <c r="E764" t="n">
-        <v>0.09482408732670232</v>
+        <v>5.43302</v>
       </c>
       <c r="F764" t="n">
         <v>-0.21507</v>
@@ -21827,7 +21827,7 @@
         <v>1.716679935223803</v>
       </c>
       <c r="E765" t="n">
-        <v>0.09899420250849238</v>
+        <v>5.67195</v>
       </c>
       <c r="F765" t="n">
         <v>-0.35309</v>
@@ -21855,7 +21855,7 @@
         <v>1.723980858362412</v>
       </c>
       <c r="E766" t="n">
-        <v>0.1027110556835395</v>
+        <v>5.88491</v>
       </c>
       <c r="F766" t="n">
         <v>-0.0796444</v>
@@ -21883,7 +21883,7 @@
         <v>1.684381192010882</v>
       </c>
       <c r="E767" t="n">
-        <v>0.1069005440200267</v>
+        <v>6.12495</v>
       </c>
       <c r="F767" t="n">
         <v>-0.0603141</v>
@@ -21911,7 +21911,7 @@
         <v>1.674326730360595</v>
       </c>
       <c r="E768" t="n">
-        <v>0.001548232710225114</v>
+        <v>0.0887072</v>
       </c>
       <c r="F768" t="n">
         <v>0.177031</v>
@@ -21939,7 +21939,7 @@
         <v>1.707237534732645</v>
       </c>
       <c r="E769" t="n">
-        <v>0.006450248223180484</v>
+        <v>0.369572</v>
       </c>
       <c r="F769" t="n">
         <v>0.105824</v>
@@ -21967,7 +21967,7 @@
         <v>1.696534703447</v>
       </c>
       <c r="E770" t="n">
-        <v>0.01470027997101752</v>
+        <v>0.842264</v>
       </c>
       <c r="F770" t="n">
         <v>0.504912</v>
@@ -21995,7 +21995,7 @@
         <v>1.676973464310035</v>
       </c>
       <c r="E771" t="n">
-        <v>0.02673495348204914</v>
+        <v>1.5318</v>
       </c>
       <c r="F771" t="n">
         <v>-0.176651</v>
@@ -22023,7 +22023,7 @@
         <v>1.679660680018437</v>
       </c>
       <c r="E772" t="n">
-        <v>0.03524709877695068</v>
+        <v>2.01951</v>
       </c>
       <c r="F772" t="n">
         <v>-0.181869</v>
@@ -22051,7 +22051,7 @@
         <v>1.675852022106964</v>
       </c>
       <c r="E773" t="n">
-        <v>0.0444758762627211</v>
+        <v>2.54828</v>
       </c>
       <c r="F773" t="n">
         <v>-0.009670430000000001</v>
@@ -22079,7 +22079,7 @@
         <v>1.705121696536643</v>
       </c>
       <c r="E774" t="n">
-        <v>0.05609086790181816</v>
+        <v>3.21377</v>
       </c>
       <c r="F774" t="n">
         <v>-0.43267</v>
@@ -22107,7 +22107,7 @@
         <v>1.660424644481044</v>
       </c>
       <c r="E775" t="n">
-        <v>0.06612302044228158</v>
+        <v>3.78857</v>
       </c>
       <c r="F775" t="n">
         <v>-0.221404</v>
@@ -22135,7 +22135,7 @@
         <v>1.666556329681058</v>
       </c>
       <c r="E776" t="n">
-        <v>0.07759280068761271</v>
+        <v>4.44574</v>
       </c>
       <c r="F776" t="n">
         <v>-0.0850938</v>
@@ -22163,7 +22163,7 @@
         <v>1.676573887426379</v>
       </c>
       <c r="E777" t="n">
-        <v>0.08957867479275856</v>
+        <v>5.13248</v>
       </c>
       <c r="F777" t="n">
         <v>-0.221054</v>
@@ -22191,7 +22191,7 @@
         <v>1.689647892313662</v>
       </c>
       <c r="E778" t="n">
-        <v>0.1011632977028709</v>
+        <v>5.79623</v>
       </c>
       <c r="F778" t="n">
         <v>-0.0936543</v>
@@ -22219,7 +22219,7 @@
         <v>1.690961265079718</v>
       </c>
       <c r="E779" t="n">
-        <v>0.1075546934236742</v>
+        <v>6.16243</v>
       </c>
       <c r="F779" t="n">
         <v>-0.0694834</v>
@@ -22247,7 +22247,7 @@
         <v>1.635298137955278</v>
       </c>
       <c r="E780" t="n">
-        <v>0.003299754390405519</v>
+        <v>0.189062</v>
       </c>
       <c r="F780" t="n">
         <v>0.0692929</v>
@@ -22275,7 +22275,7 @@
         <v>1.635212524413876</v>
       </c>
       <c r="E781" t="n">
-        <v>0.007383353601174212</v>
+        <v>0.423035</v>
       </c>
       <c r="F781" t="n">
         <v>0.0545483</v>
@@ -22303,7 +22303,7 @@
         <v>1.663243818566599</v>
       </c>
       <c r="E782" t="n">
-        <v>0.009999340350525913</v>
+        <v>0.57292</v>
       </c>
       <c r="F782" t="n">
         <v>0.204003</v>
@@ -22331,7 +22331,7 @@
         <v>1.618415892161221</v>
       </c>
       <c r="E783" t="n">
-        <v>0.01945378890857919</v>
+        <v>1.11462</v>
       </c>
       <c r="F783" t="n">
         <v>0.201962</v>
@@ -22359,7 +22359,7 @@
         <v>1.652785527526182</v>
       </c>
       <c r="E784" t="n">
-        <v>0.05024226957838517</v>
+        <v>2.87867</v>
       </c>
       <c r="F784" t="n">
         <v>-0.0302977</v>
@@ -22387,7 +22387,7 @@
         <v>1.635007645242064</v>
       </c>
       <c r="E785" t="n">
-        <v>0.08376131786293627</v>
+        <v>4.79917</v>
       </c>
       <c r="F785" t="n">
         <v>-0.0656326</v>
@@ -22415,7 +22415,7 @@
         <v>1.661102043825123</v>
       </c>
       <c r="E786" t="n">
-        <v>0.09672405275042335</v>
+        <v>5.54188</v>
       </c>
       <c r="F786" t="n">
         <v>-0.146145</v>
@@ -22443,7 +22443,7 @@
         <v>1.646341398373983</v>
       </c>
       <c r="E787" t="n">
-        <v>0.1015840965855268</v>
+        <v>5.82034</v>
       </c>
       <c r="F787" t="n">
         <v>0.0301089</v>
@@ -22471,7 +22471,7 @@
         <v>1.623794937792331</v>
       </c>
       <c r="E788" t="n">
-        <v>0.1042481671557709</v>
+        <v>5.97298</v>
       </c>
       <c r="F788" t="n">
         <v>0.168602</v>
@@ -22499,7 +22499,7 @@
         <v>1.639011897455293</v>
       </c>
       <c r="E789" t="n">
-        <v>0.1078142238834457</v>
+        <v>6.1773</v>
       </c>
       <c r="F789" t="n">
         <v>-0.0847305</v>
@@ -22527,7 +22527,7 @@
         <v>1.666403312526712</v>
       </c>
       <c r="E790" t="n">
-        <v>0.001617852148757916</v>
+        <v>0.0926961</v>
       </c>
       <c r="F790" t="n">
         <v>-0.145514</v>
@@ -22555,7 +22555,7 @@
         <v>1.677763392138474</v>
       </c>
       <c r="E791" t="n">
-        <v>0.004962808821460836</v>
+        <v>0.284348</v>
       </c>
       <c r="F791" t="n">
         <v>0.0833711</v>
@@ -22583,7 +22583,7 @@
         <v>1.726374814459479</v>
       </c>
       <c r="E792" t="n">
-        <v>0.00783352637514111</v>
+        <v>0.448828</v>
       </c>
       <c r="F792" t="n">
         <v>0.169593</v>
@@ -22611,7 +22611,7 @@
         <v>1.670945839936172</v>
       </c>
       <c r="E793" t="n">
-        <v>0.01400436483836982</v>
+        <v>0.802391</v>
       </c>
       <c r="F793" t="n">
         <v>0.272393</v>
@@ -22639,7 +22639,7 @@
         <v>1.664268608127907</v>
       </c>
       <c r="E794" t="n">
-        <v>0.02207632064262588</v>
+        <v>1.26488</v>
       </c>
       <c r="F794" t="n">
         <v>0.118556</v>
@@ -22667,7 +22667,7 @@
         <v>1.672426381040433</v>
       </c>
       <c r="E795" t="n">
-        <v>0.03317260042803023</v>
+        <v>1.90065</v>
       </c>
       <c r="F795" t="n">
         <v>0.0431</v>
@@ -22695,7 +22695,7 @@
         <v>1.685870694922953</v>
       </c>
       <c r="E796" t="n">
-        <v>0.04305290932357013</v>
+        <v>2.46675</v>
       </c>
       <c r="F796" t="n">
         <v>0.231928</v>
@@ -22723,7 +22723,7 @@
         <v>1.676860161134494</v>
       </c>
       <c r="E797" t="n">
-        <v>0.04986684925628118</v>
+        <v>2.85716</v>
       </c>
       <c r="F797" t="n">
         <v>-0.0295583</v>
@@ -22751,7 +22751,7 @@
         <v>1.676207027786246</v>
       </c>
       <c r="E798" t="n">
-        <v>0.05646698635562294</v>
+        <v>3.23532</v>
       </c>
       <c r="F798" t="n">
         <v>0.0267461</v>
@@ -22779,7 +22779,7 @@
         <v>1.669877240997074</v>
       </c>
       <c r="E799" t="n">
-        <v>0.06537567045657761</v>
+        <v>3.74575</v>
       </c>
       <c r="F799" t="n">
         <v>0.0870715</v>
@@ -22807,7 +22807,7 @@
         <v>1.64934532466673</v>
       </c>
       <c r="E800" t="n">
-        <v>0.07688559327470461</v>
+        <v>4.40522</v>
       </c>
       <c r="F800" t="n">
         <v>0.0185462</v>
@@ -22835,7 +22835,7 @@
         <v>1.704133210755544</v>
       </c>
       <c r="E801" t="n">
-        <v>0.08533595391408555</v>
+        <v>4.88939</v>
       </c>
       <c r="F801" t="n">
         <v>0.09613629999999999</v>
@@ -22863,7 +22863,7 @@
         <v>1.667267225132192</v>
       </c>
       <c r="E802" t="n">
-        <v>0.09256545674169646</v>
+        <v>5.30361</v>
       </c>
       <c r="F802" t="n">
         <v>-0.228615</v>
@@ -22891,7 +22891,7 @@
         <v>1.672880748887977</v>
       </c>
       <c r="E803" t="n">
-        <v>0.09817616668808263</v>
+        <v>5.62508</v>
       </c>
       <c r="F803" t="n">
         <v>-0.104514</v>
@@ -22919,7 +22919,7 @@
         <v>1.704482326103735</v>
       </c>
       <c r="E804" t="n">
-        <v>0.1029074052243889</v>
+        <v>5.89616</v>
       </c>
       <c r="F804" t="n">
         <v>-0.125472</v>
@@ -22947,7 +22947,7 @@
         <v>1.673185584446627</v>
       </c>
       <c r="E805" t="n">
-        <v>0.1062399368981468</v>
+        <v>6.0871</v>
       </c>
       <c r="F805" t="n">
         <v>-0.0531918</v>
@@ -22975,7 +22975,7 @@
         <v>1.695821334928889</v>
       </c>
       <c r="E806" t="n">
-        <v>0.004214778157348587</v>
+        <v>0.241489</v>
       </c>
       <c r="F806" t="n">
         <v>-0.100172</v>
@@ -23003,7 +23003,7 @@
         <v>1.704447124436543</v>
       </c>
       <c r="E807" t="n">
-        <v>0.03737832032656096</v>
+        <v>2.14162</v>
       </c>
       <c r="F807" t="n">
         <v>0.171526</v>
@@ -23031,7 +23031,7 @@
         <v>1.692527695489796</v>
       </c>
       <c r="E808" t="n">
-        <v>0.0719937844472149</v>
+        <v>4.12494</v>
       </c>
       <c r="F808" t="n">
         <v>0.0126767</v>
@@ -23059,7 +23059,7 @@
         <v>1.697822134382751</v>
       </c>
       <c r="E809" t="n">
-        <v>0.09455251409509201</v>
+        <v>5.41746</v>
       </c>
       <c r="F809" t="n">
         <v>-0.325731</v>
@@ -23087,7 +23087,7 @@
         <v>1.676433714764768</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1032751460977841</v>
+        <v>5.91723</v>
       </c>
       <c r="F810" t="n">
         <v>-0.208727</v>
@@ -23115,7 +23115,7 @@
         <v>1.895927213792766</v>
       </c>
       <c r="E811" t="n">
-        <v>0.001607701313828317</v>
+        <v>0.0921145</v>
       </c>
       <c r="F811" t="n">
         <v>0.0511268</v>
@@ -23143,7 +23143,7 @@
         <v>1.895341657854858</v>
       </c>
       <c r="E812" t="n">
-        <v>0.004852277119932035</v>
+        <v>0.278015</v>
       </c>
       <c r="F812" t="n">
         <v>0.1181</v>
@@ -23171,7 +23171,7 @@
         <v>1.885308993242222</v>
       </c>
       <c r="E813" t="n">
-        <v>0.008095657375498139</v>
+        <v>0.463847</v>
       </c>
       <c r="F813" t="n">
         <v>-0.0987349</v>
@@ -23199,7 +23199,7 @@
         <v>1.900502565112713</v>
       </c>
       <c r="E814" t="n">
-        <v>0.01134331368773163</v>
+        <v>0.6499239999999999</v>
       </c>
       <c r="F814" t="n">
         <v>-0.0192093</v>
@@ -23227,7 +23227,7 @@
         <v>1.911337228225307</v>
       </c>
       <c r="E815" t="n">
-        <v>0.01472279471836825</v>
+        <v>0.843554</v>
       </c>
       <c r="F815" t="n">
         <v>0.364558</v>
@@ -23255,7 +23255,7 @@
         <v>1.899794725753285</v>
       </c>
       <c r="E816" t="n">
-        <v>0.01807864399093287</v>
+        <v>1.03583</v>
       </c>
       <c r="F816" t="n">
         <v>-0.07242560000000001</v>
@@ -23283,7 +23283,7 @@
         <v>1.931662496400445</v>
       </c>
       <c r="E817" t="n">
-        <v>0.02141361912564363</v>
+        <v>1.22691</v>
       </c>
       <c r="F817" t="n">
         <v>0.383826</v>
@@ -23311,7 +23311,7 @@
         <v>1.92964763622792</v>
       </c>
       <c r="E818" t="n">
-        <v>0.02467860655734942</v>
+        <v>1.41398</v>
       </c>
       <c r="F818" t="n">
         <v>0.09066349999999999</v>
@@ -23339,7 +23339,7 @@
         <v>1.901633508329089</v>
       </c>
       <c r="E819" t="n">
-        <v>0.02876756392892174</v>
+        <v>1.64826</v>
       </c>
       <c r="F819" t="n">
         <v>0.363537</v>
@@ -23367,7 +23367,7 @@
         <v>1.911575266632209</v>
       </c>
       <c r="E820" t="n">
-        <v>0.0361658400952005</v>
+        <v>2.07215</v>
       </c>
       <c r="F820" t="n">
         <v>0.353897</v>
@@ -23395,7 +23395,7 @@
         <v>1.925336334254356</v>
       </c>
       <c r="E821" t="n">
-        <v>0.04716630130467036</v>
+        <v>2.70243</v>
       </c>
       <c r="F821" t="n">
         <v>-0.0976375</v>
@@ -23423,7 +23423,7 @@
         <v>1.947010528990534</v>
       </c>
       <c r="E822" t="n">
-        <v>0.05720648235969295</v>
+        <v>3.27769</v>
       </c>
       <c r="F822" t="n">
         <v>0.0210035</v>
@@ -23451,7 +23451,7 @@
         <v>1.950776768366899</v>
       </c>
       <c r="E823" t="n">
-        <v>0.06822841111896233</v>
+        <v>3.9092</v>
       </c>
       <c r="F823" t="n">
         <v>-0.0340068</v>
@@ -23479,7 +23479,7 @@
         <v>1.932208580873193</v>
       </c>
       <c r="E824" t="n">
-        <v>0.08040225718454798</v>
+        <v>4.60671</v>
       </c>
       <c r="F824" t="n">
         <v>-0.193045</v>
@@ -23507,7 +23507,7 @@
         <v>1.913792047219342</v>
       </c>
       <c r="E825" t="n">
-        <v>0.09188722179437146</v>
+        <v>5.26475</v>
       </c>
       <c r="F825" t="n">
         <v>-0.361004</v>
@@ -23535,7 +23535,7 @@
         <v>1.880101061113471</v>
       </c>
       <c r="E826" t="n">
-        <v>0.09841161160417666</v>
+        <v>5.63857</v>
       </c>
       <c r="F826" t="n">
         <v>-0.186677</v>
@@ -23563,7 +23563,7 @@
         <v>1.895344295899824</v>
       </c>
       <c r="E827" t="n">
-        <v>0.1015455248090577</v>
+        <v>5.81813</v>
       </c>
       <c r="F827" t="n">
         <v>-0.158087</v>
@@ -23591,7 +23591,7 @@
         <v>1.892981774872648</v>
       </c>
       <c r="E828" t="n">
-        <v>0.1048122575700155</v>
+        <v>6.0053</v>
       </c>
       <c r="F828" t="n">
         <v>-0.10079</v>
@@ -23619,7 +23619,7 @@
         <v>1.899852625863385</v>
       </c>
       <c r="E829" t="n">
-        <v>0.1080500178653901</v>
+        <v>6.19081</v>
       </c>
       <c r="F829" t="n">
         <v>0.00285165</v>
@@ -23647,7 +23647,7 @@
         <v>2.009935322342488</v>
       </c>
       <c r="E830" t="n">
-        <v>0.00171269508564054</v>
+        <v>0.0981302</v>
       </c>
       <c r="F830" t="n">
         <v>0.0470818</v>
@@ -23675,7 +23675,7 @@
         <v>2.029899012266374</v>
       </c>
       <c r="E831" t="n">
-        <v>0.004962075783174999</v>
+        <v>0.284306</v>
       </c>
       <c r="F831" t="n">
         <v>0.251311</v>
@@ -23703,7 +23703,7 @@
         <v>1.996722314193939</v>
       </c>
       <c r="E832" t="n">
-        <v>0.008236156380283681</v>
+        <v>0.471897</v>
       </c>
       <c r="F832" t="n">
         <v>0.322697</v>
@@ -23731,7 +23731,7 @@
         <v>1.994978696628112</v>
       </c>
       <c r="E833" t="n">
-        <v>0.0114631829007586</v>
+        <v>0.656792</v>
       </c>
       <c r="F833" t="n">
         <v>0.321751</v>
@@ -23759,7 +23759,7 @@
         <v>2.033796941683216</v>
       </c>
       <c r="E834" t="n">
-        <v>0.01481800242906454</v>
+        <v>0.849009</v>
       </c>
       <c r="F834" t="n">
         <v>0.250937</v>
@@ -23787,7 +23787,7 @@
         <v>2.029125427370127</v>
       </c>
       <c r="E835" t="n">
-        <v>0.01843224769738691</v>
+        <v>1.05609</v>
       </c>
       <c r="F835" t="n">
         <v>0.341578</v>
@@ -23815,7 +23815,7 @@
         <v>2.013273453855685</v>
       </c>
       <c r="E836" t="n">
-        <v>0.02358672857730177</v>
+        <v>1.35142</v>
       </c>
       <c r="F836" t="n">
         <v>0.239653</v>
@@ -23843,7 +23843,7 @@
         <v>2.009947760515183</v>
       </c>
       <c r="E837" t="n">
-        <v>0.02900981562909855</v>
+        <v>1.66214</v>
       </c>
       <c r="F837" t="n">
         <v>-0.161205</v>
@@ -23871,7 +23871,7 @@
         <v>2.028035995735776</v>
       </c>
       <c r="E838" t="n">
-        <v>0.03627422504174935</v>
+        <v>2.07836</v>
       </c>
       <c r="F838" t="n">
         <v>0.141065</v>
@@ -23899,7 +23899,7 @@
         <v>2.022090502425645</v>
       </c>
       <c r="E839" t="n">
-        <v>0.0455831131401863</v>
+        <v>2.61172</v>
       </c>
       <c r="F839" t="n">
         <v>0.101678</v>
@@ -23927,7 +23927,7 @@
         <v>2.034652304449092</v>
       </c>
       <c r="E840" t="n">
-        <v>0.05826170842544871</v>
+        <v>3.33815</v>
       </c>
       <c r="F840" t="n">
         <v>0.111447</v>
@@ -23955,7 +23955,7 @@
         <v>2.045668594860859</v>
       </c>
       <c r="E841" t="n">
-        <v>0.07012523495002977</v>
+        <v>4.01788</v>
       </c>
       <c r="F841" t="n">
         <v>-0.371198</v>
@@ -23983,7 +23983,7 @@
         <v>2.032067912250966</v>
       </c>
       <c r="E842" t="n">
-        <v>0.08071240219262737</v>
+        <v>4.62448</v>
       </c>
       <c r="F842" t="n">
         <v>0.0557152</v>
@@ -24011,7 +24011,7 @@
         <v>2.04179822705379</v>
       </c>
       <c r="E843" t="n">
-        <v>0.08698930431449978</v>
+        <v>4.98412</v>
       </c>
       <c r="F843" t="n">
         <v>-0.32379</v>
@@ -24039,7 +24039,7 @@
         <v>2.016995290029206</v>
       </c>
       <c r="E844" t="n">
-        <v>0.09288956438379181</v>
+        <v>5.32218</v>
       </c>
       <c r="F844" t="n">
         <v>-0.07667880000000001</v>
@@ -24067,7 +24067,7 @@
         <v>2.016415135828929</v>
       </c>
       <c r="E845" t="n">
-        <v>0.09773756544705646</v>
+        <v>5.59995</v>
       </c>
       <c r="F845" t="n">
         <v>-0.0782862</v>
@@ -24095,7 +24095,7 @@
         <v>1.999952499435924</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1015067784996634</v>
+        <v>5.81591</v>
       </c>
       <c r="F846" t="n">
         <v>-0.167092</v>
@@ -24123,7 +24123,7 @@
         <v>1.998096594261649</v>
       </c>
       <c r="E847" t="n">
-        <v>0.1047290053646953</v>
+        <v>6.00053</v>
       </c>
       <c r="F847" t="n">
         <v>-0.204259</v>
@@ -24151,7 +24151,7 @@
         <v>2.005278035585091</v>
       </c>
       <c r="E848" t="n">
-        <v>0.1079531520919045</v>
+        <v>6.18526</v>
       </c>
       <c r="F848" t="n">
         <v>-0.0364136</v>
@@ -24179,7 +24179,7 @@
         <v>1.957940244236274</v>
       </c>
       <c r="E849" t="n">
-        <v>0.001666667262606945</v>
+        <v>0.09549299999999999</v>
       </c>
       <c r="F849" t="n">
         <v>0.00693138</v>
@@ -24207,7 +24207,7 @@
         <v>1.939858242243489</v>
       </c>
       <c r="E850" t="n">
-        <v>0.004902629868852071</v>
+        <v>0.2809</v>
       </c>
       <c r="F850" t="n">
         <v>0.087272</v>
@@ -24235,7 +24235,7 @@
         <v>1.915573021317642</v>
       </c>
       <c r="E851" t="n">
-        <v>0.00804896981800729</v>
+        <v>0.461172</v>
       </c>
       <c r="F851" t="n">
         <v>0.170162</v>
@@ -24263,7 +24263,7 @@
         <v>1.893982576477408</v>
       </c>
       <c r="E852" t="n">
-        <v>0.01128498478412998</v>
+        <v>0.646582</v>
       </c>
       <c r="F852" t="n">
         <v>0.26366</v>
@@ -24291,7 +24291,7 @@
         <v>1.917373203108878</v>
       </c>
       <c r="E853" t="n">
-        <v>0.01461838912251395</v>
+        <v>0.837572</v>
       </c>
       <c r="F853" t="n">
         <v>0.28674</v>
@@ -24319,7 +24319,7 @@
         <v>1.954722486697281</v>
       </c>
       <c r="E854" t="n">
-        <v>0.01962989263010543</v>
+        <v>1.12471</v>
       </c>
       <c r="F854" t="n">
         <v>0.47386</v>
@@ -24347,7 +24347,7 @@
         <v>1.952022028564227</v>
       </c>
       <c r="E855" t="n">
-        <v>0.02363088540737722</v>
+        <v>1.35395</v>
       </c>
       <c r="F855" t="n">
         <v>0.45042</v>
@@ -24375,7 +24375,7 @@
         <v>1.928196048123738</v>
       </c>
       <c r="E856" t="n">
-        <v>0.02686812210397631</v>
+        <v>1.53943</v>
       </c>
       <c r="F856" t="n">
         <v>0.345713</v>
@@ -24403,7 +24403,7 @@
         <v>1.949348609151272</v>
       </c>
       <c r="E857" t="n">
-        <v>0.03012403382357173</v>
+        <v>1.72598</v>
       </c>
       <c r="F857" t="n">
         <v>0.29542</v>
@@ -24431,7 +24431,7 @@
         <v>1.929435150503898</v>
       </c>
       <c r="E858" t="n">
-        <v>0.03386549614107198</v>
+        <v>1.94035</v>
       </c>
       <c r="F858" t="n">
         <v>0.275971</v>
@@ -24459,7 +24459,7 @@
         <v>1.934512858577063</v>
       </c>
       <c r="E859" t="n">
-        <v>0.03891857339144596</v>
+        <v>2.22987</v>
       </c>
       <c r="F859" t="n">
         <v>0.372968</v>
@@ -24487,7 +24487,7 @@
         <v>1.925206482432469</v>
       </c>
       <c r="E860" t="n">
-        <v>0.04387426126955865</v>
+        <v>2.51381</v>
       </c>
       <c r="F860" t="n">
         <v>0.337962</v>
@@ -24515,7 +24515,7 @@
         <v>1.93990979171713</v>
       </c>
       <c r="E861" t="n">
-        <v>0.04932981144544253</v>
+        <v>2.82639</v>
       </c>
       <c r="F861" t="n">
         <v>0.190433</v>
@@ -24543,7 +24543,7 @@
         <v>1.939876284715085</v>
       </c>
       <c r="E862" t="n">
-        <v>0.05532728635407064</v>
+        <v>3.17002</v>
       </c>
       <c r="F862" t="n">
         <v>0.0174803</v>
@@ -24571,7 +24571,7 @@
         <v>1.922711626843714</v>
       </c>
       <c r="E863" t="n">
-        <v>0.06196058470920029</v>
+        <v>3.55008</v>
       </c>
       <c r="F863" t="n">
         <v>-0.133777</v>
@@ -24599,7 +24599,7 @@
         <v>1.939089992754333</v>
       </c>
       <c r="E864" t="n">
-        <v>0.07084849939205622</v>
+        <v>4.05932</v>
       </c>
       <c r="F864" t="n">
         <v>-0.16055</v>
@@ -24627,7 +24627,7 @@
         <v>1.919677056173772</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07788304894221937</v>
+        <v>4.46237</v>
       </c>
       <c r="F865" t="n">
         <v>-0.246107</v>
@@ -24655,7 +24655,7 @@
         <v>1.945702957802141</v>
       </c>
       <c r="E866" t="n">
-        <v>0.08453275339231776</v>
+        <v>4.84337</v>
       </c>
       <c r="F866" t="n">
         <v>-0.00921451</v>
@@ -24683,7 +24683,7 @@
         <v>1.954036847144905</v>
       </c>
       <c r="E867" t="n">
-        <v>0.09071401147118088</v>
+        <v>5.19753</v>
       </c>
       <c r="F867" t="n">
         <v>-0.179358</v>
@@ -24711,7 +24711,7 @@
         <v>1.89330927214758</v>
       </c>
       <c r="E868" t="n">
-        <v>0.09738483440522841</v>
+        <v>5.57974</v>
       </c>
       <c r="F868" t="n">
         <v>-0.194413</v>
@@ -24739,7 +24739,7 @@
         <v>1.9157296260172</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1005400406269837</v>
+        <v>5.76052</v>
       </c>
       <c r="F869" t="n">
         <v>-0.11886</v>
@@ -24767,7 +24767,7 @@
         <v>1.930209833152862</v>
       </c>
       <c r="E870" t="n">
-        <v>0.1036825059451996</v>
+        <v>5.94057</v>
       </c>
       <c r="F870" t="n">
         <v>-0.0609675</v>
@@ -24795,7 +24795,7 @@
         <v>1.954085463842357</v>
       </c>
       <c r="E871" t="n">
-        <v>0.107474059212232</v>
+        <v>6.15781</v>
       </c>
       <c r="F871" t="n">
         <v>-0.0363415</v>
@@ -24823,7 +24823,7 @@
         <v>1.987407859499403</v>
       </c>
       <c r="E872" t="n">
-        <v>0.001585465819157909</v>
+        <v>0.0908405</v>
       </c>
       <c r="F872" t="n">
         <v>0.0409622</v>
@@ -24851,7 +24851,7 @@
         <v>1.997335725410228</v>
       </c>
       <c r="E873" t="n">
-        <v>0.005028066682192904</v>
+        <v>0.288087</v>
       </c>
       <c r="F873" t="n">
         <v>0.0499413</v>
@@ -24879,7 +24879,7 @@
         <v>2.011842439158693</v>
       </c>
       <c r="E874" t="n">
-        <v>0.008181789374084057</v>
+        <v>0.468782</v>
       </c>
       <c r="F874" t="n">
         <v>0.166798</v>
@@ -24907,7 +24907,7 @@
         <v>2.021825907441093</v>
       </c>
       <c r="E875" t="n">
-        <v>0.01143571141833221</v>
+        <v>0.655218</v>
       </c>
       <c r="F875" t="n">
         <v>0.200614</v>
@@ -24935,7 +24935,7 @@
         <v>2.011447240173105</v>
       </c>
       <c r="E876" t="n">
-        <v>0.01473022982098174</v>
+        <v>0.84398</v>
       </c>
       <c r="F876" t="n">
         <v>0.2559</v>
@@ -24963,7 +24963,7 @@
         <v>2.010972401600778</v>
       </c>
       <c r="E877" t="n">
-        <v>0.01867065967320934</v>
+        <v>1.06975</v>
       </c>
       <c r="F877" t="n">
         <v>0.213033</v>
@@ -24991,7 +24991,7 @@
         <v>2.024699977774485</v>
       </c>
       <c r="E878" t="n">
-        <v>0.02292559785664632</v>
+        <v>1.31354</v>
       </c>
       <c r="F878" t="n">
         <v>0.13666</v>
@@ -25019,7 +25019,7 @@
         <v>2.027789436800577</v>
       </c>
       <c r="E879" t="n">
-        <v>0.0277633014773242</v>
+        <v>1.59072</v>
       </c>
       <c r="F879" t="n">
         <v>0.0778052</v>
@@ -25047,7 +25047,7 @@
         <v>2.01727043303569</v>
       </c>
       <c r="E880" t="n">
-        <v>0.03605570981939966</v>
+        <v>2.06584</v>
       </c>
       <c r="F880" t="n">
         <v>0.475538</v>
@@ -25075,7 +25075,7 @@
         <v>2.006479504006956</v>
       </c>
       <c r="E881" t="n">
-        <v>0.0467856449948104</v>
+        <v>2.68062</v>
       </c>
       <c r="F881" t="n">
         <v>-0.137962</v>
@@ -25103,7 +25103,7 @@
         <v>2.012890955814547</v>
       </c>
       <c r="E882" t="n">
-        <v>0.05892563167290735</v>
+        <v>3.37619</v>
       </c>
       <c r="F882" t="n">
         <v>0.06605</v>
@@ -25131,7 +25131,7 @@
         <v>2.027365285290246</v>
       </c>
       <c r="E883" t="n">
-        <v>0.06929567995655686</v>
+        <v>3.97035</v>
       </c>
       <c r="F883" t="n">
         <v>-0.192334</v>
@@ -25159,7 +25159,7 @@
         <v>2.034173050652279</v>
       </c>
       <c r="E884" t="n">
-        <v>0.07970796520810464</v>
+        <v>4.56693</v>
       </c>
       <c r="F884" t="n">
         <v>-0.264531</v>
@@ -25187,7 +25187,7 @@
         <v>2.029012074877821</v>
       </c>
       <c r="E885" t="n">
-        <v>0.08854770880360552</v>
+        <v>5.07341</v>
       </c>
       <c r="F885" t="n">
         <v>-0.259074</v>
@@ -25215,7 +25215,7 @@
         <v>2.002103893408132</v>
       </c>
       <c r="E886" t="n">
-        <v>0.09589222882892286</v>
+        <v>5.49422</v>
       </c>
       <c r="F886" t="n">
         <v>-0.198411</v>
@@ -25243,7 +25243,7 @@
         <v>2.019841577946152</v>
       </c>
       <c r="E887" t="n">
-        <v>0.1010219260334594</v>
+        <v>5.78813</v>
       </c>
       <c r="F887" t="n">
         <v>-0.317473</v>
@@ -25271,7 +25271,7 @@
         <v>1.993958374690906</v>
       </c>
       <c r="E888" t="n">
-        <v>0.1047747329910976</v>
+        <v>6.00315</v>
       </c>
       <c r="F888" t="n">
         <v>-0.101644</v>
@@ -25299,7 +25299,7 @@
         <v>1.999187334893856</v>
       </c>
       <c r="E889" t="n">
-        <v>0.1080407676203546</v>
+        <v>6.19028</v>
       </c>
       <c r="F889" t="n">
         <v>0.0899351</v>
@@ -25327,7 +25327,7 @@
         <v>1.988049295163478</v>
       </c>
       <c r="E890" t="n">
-        <v>0.001692025151309171</v>
+        <v>0.0969459</v>
       </c>
       <c r="F890" t="n">
         <v>0.07879650000000001</v>
@@ -25355,7 +25355,7 @@
         <v>1.984960956794869</v>
       </c>
       <c r="E891" t="n">
-        <v>0.005014522927197428</v>
+        <v>0.287311</v>
       </c>
       <c r="F891" t="n">
         <v>0.0302982</v>
@@ -25383,7 +25383,7 @@
         <v>1.967401839991007</v>
       </c>
       <c r="E892" t="n">
-        <v>0.008187112628302641</v>
+        <v>0.469087</v>
       </c>
       <c r="F892" t="n">
         <v>0.07614319999999999</v>
@@ -25411,7 +25411,7 @@
         <v>1.919346242865002</v>
       </c>
       <c r="E893" t="n">
-        <v>0.01102653642849465</v>
+        <v>0.6317739999999999</v>
       </c>
       <c r="F893" t="n">
         <v>0.178237</v>
@@ -25439,7 +25439,7 @@
         <v>1.933703700156774</v>
       </c>
       <c r="E894" t="n">
-        <v>0.01938380120557422</v>
+        <v>1.11061</v>
       </c>
       <c r="F894" t="n">
         <v>0.171662</v>
@@ -25467,7 +25467,7 @@
         <v>1.969842633308559</v>
       </c>
       <c r="E895" t="n">
-        <v>0.02775841455541862</v>
+        <v>1.59044</v>
       </c>
       <c r="F895" t="n">
         <v>0.173902</v>
@@ -25495,7 +25495,7 @@
         <v>1.949561489155959</v>
       </c>
       <c r="E896" t="n">
-        <v>0.03337436048956077</v>
+        <v>1.91221</v>
       </c>
       <c r="F896" t="n">
         <v>-0.0302342</v>
@@ -25523,7 +25523,7 @@
         <v>1.939708741022734</v>
       </c>
       <c r="E897" t="n">
-        <v>0.04017870111138586</v>
+        <v>2.30207</v>
       </c>
       <c r="F897" t="n">
         <v>0.342648</v>
@@ -25551,7 +25551,7 @@
         <v>1.944384221289609</v>
       </c>
       <c r="E898" t="n">
-        <v>0.04603550248230324</v>
+        <v>2.63764</v>
       </c>
       <c r="F898" t="n">
         <v>0.113748</v>
@@ -25579,7 +25579,7 @@
         <v>1.92185587388857</v>
       </c>
       <c r="E899" t="n">
-        <v>0.05027333643907067</v>
+        <v>2.88045</v>
       </c>
       <c r="F899" t="n">
         <v>-0.023495</v>
@@ -25607,7 +25607,7 @@
         <v>1.928642009290475</v>
       </c>
       <c r="E900" t="n">
-        <v>0.05592000016804792</v>
+        <v>3.20398</v>
       </c>
       <c r="F900" t="n">
         <v>-0.00157981</v>
@@ -25635,7 +25635,7 @@
         <v>1.924559689903122</v>
       </c>
       <c r="E901" t="n">
-        <v>0.06268419821707714</v>
+        <v>3.59154</v>
       </c>
       <c r="F901" t="n">
         <v>0.145221</v>
@@ -25663,7 +25663,7 @@
         <v>1.92391787766526</v>
       </c>
       <c r="E902" t="n">
-        <v>0.07284253806245973</v>
+        <v>4.17357</v>
       </c>
       <c r="F902" t="n">
         <v>-0.126623</v>
@@ -25691,7 +25691,7 @@
         <v>1.948781670685559</v>
       </c>
       <c r="E903" t="n">
-        <v>0.07964391162455643</v>
+        <v>4.56326</v>
       </c>
       <c r="F903" t="n">
         <v>-0.222095</v>
@@ -25719,7 +25719,7 @@
         <v>1.948247930834266</v>
       </c>
       <c r="E904" t="n">
-        <v>0.08399815904243189</v>
+        <v>4.81274</v>
       </c>
       <c r="F904" t="n">
         <v>0.0560238</v>
@@ -25747,7 +25747,7 @@
         <v>1.93068640643684</v>
       </c>
       <c r="E905" t="n">
-        <v>0.08767923296781313</v>
+        <v>5.02365</v>
       </c>
       <c r="F905" t="n">
         <v>-0.150521</v>
@@ -25775,7 +25775,7 @@
         <v>1.943782395228437</v>
       </c>
       <c r="E906" t="n">
-        <v>0.0928637335108623</v>
+        <v>5.3207</v>
       </c>
       <c r="F906" t="n">
         <v>-0.297347</v>
@@ -25803,7 +25803,7 @@
         <v>1.930038859712415</v>
       </c>
       <c r="E907" t="n">
-        <v>0.09856345524910017</v>
+        <v>5.64727</v>
       </c>
       <c r="F907" t="n">
         <v>-0.136018</v>
@@ -25831,7 +25831,7 @@
         <v>1.963407751843717</v>
       </c>
       <c r="E908" t="n">
-        <v>0.1014788532316315</v>
+        <v>5.81431</v>
       </c>
       <c r="F908" t="n">
         <v>-0.153913</v>
@@ -25859,7 +25859,7 @@
         <v>1.991564711476883</v>
       </c>
       <c r="E909" t="n">
-        <v>0.1046450550276744</v>
+        <v>5.99572</v>
       </c>
       <c r="F909" t="n">
         <v>-0.150506</v>
@@ -25887,7 +25887,7 @@
         <v>1.993404123603641</v>
       </c>
       <c r="E910" t="n">
-        <v>0.1079222597641442</v>
+        <v>6.18349</v>
       </c>
       <c r="F910" t="n">
         <v>-0.0328286</v>
@@ -25915,7 +25915,7 @@
         <v>2.041925561816591</v>
       </c>
       <c r="E911" t="n">
-        <v>0.001470607446413414</v>
+        <v>0.0842596</v>
       </c>
       <c r="F911" t="n">
         <v>0.144509</v>
@@ -25943,7 +25943,7 @@
         <v>2.012319557128042</v>
       </c>
       <c r="E912" t="n">
-        <v>0.004835033266922331</v>
+        <v>0.277027</v>
       </c>
       <c r="F912" t="n">
         <v>0.261773</v>
@@ -25971,7 +25971,7 @@
         <v>2.016494483007578</v>
       </c>
       <c r="E913" t="n">
-        <v>0.008326756421754707</v>
+        <v>0.477088</v>
       </c>
       <c r="F913" t="n">
         <v>0.189717</v>
@@ -25999,7 +25999,7 @@
         <v>2.038317933983803</v>
       </c>
       <c r="E914" t="n">
-        <v>0.01144904573381744</v>
+        <v>0.655982</v>
       </c>
       <c r="F914" t="n">
         <v>0.101756</v>
@@ -26027,7 +26027,7 @@
         <v>1.994407180091367</v>
       </c>
       <c r="E915" t="n">
-        <v>0.01572597506582955</v>
+        <v>0.9010320000000001</v>
       </c>
       <c r="F915" t="n">
         <v>0.140582</v>
@@ -26055,7 +26055,7 @@
         <v>2.053535974849236</v>
       </c>
       <c r="E916" t="n">
-        <v>0.0223464976108346</v>
+        <v>1.28036</v>
       </c>
       <c r="F916" t="n">
         <v>0.300633</v>
@@ -26083,7 +26083,7 @@
         <v>2.027052046692437</v>
       </c>
       <c r="E917" t="n">
-        <v>0.02944143555311675</v>
+        <v>1.68687</v>
       </c>
       <c r="F917" t="n">
         <v>0.342338</v>
@@ -26111,7 +26111,7 @@
         <v>1.999374902313221</v>
       </c>
       <c r="E918" t="n">
-        <v>0.0351193406757047</v>
+        <v>2.01219</v>
       </c>
       <c r="F918" t="n">
         <v>-0.008760789999999999</v>
@@ -26139,7 +26139,7 @@
         <v>1.999567453225822</v>
       </c>
       <c r="E919" t="n">
-        <v>0.04014623798729876</v>
+        <v>2.30021</v>
       </c>
       <c r="F919" t="n">
         <v>-0.075202</v>
@@ -26167,7 +26167,7 @@
         <v>2.021489549812217</v>
       </c>
       <c r="E920" t="n">
-        <v>0.04580529355396518</v>
+        <v>2.62445</v>
       </c>
       <c r="F920" t="n">
         <v>0.247526</v>
@@ -26195,7 +26195,7 @@
         <v>2.008001494023349</v>
       </c>
       <c r="E921" t="n">
-        <v>0.05489601549590285</v>
+        <v>3.14531</v>
       </c>
       <c r="F921" t="n">
         <v>-0.257792</v>
@@ -26223,7 +26223,7 @@
         <v>2.017510842597878</v>
       </c>
       <c r="E922" t="n">
-        <v>0.06335091399133898</v>
+        <v>3.62974</v>
       </c>
       <c r="F922" t="n">
         <v>-0.124568</v>
@@ -26251,7 +26251,7 @@
         <v>2.022503399255487</v>
       </c>
       <c r="E923" t="n">
-        <v>0.0711603897293876</v>
+        <v>4.07719</v>
       </c>
       <c r="F923" t="n">
         <v>-0.0427096</v>
@@ -26279,7 +26279,7 @@
         <v>2.039124812266282</v>
       </c>
       <c r="E924" t="n">
-        <v>0.07976940079777484</v>
+        <v>4.57045</v>
       </c>
       <c r="F924" t="n">
         <v>-0.285722</v>
@@ -26307,7 +26307,7 @@
         <v>2.061361200760313</v>
       </c>
       <c r="E925" t="n">
-        <v>0.09162262987976913</v>
+        <v>5.24959</v>
       </c>
       <c r="F925" t="n">
         <v>-0.30796</v>
@@ -26335,7 +26335,7 @@
         <v>2.008076193773533</v>
       </c>
       <c r="E926" t="n">
-        <v>0.1010379830625777</v>
+        <v>5.78905</v>
       </c>
       <c r="F926" t="n">
         <v>-0.138556</v>
@@ -26363,7 +26363,7 @@
         <v>2.049831700408597</v>
       </c>
       <c r="E927" t="n">
-        <v>0.1073883635459591</v>
+        <v>6.1529</v>
       </c>
       <c r="F927" t="n">
         <v>0.118355</v>
@@ -26391,7 +26391,7 @@
         <v>1.935799576402475</v>
       </c>
       <c r="E928" t="n">
-        <v>0.001665269253876097</v>
+        <v>0.09541289999999999</v>
       </c>
       <c r="F928" t="n">
         <v>0.005892</v>
@@ -26419,7 +26419,7 @@
         <v>1.948029773899773</v>
       </c>
       <c r="E929" t="n">
-        <v>0.005203140659460455</v>
+        <v>0.298118</v>
       </c>
       <c r="F929" t="n">
         <v>0.00628953</v>
@@ -26447,7 +26447,7 @@
         <v>1.969982233422424</v>
       </c>
       <c r="E930" t="n">
-        <v>0.008081921634284943</v>
+        <v>0.46306</v>
       </c>
       <c r="F930" t="n">
         <v>0.0595455</v>
@@ -26475,7 +26475,7 @@
         <v>1.93661044095089</v>
       </c>
       <c r="E931" t="n">
-        <v>0.01229849748076308</v>
+        <v>0.7046519999999999</v>
       </c>
       <c r="F931" t="n">
         <v>0.149593</v>
@@ -26503,7 +26503,7 @@
         <v>1.947254477463077</v>
       </c>
       <c r="E932" t="n">
-        <v>0.02197369528260861</v>
+        <v>1.259</v>
       </c>
       <c r="F932" t="n">
         <v>0.108571</v>
@@ -26531,7 +26531,7 @@
         <v>1.967971036372233</v>
       </c>
       <c r="E933" t="n">
-        <v>0.03337523315418676</v>
+        <v>1.91226</v>
       </c>
       <c r="F933" t="n">
         <v>0.544523</v>
@@ -26559,7 +26559,7 @@
         <v>1.966918910377345</v>
       </c>
       <c r="E934" t="n">
-        <v>0.04544313773417636</v>
+        <v>2.6037</v>
       </c>
       <c r="F934" t="n">
         <v>-0.155542</v>
@@ -26587,7 +26587,7 @@
         <v>1.952354988212953</v>
       </c>
       <c r="E935" t="n">
-        <v>0.05385806818974182</v>
+        <v>3.08584</v>
       </c>
       <c r="F935" t="n">
         <v>-0.348308</v>
@@ -26615,7 +26615,7 @@
         <v>1.977086239899514</v>
       </c>
       <c r="E936" t="n">
-        <v>0.06544408736325578</v>
+        <v>3.74967</v>
       </c>
       <c r="F936" t="n">
         <v>-0.409167</v>
@@ -26643,7 +26643,7 @@
         <v>1.957232740376065</v>
       </c>
       <c r="E937" t="n">
-        <v>0.0777216059864099</v>
+        <v>4.45312</v>
       </c>
       <c r="F937" t="n">
         <v>0.0493021</v>
@@ -26671,7 +26671,7 @@
         <v>1.945656701476393</v>
       </c>
       <c r="E938" t="n">
-        <v>0.08719699849548709</v>
+        <v>4.99602</v>
       </c>
       <c r="F938" t="n">
         <v>-0.215604</v>
@@ -26699,7 +26699,7 @@
         <v>1.957340031777821</v>
       </c>
       <c r="E939" t="n">
-        <v>0.09669054242878505</v>
+        <v>5.53996</v>
       </c>
       <c r="F939" t="n">
         <v>-0.247324</v>
@@ -26727,7 +26727,7 @@
         <v>1.985326169675905</v>
       </c>
       <c r="E940" t="n">
-        <v>0.1016776462334337</v>
+        <v>5.8257</v>
       </c>
       <c r="F940" t="n">
         <v>-0.0865828</v>
@@ -26755,7 +26755,7 @@
         <v>1.953274174303239</v>
       </c>
       <c r="E941" t="n">
-        <v>0.1043654532815049</v>
+        <v>5.9797</v>
       </c>
       <c r="F941" t="n">
         <v>-0.0885532</v>
@@ -26783,7 +26783,7 @@
         <v>1.923980249378876</v>
       </c>
       <c r="E942" t="n">
-        <v>0.1078824662571987</v>
+        <v>6.18121</v>
       </c>
       <c r="F942" t="n">
         <v>-0.0635241</v>
@@ -26811,7 +26811,7 @@
         <v>2.051611561675358</v>
       </c>
       <c r="E943" t="n">
-        <v>0.001647124810972365</v>
+        <v>0.09437329999999999</v>
       </c>
       <c r="F943" t="n">
         <v>0.19314</v>
@@ -26839,7 +26839,7 @@
         <v>2.07716633903017</v>
       </c>
       <c r="E944" t="n">
-        <v>0.005911936321987873</v>
+        <v>0.338729</v>
       </c>
       <c r="F944" t="n">
         <v>0.252487</v>
@@ -26867,7 +26867,7 @@
         <v>2.013380242279138</v>
       </c>
       <c r="E945" t="n">
-        <v>0.0169711802206649</v>
+        <v>0.972377</v>
       </c>
       <c r="F945" t="n">
         <v>-0.301709</v>
@@ -26895,7 +26895,7 @@
         <v>2.036344764522943</v>
       </c>
       <c r="E946" t="n">
-        <v>0.0276095379702235</v>
+        <v>1.58191</v>
       </c>
       <c r="F946" t="n">
         <v>0.0253612</v>
@@ -26923,7 +26923,7 @@
         <v>2.036408603399622</v>
       </c>
       <c r="E947" t="n">
-        <v>0.03618695857914963</v>
+        <v>2.07336</v>
       </c>
       <c r="F947" t="n">
         <v>0.00452792</v>
@@ -26951,7 +26951,7 @@
         <v>1.997235589508659</v>
       </c>
       <c r="E948" t="n">
-        <v>0.04378874013621094</v>
+        <v>2.50891</v>
       </c>
       <c r="F948" t="n">
         <v>0.273953</v>
@@ -26979,7 +26979,7 @@
         <v>2.016506880722206</v>
       </c>
       <c r="E949" t="n">
-        <v>0.05358125897037552</v>
+        <v>3.06998</v>
       </c>
       <c r="F949" t="n">
         <v>0.174142</v>
@@ -27007,7 +27007,7 @@
         <v>2.046487234262652</v>
       </c>
       <c r="E950" t="n">
-        <v>0.0637437876059629</v>
+        <v>3.65225</v>
       </c>
       <c r="F950" t="n">
         <v>-0.0537419</v>
@@ -27035,7 +27035,7 @@
         <v>2.017748745508221</v>
       </c>
       <c r="E951" t="n">
-        <v>0.07600053681101829</v>
+        <v>4.35451</v>
       </c>
       <c r="F951" t="n">
         <v>-0.298676</v>
@@ -27063,7 +27063,7 @@
         <v>2.021390610446185</v>
       </c>
       <c r="E952" t="n">
-        <v>0.08588171837118418</v>
+        <v>4.92066</v>
       </c>
       <c r="F952" t="n">
         <v>0.0188647</v>
@@ -27091,7 +27091,7 @@
         <v>2.037309500296899</v>
       </c>
       <c r="E953" t="n">
-        <v>0.09518048355995956</v>
+        <v>5.45344</v>
       </c>
       <c r="F953" t="n">
         <v>-0.28118</v>
@@ -27119,7 +27119,7 @@
         <v>2.074360142308948</v>
       </c>
       <c r="E954" t="n">
-        <v>0.1025962130187583</v>
+        <v>5.87833</v>
       </c>
       <c r="F954" t="n">
         <v>-0.0955593</v>
@@ -27147,7 +27147,7 @@
         <v>2.070400927356825</v>
       </c>
       <c r="E955" t="n">
-        <v>0.1075604530102057</v>
+        <v>6.16276</v>
       </c>
       <c r="F955" t="n">
         <v>-0.0931545</v>
@@ -27175,7 +27175,7 @@
         <v>2.445784127841212</v>
       </c>
       <c r="E956" t="n">
-        <v>0.002620472245529326</v>
+        <v>0.150142</v>
       </c>
       <c r="F956" t="n">
         <v>0.102381</v>
@@ -27203,7 +27203,7 @@
         <v>2.449665283258103</v>
       </c>
       <c r="E957" t="n">
-        <v>0.007626879391704981</v>
+        <v>0.436988</v>
       </c>
       <c r="F957" t="n">
         <v>-0.0188744</v>
@@ -27231,7 +27231,7 @@
         <v>2.415613793635067</v>
       </c>
       <c r="E958" t="n">
-        <v>0.01336327049752726</v>
+        <v>0.765659</v>
       </c>
       <c r="F958" t="n">
         <v>0.216617</v>
@@ -27259,7 +27259,7 @@
         <v>2.403045983746462</v>
       </c>
       <c r="E959" t="n">
-        <v>0.01959132085363635</v>
+        <v>1.1225</v>
       </c>
       <c r="F959" t="n">
         <v>0.21921</v>
@@ -27287,7 +27287,7 @@
         <v>2.441872232529786</v>
       </c>
       <c r="E960" t="n">
-        <v>0.02802405366757215</v>
+        <v>1.60566</v>
       </c>
       <c r="F960" t="n">
         <v>0.360033</v>
@@ -27315,7 +27315,7 @@
         <v>2.460176822913345</v>
       </c>
       <c r="E961" t="n">
-        <v>0.03908211074235782</v>
+        <v>2.23924</v>
       </c>
       <c r="F961" t="n">
         <v>0.152528</v>
@@ -27343,7 +27343,7 @@
         <v>2.427144412679229</v>
       </c>
       <c r="E962" t="n">
-        <v>0.07241283800061873</v>
+        <v>4.14895</v>
       </c>
       <c r="F962" t="n">
         <v>-0.0803973</v>
@@ -27371,7 +27371,7 @@
         <v>2.434771036463183</v>
       </c>
       <c r="E963" t="n">
-        <v>0.0836553763773402</v>
+        <v>4.7931</v>
       </c>
       <c r="F963" t="n">
         <v>-0.458683</v>
@@ -27399,7 +27399,7 @@
         <v>2.463101703137733</v>
       </c>
       <c r="E964" t="n">
-        <v>0.09357338438472319</v>
+        <v>5.36136</v>
       </c>
       <c r="F964" t="n">
         <v>-0.152424</v>
@@ -27427,7 +27427,7 @@
         <v>2.431629083556948</v>
       </c>
       <c r="E965" t="n">
-        <v>0.1051323509548312</v>
+        <v>6.02364</v>
       </c>
       <c r="F965" t="n">
         <v>-0.0109414</v>
@@ -27455,7 +27455,7 @@
         <v>2.368524857374311</v>
       </c>
       <c r="E966" t="n">
-        <v>0.002268666228204829</v>
+        <v>0.129985</v>
       </c>
       <c r="F966" t="n">
         <v>0.107154</v>
@@ -27483,7 +27483,7 @@
         <v>2.404117301630684</v>
       </c>
       <c r="E967" t="n">
-        <v>0.007301707098765917</v>
+        <v>0.418357</v>
       </c>
       <c r="F967" t="n">
         <v>0.0850094</v>
@@ -27511,7 +27511,7 @@
         <v>2.394067668216586</v>
       </c>
       <c r="E968" t="n">
-        <v>0.01423312514342872</v>
+        <v>0.8154979999999999</v>
       </c>
       <c r="F968" t="n">
         <v>0.231968</v>
@@ -27539,7 +27539,7 @@
         <v>2.416495396229838</v>
       </c>
       <c r="E969" t="n">
-        <v>0.02291599854576035</v>
+        <v>1.31299</v>
       </c>
       <c r="F969" t="n">
         <v>0.386031</v>
@@ -27567,7 +27567,7 @@
         <v>2.405300397039837</v>
       </c>
       <c r="E970" t="n">
-        <v>0.03273836251013403</v>
+        <v>1.87577</v>
       </c>
       <c r="F970" t="n">
         <v>0.457585</v>
@@ -27595,7 +27595,7 @@
         <v>2.441827184712301</v>
       </c>
       <c r="E971" t="n">
-        <v>0.06624903321427557</v>
+        <v>3.79579</v>
       </c>
       <c r="F971" t="n">
         <v>-0.262862</v>
@@ -27623,7 +27623,7 @@
         <v>2.417707591914291</v>
       </c>
       <c r="E972" t="n">
-        <v>0.07745317434745316</v>
+        <v>4.43774</v>
       </c>
       <c r="F972" t="n">
         <v>-0.224471</v>
@@ -27651,7 +27651,7 @@
         <v>2.421381836885707</v>
       </c>
       <c r="E973" t="n">
-        <v>0.08775742371830249</v>
+        <v>5.02813</v>
       </c>
       <c r="F973" t="n">
         <v>-0.302929</v>
@@ -27679,7 +27679,7 @@
         <v>2.41739736079942</v>
       </c>
       <c r="E974" t="n">
-        <v>0.09915320200334907</v>
+        <v>5.68106</v>
       </c>
       <c r="F974" t="n">
         <v>-0.222589</v>
@@ -27707,7 +27707,7 @@
         <v>2.357373538495756</v>
       </c>
       <c r="E975" t="n">
-        <v>0.106674174816043</v>
+        <v>6.11198</v>
       </c>
       <c r="F975" t="n">
         <v>0.00435166</v>
@@ -27735,7 +27735,7 @@
         <v>2.36345298239673</v>
       </c>
       <c r="E976" t="n">
-        <v>0.001598705886863538</v>
+        <v>0.0915991</v>
       </c>
       <c r="F976" t="n">
         <v>0.00696017</v>
@@ -27763,7 +27763,7 @@
         <v>2.351769546532993</v>
       </c>
       <c r="E977" t="n">
-        <v>0.004918128392609781</v>
+        <v>0.281788</v>
       </c>
       <c r="F977" t="n">
         <v>0.179663</v>
@@ -27791,7 +27791,7 @@
         <v>2.384212658300429</v>
       </c>
       <c r="E978" t="n">
-        <v>0.009154950058411056</v>
+        <v>0.52454</v>
       </c>
       <c r="F978" t="n">
         <v>0.208626</v>
@@ -27819,7 +27819,7 @@
         <v>2.45813343820062</v>
       </c>
       <c r="E979" t="n">
-        <v>0.01894031304264246</v>
+        <v>1.0852</v>
       </c>
       <c r="F979" t="n">
         <v>0.240605</v>
@@ -27847,7 +27847,7 @@
         <v>2.443448382921154</v>
       </c>
       <c r="E980" t="n">
-        <v>0.02952835294986607</v>
+        <v>1.69185</v>
       </c>
       <c r="F980" t="n">
         <v>0.320318</v>
@@ -27875,7 +27875,7 @@
         <v>2.384711722619739</v>
       </c>
       <c r="E981" t="n">
-        <v>0.03970728768042219</v>
+        <v>2.27506</v>
       </c>
       <c r="F981" t="n">
         <v>-0.0554102</v>
@@ -27903,7 +27903,7 @@
         <v>2.370502056527267</v>
       </c>
       <c r="E982" t="n">
-        <v>0.05092207532203696</v>
+        <v>2.91762</v>
       </c>
       <c r="F982" t="n">
         <v>-0.0350744</v>
@@ -27931,7 +27931,7 @@
         <v>2.42999794238596</v>
       </c>
       <c r="E983" t="n">
-        <v>0.06172304539800386</v>
+        <v>3.53647</v>
       </c>
       <c r="F983" t="n">
         <v>-0.119202</v>
@@ -27959,7 +27959,7 @@
         <v>2.439161741254565</v>
       </c>
       <c r="E984" t="n">
-        <v>0.07407718397532052</v>
+        <v>4.24431</v>
       </c>
       <c r="F984" t="n">
         <v>-0.567327</v>
@@ -27987,7 +27987,7 @@
         <v>2.42711145191151</v>
       </c>
       <c r="E985" t="n">
-        <v>0.08502703063648255</v>
+        <v>4.87169</v>
       </c>
       <c r="F985" t="n">
         <v>-0.302393</v>
@@ -28015,7 +28015,7 @@
         <v>2.379974789782446</v>
       </c>
       <c r="E986" t="n">
-        <v>0.09523685769479898</v>
+        <v>5.45667</v>
       </c>
       <c r="F986" t="n">
         <v>-0.0755033</v>
@@ -28043,7 +28043,7 @@
         <v>2.33671778355881</v>
       </c>
       <c r="E987" t="n">
-        <v>0.1035835457766115</v>
+        <v>5.9349</v>
       </c>
       <c r="F987" t="n">
         <v>-0.00326229</v>
@@ -28071,7 +28071,7 @@
         <v>2.348092843138874</v>
       </c>
       <c r="E988" t="n">
-        <v>0.1075894254757888</v>
+        <v>6.16442</v>
       </c>
       <c r="F988" t="n">
         <v>-0.166671</v>
@@ -28099,7 +28099,7 @@
         <v>2.434220614488342</v>
       </c>
       <c r="E989" t="n">
-        <v>0.00158145854319533</v>
+        <v>0.09061089999999999</v>
       </c>
       <c r="F989" t="n">
         <v>-0.114737</v>
@@ -28127,7 +28127,7 @@
         <v>2.439438459973934</v>
       </c>
       <c r="E990" t="n">
-        <v>0.005079361908909018</v>
+        <v>0.291026</v>
       </c>
       <c r="F990" t="n">
         <v>0.181528</v>
@@ -28155,7 +28155,7 @@
         <v>2.387871437075288</v>
       </c>
       <c r="E991" t="n">
-        <v>0.009346726836620193</v>
+        <v>0.535528</v>
       </c>
       <c r="F991" t="n">
         <v>0.287659</v>
@@ -28183,7 +28183,7 @@
         <v>2.431223971583038</v>
       </c>
       <c r="E992" t="n">
-        <v>0.02193163284763555</v>
+        <v>1.25659</v>
       </c>
       <c r="F992" t="n">
         <v>0.187699</v>
@@ -28211,7 +28211,7 @@
         <v>2.441073534328698</v>
       </c>
       <c r="E993" t="n">
-        <v>0.03360247502279643</v>
+        <v>1.92528</v>
       </c>
       <c r="F993" t="n">
         <v>0.192555</v>
@@ -28239,7 +28239,7 @@
         <v>2.432313713319069</v>
       </c>
       <c r="E994" t="n">
-        <v>0.0435194358326282</v>
+        <v>2.49348</v>
       </c>
       <c r="F994" t="n">
         <v>0.0443024</v>
@@ -28267,7 +28267,7 @@
         <v>2.364451310558118</v>
       </c>
       <c r="E995" t="n">
-        <v>0.05527405381188482</v>
+        <v>3.16697</v>
       </c>
       <c r="F995" t="n">
         <v>0.469828</v>
@@ -28295,7 +28295,7 @@
         <v>2.453634039542164</v>
       </c>
       <c r="E996" t="n">
-        <v>0.06620731984515289</v>
+        <v>3.7934</v>
       </c>
       <c r="F996" t="n">
         <v>-0.605469</v>
@@ -28323,7 +28323,7 @@
         <v>2.435175558353032</v>
       </c>
       <c r="E997" t="n">
-        <v>0.07724617829816664</v>
+        <v>4.42588</v>
       </c>
       <c r="F997" t="n">
         <v>-0.19344</v>
@@ -28351,7 +28351,7 @@
         <v>2.450544837378006</v>
       </c>
       <c r="E998" t="n">
-        <v>0.08691739674931762</v>
+        <v>4.98</v>
       </c>
       <c r="F998" t="n">
         <v>-0.207982</v>
@@ -28379,7 +28379,7 @@
         <v>2.4320793572579</v>
       </c>
       <c r="E999" t="n">
-        <v>0.09739181572223639</v>
+        <v>5.58014</v>
       </c>
       <c r="F999" t="n">
         <v>0.212485</v>
@@ -28407,7 +28407,7 @@
         <v>2.414406759433878</v>
       </c>
       <c r="E1000" t="n">
-        <v>0.1035805787168831</v>
+        <v>5.93473</v>
       </c>
       <c r="F1000" t="n">
         <v>-0.234214</v>
@@ -28435,7 +28435,7 @@
         <v>2.411532707636369</v>
       </c>
       <c r="E1001" t="n">
-        <v>0.107287658048119</v>
+        <v>6.14713</v>
       </c>
       <c r="F1001" t="n">
         <v>0.0970322</v>
@@ -28463,7 +28463,7 @@
         <v>2.721174378829846</v>
       </c>
       <c r="E1002" t="n">
-        <v>0.004792342513418551</v>
+        <v>0.274581</v>
       </c>
       <c r="F1002" t="n">
         <v>0.242551</v>
@@ -28491,7 +28491,7 @@
         <v>2.643648993342346</v>
       </c>
       <c r="E1003" t="n">
-        <v>0.01639600696567017</v>
+        <v>0.939422</v>
       </c>
       <c r="F1003" t="n">
         <v>0.237649</v>
@@ -28519,7 +28519,7 @@
         <v>2.672650369951147</v>
       </c>
       <c r="E1004" t="n">
-        <v>0.08324993639210193</v>
+        <v>4.76987</v>
       </c>
       <c r="F1004" t="n">
         <v>0.355816</v>
@@ -28547,7 +28547,7 @@
         <v>2.621156233420663</v>
       </c>
       <c r="E1005" t="n">
-        <v>0.09375542222570619</v>
+        <v>5.37179</v>
       </c>
       <c r="F1005" t="n">
         <v>-0.179979</v>
@@ -28575,7 +28575,7 @@
         <v>2.726919507429583</v>
       </c>
       <c r="E1006" t="n">
-        <v>0.1055257481682308</v>
+        <v>6.04618</v>
       </c>
       <c r="F1006" t="n">
         <v>0.133889</v>

--- a/Raw_Data/DVCS_data/DVCSoutput/4_ALL_QfefWWW2.xlsx
+++ b/Raw_Data/DVCS_data/DVCSoutput/4_ALL_QfefWWW2.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10889,7 +10889,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11589,7 +11589,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12905,7 +12905,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13185,7 +13185,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13297,7 +13297,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14025,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14417,7 +14417,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14641,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14725,7 +14725,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14781,7 +14781,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15537,7 +15537,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15677,7 +15677,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16069,7 +16069,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16265,7 +16265,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16405,7 +16405,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16741,7 +16741,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17049,7 +17049,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17329,7 +17329,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17385,7 +17385,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17581,7 +17581,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17721,7 +17721,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17805,7 +17805,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18225,7 +18225,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18309,7 +18309,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18365,7 +18365,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18589,7 +18589,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18869,7 +18869,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19093,7 +19093,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19205,7 +19205,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19345,7 +19345,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19373,7 +19373,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19513,7 +19513,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19569,7 +19569,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19709,7 +19709,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19849,7 +19849,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19905,7 +19905,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -19989,7 +19989,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20101,7 +20101,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20157,7 +20157,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20213,7 +20213,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20381,7 +20381,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20409,7 +20409,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20437,7 +20437,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20549,7 +20549,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20577,7 +20577,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20717,7 +20717,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20829,7 +20829,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21053,7 +21053,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21109,7 +21109,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21249,7 +21249,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21277,7 +21277,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21361,7 +21361,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21501,7 +21501,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21557,7 +21557,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21697,7 +21697,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21809,7 +21809,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21837,7 +21837,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21865,7 +21865,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21893,7 +21893,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -21977,7 +21977,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22005,7 +22005,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22061,7 +22061,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22089,7 +22089,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22117,7 +22117,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22145,7 +22145,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22229,7 +22229,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22313,7 +22313,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22397,7 +22397,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22453,7 +22453,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22509,7 +22509,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22565,7 +22565,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22649,7 +22649,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22677,7 +22677,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22705,7 +22705,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22733,7 +22733,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22761,7 +22761,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22789,7 +22789,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22845,7 +22845,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22901,7 +22901,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23013,7 +23013,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23125,7 +23125,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23181,7 +23181,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23237,7 +23237,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23265,7 +23265,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23349,7 +23349,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23405,7 +23405,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23433,7 +23433,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23461,7 +23461,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23489,7 +23489,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23601,7 +23601,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23629,7 +23629,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23685,7 +23685,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23713,7 +23713,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23741,7 +23741,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23769,7 +23769,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23825,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23853,7 +23853,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23881,7 +23881,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23909,7 +23909,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23937,7 +23937,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24021,7 +24021,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24049,7 +24049,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24077,7 +24077,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24357,7 +24357,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24385,7 +24385,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24441,7 +24441,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24469,7 +24469,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24497,7 +24497,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24553,7 +24553,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24609,7 +24609,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24637,7 +24637,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24693,7 +24693,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24721,7 +24721,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24833,7 +24833,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24861,7 +24861,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24889,7 +24889,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24917,7 +24917,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -24973,7 +24973,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25001,7 +25001,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25029,7 +25029,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25057,7 +25057,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25113,7 +25113,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25141,7 +25141,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25169,7 +25169,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25197,7 +25197,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25281,7 +25281,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25309,7 +25309,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25337,7 +25337,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25393,7 +25393,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25449,7 +25449,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25477,7 +25477,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25533,7 +25533,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25561,7 +25561,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25589,7 +25589,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25617,7 +25617,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25645,7 +25645,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25673,7 +25673,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25701,7 +25701,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25729,7 +25729,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25813,7 +25813,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25841,7 +25841,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25869,7 +25869,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25925,7 +25925,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -25981,7 +25981,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26037,7 +26037,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26093,7 +26093,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26177,7 +26177,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26205,7 +26205,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26233,7 +26233,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26317,7 +26317,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26373,7 +26373,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26401,7 +26401,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26569,7 +26569,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26597,7 +26597,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26653,7 +26653,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26681,7 +26681,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26709,7 +26709,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26737,7 +26737,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26765,7 +26765,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26821,7 +26821,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26849,7 +26849,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26877,7 +26877,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26933,7 +26933,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26961,7 +26961,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -26989,7 +26989,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27045,7 +27045,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27101,7 +27101,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27185,7 +27185,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27241,7 +27241,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27269,7 +27269,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27297,7 +27297,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27325,7 +27325,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27381,7 +27381,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27409,7 +27409,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27437,7 +27437,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27465,7 +27465,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27493,7 +27493,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27521,7 +27521,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27549,7 +27549,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27605,7 +27605,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27633,7 +27633,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27661,7 +27661,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27689,7 +27689,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27801,7 +27801,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27829,7 +27829,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27857,7 +27857,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27885,7 +27885,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27913,7 +27913,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27941,7 +27941,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27969,7 +27969,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -27997,7 +27997,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28025,7 +28025,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28053,7 +28053,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28109,7 +28109,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28137,7 +28137,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28193,7 +28193,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28221,7 +28221,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28249,7 +28249,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28277,7 +28277,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28305,7 +28305,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28361,7 +28361,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28389,7 +28389,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28417,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28473,7 +28473,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28501,7 +28501,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28557,7 +28557,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
@@ -28585,7 +28585,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>LU</t>
         </is>
       </c>
     </row>
